--- a/resultados/Tabla Práctica 2.xlsx
+++ b/resultados/Tabla Práctica 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Desktop\Practica2MH\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A926AB7-24CB-4B9D-9970-896DAA434AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7554CAF0-4575-4D81-A421-A17254E0EDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9735" yWindow="885" windowWidth="21600" windowHeight="11265" xr2:uid="{11FB9E6F-B78B-44AD-B608-3F704304FA52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11FB9E6F-B78B-44AD-B608-3F704304FA52}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="67">
   <si>
     <t>Nº casos:</t>
   </si>
@@ -225,6 +225,15 @@
   </si>
   <si>
     <t>Algoritmo AGG-uniforme</t>
+  </si>
+  <si>
+    <t>Algoritmo AM-10-1 (AGE-uniforme + bl)</t>
+  </si>
+  <si>
+    <t>Algoritmo AM-10-0.1 (AGE-uniforme + bl)</t>
+  </si>
+  <si>
+    <t>Algoritmo AM-10-0.1mej (AGE-uniforme + bl)</t>
   </si>
 </sst>
 </file>
@@ -382,7 +391,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -469,6 +478,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -790,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA8B429-1123-409D-A169-A988B43F4B2A}">
-  <dimension ref="A1:T107"/>
+  <dimension ref="A1:AB161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="I112" sqref="I112:I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,6 +821,8 @@
     <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.140625" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -832,21 +849,21 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
       <c r="L2" s="31"/>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
       <c r="R2" s="8"/>
       <c r="S2" s="9"/>
       <c r="T2" s="31"/>
@@ -3219,18 +3236,18 @@
     </row>
     <row r="55" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F56" s="36" t="s">
+      <c r="F56" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="N56" s="36" t="s">
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="N56" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
-      <c r="Q56" s="36"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
     </row>
     <row r="57" spans="1:20" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F57" s="13" t="s">
@@ -4368,7 +4385,7 @@
         <v>6932</v>
       </c>
     </row>
-    <row r="97" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F97" s="18" t="s">
         <v>49</v>
       </c>
@@ -4396,7 +4413,7 @@
         <v>6875</v>
       </c>
     </row>
-    <row r="98" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F98" s="18" t="s">
         <v>50</v>
       </c>
@@ -4424,7 +4441,7 @@
         <v>3573</v>
       </c>
     </row>
-    <row r="99" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F99" s="18" t="s">
         <v>51</v>
       </c>
@@ -4452,7 +4469,7 @@
         <v>3499</v>
       </c>
     </row>
-    <row r="100" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F100" s="18" t="s">
         <v>52</v>
       </c>
@@ -4480,7 +4497,7 @@
         <v>3519</v>
       </c>
     </row>
-    <row r="101" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F101" s="18" t="s">
         <v>53</v>
       </c>
@@ -4508,7 +4525,7 @@
         <v>4072</v>
       </c>
     </row>
-    <row r="102" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F102" s="18" t="s">
         <v>54</v>
       </c>
@@ -4536,7 +4553,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="103" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F103" s="18" t="s">
         <v>55</v>
       </c>
@@ -4564,7 +4581,7 @@
         <v>9628</v>
       </c>
     </row>
-    <row r="104" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F104" s="18" t="s">
         <v>56</v>
       </c>
@@ -4592,7 +4609,7 @@
         <v>10088</v>
       </c>
     </row>
-    <row r="105" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F105" s="18" t="s">
         <v>57</v>
       </c>
@@ -4620,7 +4637,7 @@
         <v>10318</v>
       </c>
     </row>
-    <row r="106" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F106" s="18" t="s">
         <v>58</v>
       </c>
@@ -4648,7 +4665,7 @@
         <v>10646</v>
       </c>
     </row>
-    <row r="107" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F107" s="18" t="s">
         <v>59</v>
       </c>
@@ -4676,12 +4693,1176 @@
         <v>9218</v>
       </c>
     </row>
+    <row r="109" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="6:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F110" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G110" s="38"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="38"/>
+      <c r="N110" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="O110" s="38"/>
+      <c r="P110" s="38"/>
+      <c r="Q110" s="38"/>
+      <c r="V110" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="W110" s="38"/>
+      <c r="X110" s="38"/>
+      <c r="Y110" s="38"/>
+    </row>
+    <row r="111" spans="6:25" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F111" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H111" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I111" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="N111" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O111" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P111" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q111" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="V111" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="W111" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="X111" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y111" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F112" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" s="19">
+        <v>0</v>
+      </c>
+      <c r="H112" s="20">
+        <v>0</v>
+      </c>
+      <c r="I112" s="28"/>
+      <c r="N112" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O112" s="19">
+        <v>0</v>
+      </c>
+      <c r="P112" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="28"/>
+      <c r="V112" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="W112" s="19">
+        <v>0</v>
+      </c>
+      <c r="X112" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y112" s="28"/>
+    </row>
+    <row r="113" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F113" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="19">
+        <v>0</v>
+      </c>
+      <c r="H113" s="20">
+        <v>0</v>
+      </c>
+      <c r="I113" s="28"/>
+      <c r="N113" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="O113" s="19">
+        <v>0</v>
+      </c>
+      <c r="P113" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="28"/>
+      <c r="V113" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="W113" s="19">
+        <v>0</v>
+      </c>
+      <c r="X113" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="28"/>
+    </row>
+    <row r="114" spans="6:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F114" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="19">
+        <v>0</v>
+      </c>
+      <c r="H114" s="20">
+        <v>0</v>
+      </c>
+      <c r="I114" s="28"/>
+      <c r="K114" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L114" s="35">
+        <f>AVERAGE(H112:H161)</f>
+        <v>0</v>
+      </c>
+      <c r="N114" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O114" s="19">
+        <v>0</v>
+      </c>
+      <c r="P114" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="28"/>
+      <c r="S114" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T114" s="35">
+        <f>AVERAGE(P112:P161)</f>
+        <v>0</v>
+      </c>
+      <c r="V114" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="W114" s="19">
+        <v>0</v>
+      </c>
+      <c r="X114" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y114" s="28"/>
+      <c r="AA114" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB114" s="35">
+        <f>AVERAGE(X112:X161)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="6:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F115" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="19">
+        <v>0</v>
+      </c>
+      <c r="H115" s="20">
+        <v>0</v>
+      </c>
+      <c r="I115" s="28"/>
+      <c r="K115" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L115" s="33" t="e">
+        <f>AVERAGE(I112:I161)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N115" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O115" s="19">
+        <v>0</v>
+      </c>
+      <c r="P115" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="28"/>
+      <c r="S115" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="T115" s="33" t="e">
+        <f>AVERAGE(Q112:Q161)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V115" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="W115" s="19">
+        <v>0</v>
+      </c>
+      <c r="X115" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y115" s="28"/>
+      <c r="AA115" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB115" s="33" t="e">
+        <f>AVERAGE(Y112:Y161)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="116" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F116" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" s="19">
+        <v>0</v>
+      </c>
+      <c r="H116" s="20">
+        <v>0</v>
+      </c>
+      <c r="I116" s="28"/>
+      <c r="N116" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O116" s="19">
+        <v>0</v>
+      </c>
+      <c r="P116" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="28"/>
+      <c r="V116" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="W116" s="19">
+        <v>0</v>
+      </c>
+      <c r="X116" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y116" s="28"/>
+    </row>
+    <row r="117" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F117" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="19"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="28"/>
+      <c r="N117" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O117" s="19"/>
+      <c r="P117" s="20"/>
+      <c r="Q117" s="28"/>
+      <c r="V117" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="W117" s="19"/>
+      <c r="X117" s="20"/>
+      <c r="Y117" s="28"/>
+    </row>
+    <row r="118" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F118" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" s="19"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="28"/>
+      <c r="N118" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O118" s="19"/>
+      <c r="P118" s="20"/>
+      <c r="Q118" s="28"/>
+      <c r="V118" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="W118" s="19"/>
+      <c r="X118" s="20"/>
+      <c r="Y118" s="28"/>
+    </row>
+    <row r="119" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F119" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G119" s="19"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="28"/>
+      <c r="N119" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O119" s="19"/>
+      <c r="P119" s="20"/>
+      <c r="Q119" s="28"/>
+      <c r="V119" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="W119" s="19"/>
+      <c r="X119" s="20"/>
+      <c r="Y119" s="28"/>
+    </row>
+    <row r="120" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F120" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120" s="19"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="28"/>
+      <c r="N120" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O120" s="19"/>
+      <c r="P120" s="20"/>
+      <c r="Q120" s="28"/>
+      <c r="V120" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="W120" s="19"/>
+      <c r="X120" s="20"/>
+      <c r="Y120" s="28"/>
+    </row>
+    <row r="121" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F121" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G121" s="19"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="28"/>
+      <c r="N121" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O121" s="19"/>
+      <c r="P121" s="20"/>
+      <c r="Q121" s="28"/>
+      <c r="V121" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="W121" s="19"/>
+      <c r="X121" s="20"/>
+      <c r="Y121" s="28"/>
+    </row>
+    <row r="122" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F122" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" s="19"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="28"/>
+      <c r="N122" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="O122" s="19"/>
+      <c r="P122" s="20"/>
+      <c r="Q122" s="28"/>
+      <c r="V122" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="W122" s="19"/>
+      <c r="X122" s="20"/>
+      <c r="Y122" s="28"/>
+    </row>
+    <row r="123" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F123" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G123" s="19"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="28"/>
+      <c r="N123" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O123" s="19"/>
+      <c r="P123" s="20"/>
+      <c r="Q123" s="28"/>
+      <c r="V123" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="W123" s="19"/>
+      <c r="X123" s="20"/>
+      <c r="Y123" s="28"/>
+    </row>
+    <row r="124" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F124" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G124" s="19"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="28"/>
+      <c r="N124" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O124" s="19"/>
+      <c r="P124" s="20"/>
+      <c r="Q124" s="28"/>
+      <c r="V124" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="W124" s="19"/>
+      <c r="X124" s="20"/>
+      <c r="Y124" s="28"/>
+    </row>
+    <row r="125" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F125" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G125" s="19"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="28"/>
+      <c r="N125" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="O125" s="19"/>
+      <c r="P125" s="20"/>
+      <c r="Q125" s="28"/>
+      <c r="V125" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="W125" s="19"/>
+      <c r="X125" s="20"/>
+      <c r="Y125" s="28"/>
+    </row>
+    <row r="126" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F126" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G126" s="19"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="28"/>
+      <c r="N126" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O126" s="19"/>
+      <c r="P126" s="20"/>
+      <c r="Q126" s="28"/>
+      <c r="V126" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="W126" s="19"/>
+      <c r="X126" s="20"/>
+      <c r="Y126" s="28"/>
+    </row>
+    <row r="127" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F127" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G127" s="19"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="28"/>
+      <c r="N127" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O127" s="19"/>
+      <c r="P127" s="20"/>
+      <c r="Q127" s="28"/>
+      <c r="V127" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="W127" s="19"/>
+      <c r="X127" s="20"/>
+      <c r="Y127" s="28"/>
+    </row>
+    <row r="128" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F128" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G128" s="19"/>
+      <c r="H128" s="20"/>
+      <c r="I128" s="28"/>
+      <c r="N128" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O128" s="19"/>
+      <c r="P128" s="20"/>
+      <c r="Q128" s="28"/>
+      <c r="V128" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="W128" s="19"/>
+      <c r="X128" s="20"/>
+      <c r="Y128" s="28"/>
+    </row>
+    <row r="129" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F129" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G129" s="19"/>
+      <c r="H129" s="20"/>
+      <c r="I129" s="28"/>
+      <c r="N129" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O129" s="19"/>
+      <c r="P129" s="20"/>
+      <c r="Q129" s="28"/>
+      <c r="V129" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W129" s="19"/>
+      <c r="X129" s="20"/>
+      <c r="Y129" s="28"/>
+    </row>
+    <row r="130" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F130" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G130" s="19"/>
+      <c r="H130" s="20"/>
+      <c r="I130" s="28"/>
+      <c r="N130" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O130" s="19"/>
+      <c r="P130" s="20"/>
+      <c r="Q130" s="28"/>
+      <c r="V130" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="W130" s="19"/>
+      <c r="X130" s="20"/>
+      <c r="Y130" s="28"/>
+    </row>
+    <row r="131" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F131" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G131" s="19"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="28"/>
+      <c r="N131" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O131" s="19"/>
+      <c r="P131" s="20"/>
+      <c r="Q131" s="28"/>
+      <c r="V131" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="W131" s="19"/>
+      <c r="X131" s="20"/>
+      <c r="Y131" s="28"/>
+    </row>
+    <row r="132" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F132" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G132" s="19"/>
+      <c r="H132" s="20"/>
+      <c r="I132" s="28"/>
+      <c r="N132" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O132" s="19"/>
+      <c r="P132" s="20"/>
+      <c r="Q132" s="28"/>
+      <c r="V132" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="W132" s="19"/>
+      <c r="X132" s="20"/>
+      <c r="Y132" s="28"/>
+    </row>
+    <row r="133" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F133" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G133" s="19"/>
+      <c r="H133" s="20"/>
+      <c r="I133" s="28"/>
+      <c r="N133" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O133" s="19"/>
+      <c r="P133" s="20"/>
+      <c r="Q133" s="28"/>
+      <c r="V133" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="W133" s="19"/>
+      <c r="X133" s="20"/>
+      <c r="Y133" s="28"/>
+    </row>
+    <row r="134" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F134" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G134" s="19"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="28"/>
+      <c r="N134" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O134" s="19"/>
+      <c r="P134" s="20"/>
+      <c r="Q134" s="28"/>
+      <c r="V134" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="W134" s="19"/>
+      <c r="X134" s="20"/>
+      <c r="Y134" s="28"/>
+    </row>
+    <row r="135" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F135" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G135" s="19"/>
+      <c r="H135" s="20"/>
+      <c r="I135" s="28"/>
+      <c r="N135" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="O135" s="19"/>
+      <c r="P135" s="20"/>
+      <c r="Q135" s="28"/>
+      <c r="V135" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="W135" s="19"/>
+      <c r="X135" s="20"/>
+      <c r="Y135" s="28"/>
+    </row>
+    <row r="136" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F136" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G136" s="19"/>
+      <c r="H136" s="20"/>
+      <c r="I136" s="28"/>
+      <c r="N136" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O136" s="19"/>
+      <c r="P136" s="20"/>
+      <c r="Q136" s="28"/>
+      <c r="V136" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="W136" s="19"/>
+      <c r="X136" s="20"/>
+      <c r="Y136" s="28"/>
+    </row>
+    <row r="137" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F137" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G137" s="19"/>
+      <c r="H137" s="20"/>
+      <c r="I137" s="28"/>
+      <c r="N137" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O137" s="19"/>
+      <c r="P137" s="20"/>
+      <c r="Q137" s="28"/>
+      <c r="V137" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="W137" s="19"/>
+      <c r="X137" s="20"/>
+      <c r="Y137" s="28"/>
+    </row>
+    <row r="138" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F138" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G138" s="19"/>
+      <c r="H138" s="20"/>
+      <c r="I138" s="28"/>
+      <c r="N138" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O138" s="19"/>
+      <c r="P138" s="20"/>
+      <c r="Q138" s="28"/>
+      <c r="V138" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W138" s="19"/>
+      <c r="X138" s="20"/>
+      <c r="Y138" s="28"/>
+    </row>
+    <row r="139" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F139" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G139" s="19"/>
+      <c r="H139" s="20"/>
+      <c r="I139" s="28"/>
+      <c r="N139" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O139" s="19"/>
+      <c r="P139" s="20"/>
+      <c r="Q139" s="28"/>
+      <c r="V139" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="W139" s="19"/>
+      <c r="X139" s="20"/>
+      <c r="Y139" s="28"/>
+    </row>
+    <row r="140" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F140" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G140" s="19"/>
+      <c r="H140" s="20"/>
+      <c r="I140" s="28"/>
+      <c r="N140" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O140" s="19"/>
+      <c r="P140" s="20"/>
+      <c r="Q140" s="28"/>
+      <c r="V140" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="W140" s="19"/>
+      <c r="X140" s="20"/>
+      <c r="Y140" s="28"/>
+    </row>
+    <row r="141" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F141" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G141" s="19"/>
+      <c r="H141" s="20"/>
+      <c r="I141" s="28"/>
+      <c r="N141" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="O141" s="19"/>
+      <c r="P141" s="20"/>
+      <c r="Q141" s="28"/>
+      <c r="V141" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="W141" s="19"/>
+      <c r="X141" s="20"/>
+      <c r="Y141" s="28"/>
+    </row>
+    <row r="142" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F142" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G142" s="19"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="28"/>
+      <c r="N142" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="O142" s="19"/>
+      <c r="P142" s="20"/>
+      <c r="Q142" s="28"/>
+      <c r="V142" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="W142" s="19"/>
+      <c r="X142" s="20"/>
+      <c r="Y142" s="28"/>
+    </row>
+    <row r="143" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F143" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G143" s="19"/>
+      <c r="H143" s="20"/>
+      <c r="I143" s="28"/>
+      <c r="N143" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="O143" s="19"/>
+      <c r="P143" s="20"/>
+      <c r="Q143" s="28"/>
+      <c r="V143" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="W143" s="19"/>
+      <c r="X143" s="20"/>
+      <c r="Y143" s="28"/>
+    </row>
+    <row r="144" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F144" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G144" s="19"/>
+      <c r="H144" s="20"/>
+      <c r="I144" s="28"/>
+      <c r="N144" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="O144" s="19"/>
+      <c r="P144" s="20"/>
+      <c r="Q144" s="28"/>
+      <c r="V144" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="W144" s="19"/>
+      <c r="X144" s="20"/>
+      <c r="Y144" s="28"/>
+    </row>
+    <row r="145" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F145" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G145" s="19"/>
+      <c r="H145" s="20"/>
+      <c r="I145" s="28"/>
+      <c r="N145" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O145" s="19"/>
+      <c r="P145" s="20"/>
+      <c r="Q145" s="28"/>
+      <c r="V145" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W145" s="19"/>
+      <c r="X145" s="20"/>
+      <c r="Y145" s="28"/>
+    </row>
+    <row r="146" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F146" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G146" s="19"/>
+      <c r="H146" s="20"/>
+      <c r="I146" s="28"/>
+      <c r="N146" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O146" s="19"/>
+      <c r="P146" s="20"/>
+      <c r="Q146" s="28"/>
+      <c r="V146" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="W146" s="19"/>
+      <c r="X146" s="20"/>
+      <c r="Y146" s="28"/>
+    </row>
+    <row r="147" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F147" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G147" s="19"/>
+      <c r="H147" s="20"/>
+      <c r="I147" s="28"/>
+      <c r="N147" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O147" s="19"/>
+      <c r="P147" s="20"/>
+      <c r="Q147" s="28"/>
+      <c r="V147" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="W147" s="19"/>
+      <c r="X147" s="20"/>
+      <c r="Y147" s="28"/>
+    </row>
+    <row r="148" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F148" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G148" s="19"/>
+      <c r="H148" s="20"/>
+      <c r="I148" s="28"/>
+      <c r="N148" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O148" s="19"/>
+      <c r="P148" s="20"/>
+      <c r="Q148" s="28"/>
+      <c r="V148" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="W148" s="19"/>
+      <c r="X148" s="20"/>
+      <c r="Y148" s="28"/>
+    </row>
+    <row r="149" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F149" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G149" s="19"/>
+      <c r="H149" s="20"/>
+      <c r="I149" s="28"/>
+      <c r="N149" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O149" s="19"/>
+      <c r="P149" s="20"/>
+      <c r="Q149" s="28"/>
+      <c r="V149" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="W149" s="19"/>
+      <c r="X149" s="20"/>
+      <c r="Y149" s="28"/>
+    </row>
+    <row r="150" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F150" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G150" s="19"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="28"/>
+      <c r="N150" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O150" s="19"/>
+      <c r="P150" s="20"/>
+      <c r="Q150" s="28"/>
+      <c r="V150" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="W150" s="19"/>
+      <c r="X150" s="20"/>
+      <c r="Y150" s="28"/>
+    </row>
+    <row r="151" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F151" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G151" s="19"/>
+      <c r="H151" s="20"/>
+      <c r="I151" s="28"/>
+      <c r="N151" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="O151" s="19"/>
+      <c r="P151" s="20"/>
+      <c r="Q151" s="28"/>
+      <c r="V151" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="W151" s="19"/>
+      <c r="X151" s="20"/>
+      <c r="Y151" s="28"/>
+    </row>
+    <row r="152" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F152" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G152" s="19"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="28"/>
+      <c r="N152" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="O152" s="19"/>
+      <c r="P152" s="20"/>
+      <c r="Q152" s="28"/>
+      <c r="V152" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="W152" s="19"/>
+      <c r="X152" s="20"/>
+      <c r="Y152" s="28"/>
+    </row>
+    <row r="153" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F153" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G153" s="19"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="28"/>
+      <c r="N153" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O153" s="19"/>
+      <c r="P153" s="20"/>
+      <c r="Q153" s="28"/>
+      <c r="V153" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="W153" s="19"/>
+      <c r="X153" s="20"/>
+      <c r="Y153" s="28"/>
+    </row>
+    <row r="154" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F154" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G154" s="19"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="28"/>
+      <c r="N154" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O154" s="19"/>
+      <c r="P154" s="20"/>
+      <c r="Q154" s="28"/>
+      <c r="V154" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="W154" s="19"/>
+      <c r="X154" s="20"/>
+      <c r="Y154" s="28"/>
+    </row>
+    <row r="155" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F155" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G155" s="19"/>
+      <c r="H155" s="20"/>
+      <c r="I155" s="28"/>
+      <c r="N155" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O155" s="19"/>
+      <c r="P155" s="20"/>
+      <c r="Q155" s="28"/>
+      <c r="V155" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="W155" s="19"/>
+      <c r="X155" s="20"/>
+      <c r="Y155" s="28"/>
+    </row>
+    <row r="156" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F156" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G156" s="19"/>
+      <c r="H156" s="20"/>
+      <c r="I156" s="28"/>
+      <c r="N156" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="O156" s="19"/>
+      <c r="P156" s="20"/>
+      <c r="Q156" s="28"/>
+      <c r="V156" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="W156" s="19"/>
+      <c r="X156" s="20"/>
+      <c r="Y156" s="28"/>
+    </row>
+    <row r="157" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F157" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G157" s="19"/>
+      <c r="H157" s="20"/>
+      <c r="I157" s="28"/>
+      <c r="N157" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="O157" s="19"/>
+      <c r="P157" s="20"/>
+      <c r="Q157" s="28"/>
+      <c r="V157" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="W157" s="19"/>
+      <c r="X157" s="20"/>
+      <c r="Y157" s="28"/>
+    </row>
+    <row r="158" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F158" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G158" s="19"/>
+      <c r="H158" s="20"/>
+      <c r="I158" s="28"/>
+      <c r="N158" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O158" s="19"/>
+      <c r="P158" s="20"/>
+      <c r="Q158" s="28"/>
+      <c r="V158" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="W158" s="19"/>
+      <c r="X158" s="20"/>
+      <c r="Y158" s="28"/>
+    </row>
+    <row r="159" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F159" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G159" s="19"/>
+      <c r="H159" s="20"/>
+      <c r="I159" s="28"/>
+      <c r="N159" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O159" s="19"/>
+      <c r="P159" s="20"/>
+      <c r="Q159" s="28"/>
+      <c r="V159" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="W159" s="19"/>
+      <c r="X159" s="20"/>
+      <c r="Y159" s="28"/>
+    </row>
+    <row r="160" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F160" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G160" s="19"/>
+      <c r="H160" s="20"/>
+      <c r="I160" s="28"/>
+      <c r="N160" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="O160" s="19"/>
+      <c r="P160" s="20"/>
+      <c r="Q160" s="28"/>
+      <c r="V160" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="W160" s="19"/>
+      <c r="X160" s="20"/>
+      <c r="Y160" s="28"/>
+    </row>
+    <row r="161" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F161" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G161" s="19"/>
+      <c r="H161" s="20"/>
+      <c r="I161" s="28"/>
+      <c r="N161" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="O161" s="19"/>
+      <c r="P161" s="20"/>
+      <c r="Q161" s="28"/>
+      <c r="V161" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="W161" s="19"/>
+      <c r="X161" s="20"/>
+      <c r="Y161" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="V110:Y110"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="F56:I56"/>
     <mergeCell ref="N56:Q56"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="N110:Q110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resultados/Tabla Práctica 2.xlsx
+++ b/resultados/Tabla Práctica 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Desktop\Practica2MH\resultados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fl156\Desktop\Practica2MH\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7554CAF0-4575-4D81-A421-A17254E0EDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4488F6-5D27-4E63-8062-7798F029AB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11FB9E6F-B78B-44AD-B608-3F704304FA52}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{11FB9E6F-B78B-44AD-B608-3F704304FA52}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -807,25 +807,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA8B429-1123-409D-A169-A988B43F4B2A}">
   <dimension ref="A1:AB161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="I112" sqref="I112:I116"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4:Q53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="29"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="29"/>
+    <col min="11" max="11" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" customWidth="1"/>
+    <col min="19" max="19" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -843,7 +843,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="30"/>
     </row>
-    <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -868,7 +868,7 @@
       <c r="S2" s="9"/>
       <c r="T2" s="31"/>
     </row>
-    <row r="3" spans="1:20" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -913,7 +913,7 @@
       <c r="S3" s="16"/>
       <c r="T3" s="32"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
@@ -937,9 +937,7 @@
         <f>G4-D4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="28">
-        <v>325</v>
-      </c>
+      <c r="I4" s="28"/>
       <c r="J4" s="15"/>
       <c r="K4" s="16"/>
       <c r="L4" s="32"/>
@@ -952,14 +950,12 @@
       <c r="P4" s="20">
         <v>0</v>
       </c>
-      <c r="Q4" s="28">
-        <v>691</v>
-      </c>
+      <c r="Q4" s="28"/>
       <c r="R4" s="15"/>
       <c r="S4" s="16"/>
       <c r="T4" s="32"/>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -982,9 +978,7 @@
       <c r="H5" s="20">
         <v>0</v>
       </c>
-      <c r="I5" s="28">
-        <v>319</v>
-      </c>
+      <c r="I5" s="28"/>
       <c r="J5" s="15"/>
       <c r="K5" s="16"/>
       <c r="L5" s="32"/>
@@ -997,14 +991,12 @@
       <c r="P5" s="20">
         <v>0</v>
       </c>
-      <c r="Q5" s="28">
-        <v>694</v>
-      </c>
+      <c r="Q5" s="28"/>
       <c r="R5" s="15"/>
       <c r="S5" s="16"/>
       <c r="T5" s="32"/>
     </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
@@ -1027,16 +1019,14 @@
       <c r="H6" s="20">
         <v>0</v>
       </c>
-      <c r="I6" s="28">
-        <v>313</v>
-      </c>
+      <c r="I6" s="28"/>
       <c r="J6" s="15"/>
       <c r="K6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="35" t="e">
         <f>AVERAGE(H4:H53)</f>
-        <v>0.53016120413250267</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N6" s="18" t="s">
         <v>10</v>
@@ -1047,19 +1037,17 @@
       <c r="P6" s="20">
         <v>0</v>
       </c>
-      <c r="Q6" s="28">
-        <v>697</v>
-      </c>
+      <c r="Q6" s="28"/>
       <c r="R6" s="15"/>
       <c r="S6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="35">
+      <c r="T6" s="35" t="e">
         <f>AVERAGE(P4:P53)</f>
-        <v>0.41857314971565962</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -1082,16 +1070,14 @@
       <c r="H7" s="20">
         <v>0</v>
       </c>
-      <c r="I7" s="28">
-        <v>314</v>
-      </c>
+      <c r="I7" s="28"/>
       <c r="J7" s="15"/>
       <c r="K7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="33" t="e">
         <f>AVERAGE(I4:I53)</f>
-        <v>2474.34</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N7" s="18" t="s">
         <v>12</v>
@@ -1102,19 +1088,17 @@
       <c r="P7" s="20">
         <v>0</v>
       </c>
-      <c r="Q7" s="28">
-        <v>672</v>
-      </c>
+      <c r="Q7" s="28"/>
       <c r="R7" s="15"/>
       <c r="S7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="33">
+      <c r="T7" s="33" t="e">
         <f>AVERAGE(Q4:Q53)</f>
-        <v>3410.46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="17" t="s">
         <v>14</v>
       </c>
@@ -1137,9 +1121,7 @@
       <c r="H8" s="20">
         <v>0</v>
       </c>
-      <c r="I8" s="28">
-        <v>319</v>
-      </c>
+      <c r="I8" s="28"/>
       <c r="J8" s="15"/>
       <c r="K8" s="16"/>
       <c r="L8" s="32"/>
@@ -1152,14 +1134,12 @@
       <c r="P8" s="20">
         <v>0</v>
       </c>
-      <c r="Q8" s="28">
-        <v>679</v>
-      </c>
+      <c r="Q8" s="28"/>
       <c r="R8" s="15"/>
       <c r="S8" s="16"/>
       <c r="T8" s="32"/>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
@@ -1176,37 +1156,29 @@
       <c r="F9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="19">
-        <v>38.051699999999997</v>
-      </c>
-      <c r="H9" s="20">
+      <c r="G9" s="19"/>
+      <c r="H9" s="20" t="e">
         <f>(G9-D9)/G9</f>
-        <v>0.66577156868156484</v>
-      </c>
-      <c r="I9" s="28">
-        <v>513</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="28"/>
       <c r="J9" s="15"/>
       <c r="K9" s="16"/>
       <c r="L9" s="32"/>
       <c r="N9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="19">
-        <v>13.4793</v>
-      </c>
-      <c r="P9" s="20">
+      <c r="O9" s="19"/>
+      <c r="P9" s="20" t="e">
         <f>(O9-D9)/O9</f>
-        <v>5.6482161536600621E-2</v>
-      </c>
-      <c r="Q9" s="28">
-        <v>586</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" s="28"/>
       <c r="R9" s="15"/>
       <c r="S9" s="16"/>
       <c r="T9" s="32"/>
     </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="17" t="s">
         <v>16</v>
       </c>
@@ -1223,37 +1195,29 @@
       <c r="F10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="19">
-        <v>28.065799999999999</v>
-      </c>
-      <c r="H10" s="20">
+      <c r="G10" s="19"/>
+      <c r="H10" s="20" t="e">
         <f t="shared" ref="H10:H53" si="0">(G10-D10)/G10</f>
-        <v>0.49765372802486652</v>
-      </c>
-      <c r="I10" s="28">
-        <v>527</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="28"/>
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
       <c r="L10" s="32"/>
       <c r="N10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="19">
-        <v>28.5322</v>
-      </c>
-      <c r="P10" s="20">
+      <c r="O10" s="19"/>
+      <c r="P10" s="20" t="e">
         <f t="shared" ref="P10:P53" si="1">(O10-D10)/O10</f>
-        <v>0.50586530306111344</v>
-      </c>
-      <c r="Q10" s="28">
-        <v>587</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" s="28"/>
       <c r="R10" s="15"/>
       <c r="S10" s="16"/>
       <c r="T10" s="32"/>
     </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17" t="s">
         <v>17</v>
       </c>
@@ -1270,37 +1234,29 @@
       <c r="F11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="19">
-        <v>23.3431</v>
-      </c>
-      <c r="H11" s="20">
+      <c r="G11" s="19"/>
+      <c r="H11" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.28196383513758666</v>
-      </c>
-      <c r="I11" s="28">
-        <v>523</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="28"/>
       <c r="J11" s="15"/>
       <c r="K11" s="16"/>
       <c r="L11" s="32"/>
       <c r="N11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="19">
-        <v>36.497300000000003</v>
-      </c>
-      <c r="P11" s="20">
+      <c r="O11" s="19"/>
+      <c r="P11" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.54075534354596644</v>
-      </c>
-      <c r="Q11" s="28">
-        <v>583</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" s="28"/>
       <c r="R11" s="15"/>
       <c r="S11" s="16"/>
       <c r="T11" s="32"/>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
         <v>18</v>
       </c>
@@ -1317,37 +1273,29 @@
       <c r="F12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="19">
-        <v>28.5002</v>
-      </c>
-      <c r="H12" s="20">
+      <c r="G12" s="19"/>
+      <c r="H12" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.40108455379260849</v>
-      </c>
-      <c r="I12" s="28">
-        <v>511</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="28"/>
       <c r="J12" s="15"/>
       <c r="K12" s="16"/>
       <c r="L12" s="32"/>
       <c r="N12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="19">
-        <v>39.501100000000001</v>
-      </c>
-      <c r="P12" s="20">
+      <c r="O12" s="19"/>
+      <c r="P12" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.56788013498358536</v>
-      </c>
-      <c r="Q12" s="28">
-        <v>567</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" s="28"/>
       <c r="R12" s="15"/>
       <c r="S12" s="16"/>
       <c r="T12" s="32"/>
     </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="17" t="s">
         <v>19</v>
       </c>
@@ -1364,35 +1312,27 @@
       <c r="F13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="19">
-        <v>30.273199999999999</v>
-      </c>
-      <c r="H13" s="20">
+      <c r="G13" s="19"/>
+      <c r="H13" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.23149088963175679</v>
-      </c>
-      <c r="I13" s="28">
-        <v>561</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="28"/>
       <c r="J13" s="15"/>
       <c r="L13" s="32"/>
       <c r="N13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="19">
-        <v>31.1587</v>
-      </c>
-      <c r="P13" s="20">
+      <c r="O13" s="19"/>
+      <c r="P13" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.25333117235315017</v>
-      </c>
-      <c r="Q13" s="28">
-        <v>599</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" s="28"/>
       <c r="R13" s="15"/>
       <c r="T13" s="32"/>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
@@ -1409,35 +1349,27 @@
       <c r="F14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="19">
-        <v>12.856400000000001</v>
-      </c>
-      <c r="H14" s="20">
+      <c r="G14" s="19"/>
+      <c r="H14" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.85018356616159896</v>
-      </c>
-      <c r="I14" s="28">
-        <v>600</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="28"/>
       <c r="J14" s="15"/>
       <c r="L14" s="32"/>
       <c r="N14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="19">
-        <v>13.506399999999999</v>
-      </c>
-      <c r="P14" s="20">
+      <c r="O14" s="19"/>
+      <c r="P14" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.85739353195521983</v>
-      </c>
-      <c r="Q14" s="28">
-        <v>707</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" s="28"/>
       <c r="R14" s="15"/>
       <c r="T14" s="32"/>
     </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="17" t="s">
         <v>21</v>
       </c>
@@ -1454,35 +1386,27 @@
       <c r="F15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="19">
-        <v>7.9906600000000001</v>
-      </c>
-      <c r="H15" s="20">
+      <c r="G15" s="19"/>
+      <c r="H15" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.73456009891547003</v>
-      </c>
-      <c r="I15" s="28">
-        <v>563</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="28"/>
       <c r="J15" s="15"/>
       <c r="L15" s="32"/>
       <c r="N15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="19">
-        <v>13.907999999999999</v>
-      </c>
-      <c r="P15" s="20">
+      <c r="O15" s="19"/>
+      <c r="P15" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.84749496692550264</v>
-      </c>
-      <c r="Q15" s="28">
-        <v>651</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" s="28"/>
       <c r="R15" s="15"/>
       <c r="T15" s="32"/>
     </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="17" t="s">
         <v>22</v>
       </c>
@@ -1499,35 +1423,27 @@
       <c r="F16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="19">
-        <v>8.9705499999999994</v>
-      </c>
-      <c r="H16" s="20">
+      <c r="G16" s="19"/>
+      <c r="H16" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.73665940215483117</v>
-      </c>
-      <c r="I16" s="28">
-        <v>590</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="28"/>
       <c r="J16" s="15"/>
       <c r="L16" s="32"/>
       <c r="N16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="19">
-        <v>12.5162</v>
-      </c>
-      <c r="P16" s="20">
+      <c r="O16" s="19"/>
+      <c r="P16" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.81125980728975411</v>
-      </c>
-      <c r="Q16" s="28">
-        <v>682</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" s="28"/>
       <c r="R16" s="15"/>
       <c r="T16" s="32"/>
     </row>
-    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17" t="s">
         <v>23</v>
       </c>
@@ -1544,35 +1460,27 @@
       <c r="F17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="19">
-        <v>14.324</v>
-      </c>
-      <c r="H17" s="20">
+      <c r="G17" s="19"/>
+      <c r="H17" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.88388718235130548</v>
-      </c>
-      <c r="I17" s="28">
-        <v>586</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="28"/>
       <c r="J17" s="15"/>
       <c r="L17" s="32"/>
       <c r="N17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="19">
-        <v>10.3139</v>
-      </c>
-      <c r="P17" s="20">
+      <c r="O17" s="19"/>
+      <c r="P17" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.83874189200982163</v>
-      </c>
-      <c r="Q17" s="28">
-        <v>665</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q17" s="28"/>
       <c r="R17" s="15"/>
       <c r="T17" s="32"/>
     </row>
-    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="17" t="s">
         <v>24</v>
       </c>
@@ -1589,35 +1497,27 @@
       <c r="F18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="19">
-        <v>10.885999999999999</v>
-      </c>
-      <c r="H18" s="20">
+      <c r="G18" s="19"/>
+      <c r="H18" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.73790832261620787</v>
-      </c>
-      <c r="I18" s="28">
-        <v>597</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="28"/>
       <c r="J18" s="5"/>
       <c r="L18" s="32"/>
       <c r="N18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O18" s="19">
-        <v>18.156199999999998</v>
-      </c>
-      <c r="P18" s="20">
+      <c r="O18" s="19"/>
+      <c r="P18" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.84285643471651772</v>
-      </c>
-      <c r="Q18" s="28">
-        <v>663</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q18" s="28"/>
       <c r="R18" s="5"/>
       <c r="T18" s="32"/>
     </row>
-    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="17" t="s">
         <v>25</v>
       </c>
@@ -1634,35 +1534,27 @@
       <c r="F19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="19">
-        <v>120.117</v>
-      </c>
-      <c r="H19" s="20">
+      <c r="G19" s="19"/>
+      <c r="H19" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.64413213783228773</v>
-      </c>
-      <c r="I19" s="28">
-        <v>1272</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="28"/>
       <c r="J19" s="22"/>
       <c r="L19" s="32"/>
       <c r="N19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="O19" s="19">
-        <v>95.5916</v>
-      </c>
-      <c r="P19" s="20">
+      <c r="O19" s="19"/>
+      <c r="P19" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.55282911887656339</v>
-      </c>
-      <c r="Q19" s="28">
-        <v>1445</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q19" s="28"/>
       <c r="R19" s="22"/>
       <c r="T19" s="32"/>
     </row>
-    <row r="20" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="17" t="s">
         <v>26</v>
       </c>
@@ -1679,35 +1571,27 @@
       <c r="F20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="19">
-        <v>130.96</v>
-      </c>
-      <c r="H20" s="20">
+      <c r="G20" s="19"/>
+      <c r="H20" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.63265416921197626</v>
-      </c>
-      <c r="I20" s="28">
-        <v>1242</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="28"/>
       <c r="J20" s="21"/>
       <c r="L20" s="32"/>
       <c r="N20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="O20" s="19">
-        <v>66.661900000000003</v>
-      </c>
-      <c r="P20" s="20">
+      <c r="O20" s="19"/>
+      <c r="P20" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.27833425089894526</v>
-      </c>
-      <c r="Q20" s="28">
-        <v>1409</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q20" s="28"/>
       <c r="R20" s="21"/>
       <c r="T20" s="32"/>
     </row>
-    <row r="21" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="17" t="s">
         <v>27</v>
       </c>
@@ -1724,35 +1608,27 @@
       <c r="F21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="19">
-        <v>102.116</v>
-      </c>
-      <c r="H21" s="20">
+      <c r="G21" s="19"/>
+      <c r="H21" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.57698999177406385</v>
-      </c>
-      <c r="I21" s="28">
-        <v>1224</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="28"/>
       <c r="J21" s="21"/>
       <c r="L21" s="32"/>
       <c r="N21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="O21" s="19">
-        <v>93.476399999999998</v>
-      </c>
-      <c r="P21" s="20">
+      <c r="O21" s="19"/>
+      <c r="P21" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.53789309387182538</v>
-      </c>
-      <c r="Q21" s="28">
-        <v>1442</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q21" s="28"/>
       <c r="R21" s="21"/>
       <c r="T21" s="32"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
         <v>28</v>
       </c>
@@ -1769,35 +1645,27 @@
       <c r="F22" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="19">
-        <v>71.821899999999999</v>
-      </c>
-      <c r="H22" s="20">
+      <c r="G22" s="19"/>
+      <c r="H22" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.35378415218757225</v>
-      </c>
-      <c r="I22" s="28">
-        <v>1228</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="28"/>
       <c r="J22" s="23"/>
       <c r="L22" s="32"/>
       <c r="N22" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="O22" s="19">
-        <v>90.936899999999994</v>
-      </c>
-      <c r="P22" s="20">
+      <c r="O22" s="19"/>
+      <c r="P22" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.48961917549422285</v>
-      </c>
-      <c r="Q22" s="28">
-        <v>1470</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q22" s="28"/>
       <c r="R22" s="23"/>
       <c r="T22" s="32"/>
     </row>
-    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="17" t="s">
         <v>29</v>
       </c>
@@ -1814,37 +1682,29 @@
       <c r="F23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="19">
-        <v>90.318200000000004</v>
-      </c>
-      <c r="H23" s="20">
+      <c r="G23" s="19"/>
+      <c r="H23" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.47169994530449461</v>
-      </c>
-      <c r="I23" s="28">
-        <v>1218</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="28"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="L23" s="32"/>
       <c r="N23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="O23" s="19">
-        <v>67.088999999999999</v>
-      </c>
-      <c r="P23" s="20">
+      <c r="O23" s="19"/>
+      <c r="P23" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.28877893544396849</v>
-      </c>
-      <c r="Q23" s="28">
-        <v>1404</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q23" s="28"/>
       <c r="R23" s="23"/>
       <c r="S23" s="23"/>
       <c r="T23" s="32"/>
     </row>
-    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="17" t="s">
         <v>30</v>
       </c>
@@ -1861,37 +1721,29 @@
       <c r="F24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="19">
-        <v>33.044600000000003</v>
-      </c>
-      <c r="H24" s="20">
+      <c r="G24" s="19"/>
+      <c r="H24" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.5814136046434244</v>
-      </c>
-      <c r="I24" s="28">
-        <v>1346</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="28"/>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
       <c r="L24" s="32"/>
       <c r="N24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="O24" s="19">
-        <v>41.833300000000001</v>
-      </c>
-      <c r="P24" s="20">
+      <c r="O24" s="19"/>
+      <c r="P24" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.66935384012258414</v>
-      </c>
-      <c r="Q24" s="28">
-        <v>1683</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q24" s="28"/>
       <c r="R24" s="23"/>
       <c r="S24" s="23"/>
       <c r="T24" s="32"/>
     </row>
-    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="17" t="s">
         <v>31</v>
       </c>
@@ -1908,37 +1760,29 @@
       <c r="F25" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="19">
-        <v>32.3093</v>
-      </c>
-      <c r="H25" s="20">
+      <c r="G25" s="19"/>
+      <c r="H25" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.57707718830181087</v>
-      </c>
-      <c r="I25" s="28">
-        <v>1365</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="28"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="32"/>
       <c r="N25" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="O25" s="19">
-        <v>37.1753</v>
-      </c>
-      <c r="P25" s="20">
+      <c r="O25" s="19"/>
+      <c r="P25" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.63243497698740025</v>
-      </c>
-      <c r="Q25" s="28">
-        <v>1811</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="28"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="32"/>
     </row>
-    <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="17" t="s">
         <v>32</v>
       </c>
@@ -1955,37 +1799,29 @@
       <c r="F26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="19">
-        <v>36.500799999999998</v>
-      </c>
-      <c r="H26" s="20">
+      <c r="G26" s="19"/>
+      <c r="H26" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.5795878446499857</v>
-      </c>
-      <c r="I26" s="28">
-        <v>1407</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="28"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="32"/>
       <c r="N26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O26" s="19">
-        <v>23.084499999999998</v>
-      </c>
-      <c r="P26" s="20">
+      <c r="O26" s="19"/>
+      <c r="P26" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.33525179232819419</v>
-      </c>
-      <c r="Q26" s="28">
-        <v>1947</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q26" s="28"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="32"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="17" t="s">
         <v>33</v>
       </c>
@@ -2002,37 +1838,29 @@
       <c r="F27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="19">
-        <v>24.1538</v>
-      </c>
-      <c r="H27" s="20">
+      <c r="G27" s="19"/>
+      <c r="H27" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.64226581324680221</v>
-      </c>
-      <c r="I27" s="28">
-        <v>1363</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="28"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="32"/>
       <c r="N27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="O27" s="19">
-        <v>39.799799999999998</v>
-      </c>
-      <c r="P27" s="20">
+      <c r="O27" s="19"/>
+      <c r="P27" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.78289740149449516</v>
-      </c>
-      <c r="Q27" s="28">
-        <v>1931</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" s="28"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="32"/>
     </row>
-    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17" t="s">
         <v>34</v>
       </c>
@@ -2049,37 +1877,29 @@
       <c r="F28" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="19">
-        <v>41.4818</v>
-      </c>
-      <c r="H28" s="20">
+      <c r="G28" s="19"/>
+      <c r="H28" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.5853480321490413</v>
-      </c>
-      <c r="I28" s="28">
-        <v>1353</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="28"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="32"/>
       <c r="N28" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="O28" s="19">
-        <v>51.256300000000003</v>
-      </c>
-      <c r="P28" s="20">
+      <c r="O28" s="19"/>
+      <c r="P28" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.66442154427846134</v>
-      </c>
-      <c r="Q28" s="28">
-        <v>1849</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q28" s="28"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="32"/>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="17" t="s">
         <v>35</v>
       </c>
@@ -2096,37 +1916,29 @@
       <c r="F29" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="19">
-        <v>304.476</v>
-      </c>
-      <c r="H29" s="20">
+      <c r="G29" s="19"/>
+      <c r="H29" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.44583615785808733</v>
-      </c>
-      <c r="I29" s="28">
-        <v>3564</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="28"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="32"/>
       <c r="N29" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O29" s="19">
-        <v>210.679</v>
-      </c>
-      <c r="P29" s="20">
+      <c r="O29" s="19"/>
+      <c r="P29" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.199115289136549</v>
-      </c>
-      <c r="Q29" s="28">
-        <v>4569</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q29" s="28"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="32"/>
     </row>
-    <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="17" t="s">
         <v>36</v>
       </c>
@@ -2143,37 +1955,29 @@
       <c r="F30" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="19">
-        <v>328.60199999999998</v>
-      </c>
-      <c r="H30" s="20">
+      <c r="G30" s="19"/>
+      <c r="H30" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.61321823969421974</v>
-      </c>
-      <c r="I30" s="28">
-        <v>3665</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="28"/>
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
       <c r="L30" s="32"/>
       <c r="N30" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="O30" s="19">
-        <v>150.029</v>
-      </c>
-      <c r="P30" s="20">
+      <c r="O30" s="19"/>
+      <c r="P30" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.15284871591492305</v>
-      </c>
-      <c r="Q30" s="28">
-        <v>4401</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q30" s="28"/>
       <c r="R30" s="23"/>
       <c r="S30" s="23"/>
       <c r="T30" s="32"/>
     </row>
-    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="17" t="s">
         <v>37</v>
       </c>
@@ -2190,37 +1994,29 @@
       <c r="F31" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="19">
-        <v>283.31900000000002</v>
-      </c>
-      <c r="H31" s="20">
+      <c r="G31" s="19"/>
+      <c r="H31" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.62452504067853198</v>
-      </c>
-      <c r="I31" s="28">
-        <v>3571</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="28"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="32"/>
       <c r="N31" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O31" s="19">
-        <v>139.69200000000001</v>
-      </c>
-      <c r="P31" s="20">
+      <c r="O31" s="19"/>
+      <c r="P31" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.23847328408213073</v>
-      </c>
-      <c r="Q31" s="28">
-        <v>4802</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q31" s="28"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="32"/>
     </row>
-    <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="17" t="s">
         <v>38</v>
       </c>
@@ -2237,37 +2033,29 @@
       <c r="F32" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="19">
-        <v>297.61900000000003</v>
-      </c>
-      <c r="H32" s="20">
+      <c r="G32" s="19"/>
+      <c r="H32" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.53815730850517274</v>
-      </c>
-      <c r="I32" s="28">
-        <v>3555</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="28"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="32"/>
       <c r="N32" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="O32" s="19">
-        <v>193.839</v>
-      </c>
-      <c r="P32" s="20">
+      <c r="O32" s="19"/>
+      <c r="P32" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.29089006856205923</v>
-      </c>
-      <c r="Q32" s="28">
-        <v>4737</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q32" s="28"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="32"/>
     </row>
-    <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="17" t="s">
         <v>39</v>
       </c>
@@ -2284,37 +2072,29 @@
       <c r="F33" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="19">
-        <v>327.85300000000001</v>
-      </c>
-      <c r="H33" s="20">
+      <c r="G33" s="19"/>
+      <c r="H33" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.61116799297245716</v>
-      </c>
-      <c r="I33" s="28">
-        <v>3596</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="28"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="32"/>
       <c r="N33" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O33" s="19">
-        <v>203.505</v>
-      </c>
-      <c r="P33" s="20">
+      <c r="O33" s="19"/>
+      <c r="P33" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.37357932237536667</v>
-      </c>
-      <c r="Q33" s="28">
-        <v>4309</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q33" s="28"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="32"/>
     </row>
-    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="17" t="s">
         <v>40</v>
       </c>
@@ -2331,37 +2111,29 @@
       <c r="F34" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="19">
-        <v>49.054299999999998</v>
-      </c>
-      <c r="H34" s="20">
+      <c r="G34" s="19"/>
+      <c r="H34" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.7605685943943773</v>
-      </c>
-      <c r="I34" s="28">
-        <v>1894</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="28"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="32"/>
       <c r="N34" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O34" s="19">
-        <v>38.316299999999998</v>
-      </c>
-      <c r="P34" s="20">
+      <c r="O34" s="19"/>
+      <c r="P34" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.6934688370223665</v>
-      </c>
-      <c r="Q34" s="28">
-        <v>2853</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q34" s="28"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="32"/>
     </row>
-    <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="17" t="s">
         <v>41</v>
       </c>
@@ -2378,37 +2150,29 @@
       <c r="F35" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="19">
-        <v>58.849699999999999</v>
-      </c>
-      <c r="H35" s="20">
+      <c r="G35" s="19"/>
+      <c r="H35" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.68073023311929037</v>
-      </c>
-      <c r="I35" s="28">
-        <v>1890</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="28"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="32"/>
       <c r="N35" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="O35" s="19">
-        <v>51.9816</v>
-      </c>
-      <c r="P35" s="20">
+      <c r="O35" s="19"/>
+      <c r="P35" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.63854652415470681</v>
-      </c>
-      <c r="Q35" s="28">
-        <v>2952</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q35" s="28"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="32"/>
     </row>
-    <row r="36" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="17" t="s">
         <v>42</v>
       </c>
@@ -2425,37 +2189,29 @@
       <c r="F36" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="19">
-        <v>41.637799999999999</v>
-      </c>
-      <c r="H36" s="20">
+      <c r="G36" s="19"/>
+      <c r="H36" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.55493325776098168</v>
-      </c>
-      <c r="I36" s="28">
-        <v>1884</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="28"/>
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
       <c r="L36" s="32"/>
       <c r="N36" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="O36" s="19">
-        <v>46.171900000000001</v>
-      </c>
-      <c r="P36" s="20">
+      <c r="O36" s="19"/>
+      <c r="P36" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.59863899904487794</v>
-      </c>
-      <c r="Q36" s="28">
-        <v>2625</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q36" s="28"/>
       <c r="R36" s="23"/>
       <c r="S36" s="23"/>
       <c r="T36" s="32"/>
     </row>
-    <row r="37" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
         <v>43</v>
       </c>
@@ -2472,37 +2228,29 @@
       <c r="F37" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="19">
-        <v>46.223799999999997</v>
-      </c>
-      <c r="H37" s="20">
+      <c r="G37" s="19"/>
+      <c r="H37" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.57839186739298587</v>
-      </c>
-      <c r="I37" s="28">
-        <v>1897</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="28"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="32"/>
       <c r="N37" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O37" s="19">
-        <v>43.118200000000002</v>
-      </c>
-      <c r="P37" s="20">
+      <c r="O37" s="19"/>
+      <c r="P37" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.54802542777759511</v>
-      </c>
-      <c r="Q37" s="28">
-        <v>2434</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q37" s="28"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="32"/>
     </row>
-    <row r="38" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="17" t="s">
         <v>44</v>
       </c>
@@ -2519,37 +2267,29 @@
       <c r="F38" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="19">
-        <v>34.685099999999998</v>
-      </c>
-      <c r="H38" s="20">
+      <c r="G38" s="19"/>
+      <c r="H38" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.47780401382726873</v>
-      </c>
-      <c r="I38" s="28">
-        <v>1890</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="28"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="32"/>
       <c r="N38" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="O38" s="19">
-        <v>41.186500000000002</v>
-      </c>
-      <c r="P38" s="20">
+      <c r="O38" s="19"/>
+      <c r="P38" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.56023405727605402</v>
-      </c>
-      <c r="Q38" s="28">
-        <v>3277</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q38" s="28"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="32"/>
     </row>
-    <row r="39" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="17" t="s">
         <v>45</v>
       </c>
@@ -2566,37 +2306,29 @@
       <c r="F39" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G39" s="19">
-        <v>440.98700000000002</v>
-      </c>
-      <c r="H39" s="20">
+      <c r="G39" s="19"/>
+      <c r="H39" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.64752981380403052</v>
-      </c>
-      <c r="I39" s="28">
-        <v>5413</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="28"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="32"/>
       <c r="N39" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O39" s="19">
-        <v>269.66899999999998</v>
-      </c>
-      <c r="P39" s="20">
+      <c r="O39" s="19"/>
+      <c r="P39" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.42360905406256555</v>
-      </c>
-      <c r="Q39" s="28">
-        <v>7438</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q39" s="28"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="32"/>
     </row>
-    <row r="40" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="17" t="s">
         <v>46</v>
       </c>
@@ -2613,37 +2345,29 @@
       <c r="F40" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="19">
-        <v>404.48899999999998</v>
-      </c>
-      <c r="H40" s="20">
+      <c r="G40" s="19"/>
+      <c r="H40" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.50828175797117103</v>
-      </c>
-      <c r="I40" s="28">
-        <v>5250</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="28"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="32"/>
       <c r="N40" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="O40" s="19">
-        <v>261.40199999999999</v>
-      </c>
-      <c r="P40" s="20">
+      <c r="O40" s="19"/>
+      <c r="P40" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.2391235721226348</v>
-      </c>
-      <c r="Q40" s="28">
-        <v>6979</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q40" s="28"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="32"/>
     </row>
-    <row r="41" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="17" t="s">
         <v>47</v>
       </c>
@@ -2660,37 +2384,29 @@
       <c r="F41" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G41" s="19">
-        <v>480.392</v>
-      </c>
-      <c r="H41" s="20">
+      <c r="G41" s="19"/>
+      <c r="H41" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.60872156488867435</v>
-      </c>
-      <c r="I41" s="28">
-        <v>5270</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="28"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="32"/>
       <c r="N41" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="O41" s="19">
-        <v>254.64699999999999</v>
-      </c>
-      <c r="P41" s="20">
+      <c r="O41" s="19"/>
+      <c r="P41" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.26185256453050693</v>
-      </c>
-      <c r="Q41" s="28">
-        <v>6664</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q41" s="28"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="32"/>
     </row>
-    <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="17" t="s">
         <v>48</v>
       </c>
@@ -2707,37 +2423,29 @@
       <c r="F42" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="19">
-        <v>325.74200000000002</v>
-      </c>
-      <c r="H42" s="20">
+      <c r="G42" s="19"/>
+      <c r="H42" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.48244254655524621</v>
-      </c>
-      <c r="I42" s="28">
-        <v>5238</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" s="28"/>
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
       <c r="L42" s="32"/>
       <c r="N42" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="O42" s="19">
-        <v>212.959</v>
-      </c>
-      <c r="P42" s="20">
+      <c r="O42" s="19"/>
+      <c r="P42" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.20834432919012108</v>
-      </c>
-      <c r="Q42" s="28">
-        <v>6932</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q42" s="28"/>
       <c r="R42" s="23"/>
       <c r="S42" s="23"/>
       <c r="T42" s="32"/>
     </row>
-    <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="17" t="s">
         <v>49</v>
       </c>
@@ -2754,37 +2462,29 @@
       <c r="F43" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="19">
-        <v>448.67399999999998</v>
-      </c>
-      <c r="H43" s="20">
+      <c r="G43" s="19"/>
+      <c r="H43" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.60284362365547584</v>
-      </c>
-      <c r="I43" s="28">
-        <v>5277</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" s="28"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="32"/>
       <c r="N43" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="O43" s="19">
-        <v>293.28100000000001</v>
-      </c>
-      <c r="P43" s="20">
+      <c r="O43" s="19"/>
+      <c r="P43" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.3924129418543888</v>
-      </c>
-      <c r="Q43" s="28">
-        <v>7209</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q43" s="28"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="32"/>
     </row>
-    <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
         <v>50</v>
       </c>
@@ -2801,37 +2501,29 @@
       <c r="F44" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G44" s="19">
-        <v>64.305700000000002</v>
-      </c>
-      <c r="H44" s="20">
+      <c r="G44" s="19"/>
+      <c r="H44" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.63695162326200794</v>
-      </c>
-      <c r="I44" s="28">
-        <v>2562</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I44" s="28"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="32"/>
       <c r="N44" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="O44" s="19">
-        <v>61.073</v>
-      </c>
-      <c r="P44" s="20">
+      <c r="O44" s="19"/>
+      <c r="P44" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.61773484191049566</v>
-      </c>
-      <c r="Q44" s="28">
-        <v>3853</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q44" s="28"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
       <c r="T44" s="32"/>
     </row>
-    <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="17" t="s">
         <v>51</v>
       </c>
@@ -2848,37 +2540,29 @@
       <c r="F45" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G45" s="19">
-        <v>70.362700000000004</v>
-      </c>
-      <c r="H45" s="20">
+      <c r="G45" s="19"/>
+      <c r="H45" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.61926560521413199</v>
-      </c>
-      <c r="I45" s="28">
-        <v>2572</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I45" s="28"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="32"/>
       <c r="N45" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="O45" s="19">
-        <v>58.425400000000003</v>
-      </c>
-      <c r="P45" s="20">
+      <c r="O45" s="19"/>
+      <c r="P45" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.54147511185204389</v>
-      </c>
-      <c r="Q45" s="28">
-        <v>3845</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q45" s="28"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="32"/>
     </row>
-    <row r="46" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="17" t="s">
         <v>52</v>
       </c>
@@ -2895,37 +2579,29 @@
       <c r="F46" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G46" s="19">
-        <v>59.001600000000003</v>
-      </c>
-      <c r="H46" s="20">
+      <c r="G46" s="19"/>
+      <c r="H46" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.54654670381820836</v>
-      </c>
-      <c r="I46" s="28">
-        <v>2573</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I46" s="28"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="32"/>
       <c r="N46" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="O46" s="19">
-        <v>74.833600000000004</v>
-      </c>
-      <c r="P46" s="20">
+      <c r="O46" s="19"/>
+      <c r="P46" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.64248051677321949</v>
-      </c>
-      <c r="Q46" s="28">
-        <v>3877</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q46" s="28"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="32"/>
     </row>
-    <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="17" t="s">
         <v>53</v>
       </c>
@@ -2942,37 +2618,29 @@
       <c r="F47" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G47" s="19">
-        <v>96.195599999999999</v>
-      </c>
-      <c r="H47" s="20">
+      <c r="G47" s="19"/>
+      <c r="H47" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.73038694077483268</v>
-      </c>
-      <c r="I47" s="28">
-        <v>2595</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I47" s="28"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="32"/>
       <c r="N47" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="O47" s="19">
-        <v>49.814</v>
-      </c>
-      <c r="P47" s="20">
+      <c r="O47" s="19"/>
+      <c r="P47" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.47935138716022607</v>
-      </c>
-      <c r="Q47" s="28">
-        <v>3759</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q47" s="28"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="32"/>
     </row>
-    <row r="48" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="17" t="s">
         <v>54</v>
       </c>
@@ -2989,37 +2657,29 @@
       <c r="F48" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G48" s="19">
-        <v>60.667999999999999</v>
-      </c>
-      <c r="H48" s="20">
+      <c r="G48" s="19"/>
+      <c r="H48" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.54221319311664473</v>
-      </c>
-      <c r="I48" s="28">
-        <v>2567</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I48" s="28"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="32"/>
       <c r="N48" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="O48" s="19">
-        <v>43.411900000000003</v>
-      </c>
-      <c r="P48" s="20">
+      <c r="O48" s="19"/>
+      <c r="P48" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.36024431089172793</v>
-      </c>
-      <c r="Q48" s="28">
-        <v>3751</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q48" s="28"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="32"/>
     </row>
-    <row r="49" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="17" t="s">
         <v>55</v>
       </c>
@@ -3036,33 +2696,25 @@
       <c r="F49" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="19">
-        <v>713.72900000000004</v>
-      </c>
-      <c r="H49" s="20">
+      <c r="G49" s="19"/>
+      <c r="H49" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.68090226122239961</v>
-      </c>
-      <c r="I49" s="28">
-        <v>7384</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I49" s="28"/>
       <c r="L49" s="32"/>
       <c r="N49" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="O49" s="19">
-        <v>315.93700000000001</v>
-      </c>
-      <c r="P49" s="20">
+      <c r="O49" s="19"/>
+      <c r="P49" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.27913061781305137</v>
-      </c>
-      <c r="Q49" s="28">
-        <v>10001</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q49" s="28"/>
       <c r="T49" s="32"/>
     </row>
-    <row r="50" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="17" t="s">
         <v>56</v>
       </c>
@@ -3079,33 +2731,25 @@
       <c r="F50" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G50" s="19">
-        <v>540.32399999999996</v>
-      </c>
-      <c r="H50" s="20">
+      <c r="G50" s="19"/>
+      <c r="H50" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.57691514720797155</v>
-      </c>
-      <c r="I50" s="28">
-        <v>7301</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I50" s="28"/>
       <c r="L50" s="32"/>
       <c r="N50" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="O50" s="19">
-        <v>303.24299999999999</v>
-      </c>
-      <c r="P50" s="20">
+      <c r="O50" s="19"/>
+      <c r="P50" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.24613956463957945</v>
-      </c>
-      <c r="Q50" s="28">
-        <v>10614</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q50" s="28"/>
       <c r="T50" s="32"/>
     </row>
-    <row r="51" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="17" t="s">
         <v>57</v>
       </c>
@@ -3122,33 +2766,25 @@
       <c r="F51" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G51" s="19">
-        <v>492.05099999999999</v>
-      </c>
-      <c r="H51" s="20">
+      <c r="G51" s="19"/>
+      <c r="H51" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.53918325539425993</v>
-      </c>
-      <c r="I51" s="28">
-        <v>7341</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I51" s="28"/>
       <c r="L51" s="32"/>
       <c r="N51" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="O51" s="19">
-        <v>284.108</v>
-      </c>
-      <c r="P51" s="20">
+      <c r="O51" s="19"/>
+      <c r="P51" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.20190441663029904</v>
-      </c>
-      <c r="Q51" s="28">
-        <v>11614</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q51" s="28"/>
       <c r="T51" s="32"/>
     </row>
-    <row r="52" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="17" t="s">
         <v>58</v>
       </c>
@@ -3165,33 +2801,25 @@
       <c r="F52" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G52" s="19">
-        <v>589.88699999999994</v>
-      </c>
-      <c r="H52" s="20">
+      <c r="G52" s="19"/>
+      <c r="H52" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.61618138728264393</v>
-      </c>
-      <c r="I52" s="28">
-        <v>7363</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I52" s="28"/>
       <c r="L52" s="32"/>
       <c r="N52" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="O52" s="19">
-        <v>300.274</v>
-      </c>
-      <c r="P52" s="20">
+      <c r="O52" s="19"/>
+      <c r="P52" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.24598996250090585</v>
-      </c>
-      <c r="Q52" s="28">
-        <v>10262</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q52" s="28"/>
       <c r="T52" s="32"/>
     </row>
-    <row r="53" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="17" t="s">
         <v>59</v>
       </c>
@@ -3208,34 +2836,26 @@
       <c r="F53" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="19">
-        <v>651.87699999999995</v>
-      </c>
-      <c r="H53" s="20">
+      <c r="G53" s="19"/>
+      <c r="H53" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0.61824604948479855</v>
-      </c>
-      <c r="I53" s="28">
-        <v>7426</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I53" s="28"/>
       <c r="L53" s="32"/>
       <c r="N53" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="O53" s="19">
-        <v>289.762</v>
-      </c>
-      <c r="P53" s="20">
+      <c r="O53" s="19"/>
+      <c r="P53" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>0.14116889033069208</v>
-      </c>
-      <c r="Q53" s="28">
-        <v>10652</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q53" s="28"/>
       <c r="T53" s="32"/>
     </row>
-    <row r="55" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:20" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F56" s="38" t="s">
         <v>62</v>
       </c>
@@ -3249,7 +2869,7 @@
       <c r="P56" s="38"/>
       <c r="Q56" s="38"/>
     </row>
-    <row r="57" spans="1:20" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F57" s="13" t="s">
         <v>1</v>
       </c>
@@ -3275,7 +2895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F58" s="18" t="s">
         <v>8</v>
       </c>
@@ -3301,7 +2921,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F59" s="18" t="s">
         <v>9</v>
       </c>
@@ -3327,7 +2947,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F60" s="18" t="s">
         <v>10</v>
       </c>
@@ -3367,7 +2987,7 @@
         <v>0.47517271562777047</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F61" s="18" t="s">
         <v>12</v>
       </c>
@@ -3407,7 +3027,7 @@
         <v>3161.38</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F62" s="18" t="s">
         <v>14</v>
       </c>
@@ -3433,7 +3053,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F63" s="18" t="s">
         <v>15</v>
       </c>
@@ -3461,7 +3081,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F64" s="18" t="s">
         <v>16</v>
       </c>
@@ -3489,7 +3109,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="65" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F65" s="18" t="s">
         <v>17</v>
       </c>
@@ -3517,7 +3137,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="66" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F66" s="18" t="s">
         <v>18</v>
       </c>
@@ -3545,7 +3165,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="67" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F67" s="18" t="s">
         <v>19</v>
       </c>
@@ -3573,7 +3193,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="68" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F68" s="18" t="s">
         <v>20</v>
       </c>
@@ -3601,7 +3221,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="69" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F69" s="18" t="s">
         <v>21</v>
       </c>
@@ -3629,7 +3249,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="70" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F70" s="18" t="s">
         <v>22</v>
       </c>
@@ -3657,7 +3277,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="71" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F71" s="18" t="s">
         <v>23</v>
       </c>
@@ -3685,7 +3305,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="72" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F72" s="18" t="s">
         <v>24</v>
       </c>
@@ -3713,7 +3333,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="73" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F73" s="18" t="s">
         <v>25</v>
       </c>
@@ -3741,7 +3361,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="74" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F74" s="18" t="s">
         <v>26</v>
       </c>
@@ -3769,7 +3389,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="75" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F75" s="18" t="s">
         <v>27</v>
       </c>
@@ -3797,7 +3417,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="76" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F76" s="18" t="s">
         <v>28</v>
       </c>
@@ -3825,7 +3445,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="77" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F77" s="18" t="s">
         <v>29</v>
       </c>
@@ -3853,7 +3473,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="78" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F78" s="18" t="s">
         <v>30</v>
       </c>
@@ -3881,7 +3501,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="79" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F79" s="18" t="s">
         <v>31</v>
       </c>
@@ -3909,7 +3529,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="80" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F80" s="18" t="s">
         <v>32</v>
       </c>
@@ -3937,7 +3557,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="81" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F81" s="18" t="s">
         <v>33</v>
       </c>
@@ -3965,7 +3585,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="82" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F82" s="18" t="s">
         <v>34</v>
       </c>
@@ -3993,7 +3613,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="83" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F83" s="18" t="s">
         <v>35</v>
       </c>
@@ -4021,7 +3641,7 @@
         <v>4449</v>
       </c>
     </row>
-    <row r="84" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F84" s="18" t="s">
         <v>36</v>
       </c>
@@ -4049,7 +3669,7 @@
         <v>4260</v>
       </c>
     </row>
-    <row r="85" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F85" s="18" t="s">
         <v>37</v>
       </c>
@@ -4077,7 +3697,7 @@
         <v>4314</v>
       </c>
     </row>
-    <row r="86" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F86" s="18" t="s">
         <v>38</v>
       </c>
@@ -4105,7 +3725,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="87" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F87" s="18" t="s">
         <v>39</v>
       </c>
@@ -4133,7 +3753,7 @@
         <v>4132</v>
       </c>
     </row>
-    <row r="88" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F88" s="18" t="s">
         <v>40</v>
       </c>
@@ -4161,7 +3781,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="89" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F89" s="18" t="s">
         <v>41</v>
       </c>
@@ -4189,7 +3809,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="90" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F90" s="18" t="s">
         <v>42</v>
       </c>
@@ -4217,7 +3837,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="91" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F91" s="18" t="s">
         <v>43</v>
       </c>
@@ -4245,7 +3865,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="92" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F92" s="18" t="s">
         <v>44</v>
       </c>
@@ -4273,7 +3893,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="93" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F93" s="18" t="s">
         <v>45</v>
       </c>
@@ -4301,7 +3921,7 @@
         <v>6548</v>
       </c>
     </row>
-    <row r="94" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F94" s="18" t="s">
         <v>46</v>
       </c>
@@ -4329,7 +3949,7 @@
         <v>6403</v>
       </c>
     </row>
-    <row r="95" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F95" s="18" t="s">
         <v>47</v>
       </c>
@@ -4357,7 +3977,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="96" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F96" s="18" t="s">
         <v>48</v>
       </c>
@@ -4385,7 +4005,7 @@
         <v>6932</v>
       </c>
     </row>
-    <row r="97" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F97" s="18" t="s">
         <v>49</v>
       </c>
@@ -4413,7 +4033,7 @@
         <v>6875</v>
       </c>
     </row>
-    <row r="98" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F98" s="18" t="s">
         <v>50</v>
       </c>
@@ -4441,7 +4061,7 @@
         <v>3573</v>
       </c>
     </row>
-    <row r="99" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F99" s="18" t="s">
         <v>51</v>
       </c>
@@ -4469,7 +4089,7 @@
         <v>3499</v>
       </c>
     </row>
-    <row r="100" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F100" s="18" t="s">
         <v>52</v>
       </c>
@@ -4497,7 +4117,7 @@
         <v>3519</v>
       </c>
     </row>
-    <row r="101" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F101" s="18" t="s">
         <v>53</v>
       </c>
@@ -4525,7 +4145,7 @@
         <v>4072</v>
       </c>
     </row>
-    <row r="102" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F102" s="18" t="s">
         <v>54</v>
       </c>
@@ -4553,7 +4173,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="103" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F103" s="18" t="s">
         <v>55</v>
       </c>
@@ -4581,7 +4201,7 @@
         <v>9628</v>
       </c>
     </row>
-    <row r="104" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F104" s="18" t="s">
         <v>56</v>
       </c>
@@ -4609,7 +4229,7 @@
         <v>10088</v>
       </c>
     </row>
-    <row r="105" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F105" s="18" t="s">
         <v>57</v>
       </c>
@@ -4637,7 +4257,7 @@
         <v>10318</v>
       </c>
     </row>
-    <row r="106" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F106" s="18" t="s">
         <v>58</v>
       </c>
@@ -4665,7 +4285,7 @@
         <v>10646</v>
       </c>
     </row>
-    <row r="107" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F107" s="18" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +4313,8 @@
         <v>9218</v>
       </c>
     </row>
-    <row r="109" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="110" spans="6:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="110" spans="6:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F110" s="38" t="s">
         <v>64</v>
       </c>
@@ -4714,7 +4334,7 @@
       <c r="X110" s="38"/>
       <c r="Y110" s="38"/>
     </row>
-    <row r="111" spans="6:25" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:25" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F111" s="13" t="s">
         <v>1</v>
       </c>
@@ -4752,7 +4372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F112" s="18" t="s">
         <v>8</v>
       </c>
@@ -4784,7 +4404,7 @@
       </c>
       <c r="Y112" s="28"/>
     </row>
-    <row r="113" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F113" s="18" t="s">
         <v>9</v>
       </c>
@@ -4816,7 +4436,7 @@
       </c>
       <c r="Y113" s="28"/>
     </row>
-    <row r="114" spans="6:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:28" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F114" s="18" t="s">
         <v>10</v>
       </c>
@@ -4869,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="6:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:28" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F115" s="18" t="s">
         <v>12</v>
       </c>
@@ -4922,7 +4542,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="116" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F116" s="18" t="s">
         <v>14</v>
       </c>
@@ -4954,7 +4574,7 @@
       </c>
       <c r="Y116" s="28"/>
     </row>
-    <row r="117" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F117" s="18" t="s">
         <v>15</v>
       </c>
@@ -4974,7 +4594,7 @@
       <c r="X117" s="20"/>
       <c r="Y117" s="28"/>
     </row>
-    <row r="118" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F118" s="18" t="s">
         <v>16</v>
       </c>
@@ -4994,7 +4614,7 @@
       <c r="X118" s="20"/>
       <c r="Y118" s="28"/>
     </row>
-    <row r="119" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F119" s="18" t="s">
         <v>17</v>
       </c>
@@ -5014,7 +4634,7 @@
       <c r="X119" s="20"/>
       <c r="Y119" s="28"/>
     </row>
-    <row r="120" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F120" s="18" t="s">
         <v>18</v>
       </c>
@@ -5034,7 +4654,7 @@
       <c r="X120" s="20"/>
       <c r="Y120" s="28"/>
     </row>
-    <row r="121" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F121" s="18" t="s">
         <v>19</v>
       </c>
@@ -5054,7 +4674,7 @@
       <c r="X121" s="20"/>
       <c r="Y121" s="28"/>
     </row>
-    <row r="122" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F122" s="18" t="s">
         <v>20</v>
       </c>
@@ -5074,7 +4694,7 @@
       <c r="X122" s="20"/>
       <c r="Y122" s="28"/>
     </row>
-    <row r="123" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F123" s="18" t="s">
         <v>21</v>
       </c>
@@ -5094,7 +4714,7 @@
       <c r="X123" s="20"/>
       <c r="Y123" s="28"/>
     </row>
-    <row r="124" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F124" s="18" t="s">
         <v>22</v>
       </c>
@@ -5114,7 +4734,7 @@
       <c r="X124" s="20"/>
       <c r="Y124" s="28"/>
     </row>
-    <row r="125" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F125" s="18" t="s">
         <v>23</v>
       </c>
@@ -5134,7 +4754,7 @@
       <c r="X125" s="20"/>
       <c r="Y125" s="28"/>
     </row>
-    <row r="126" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F126" s="18" t="s">
         <v>24</v>
       </c>
@@ -5154,7 +4774,7 @@
       <c r="X126" s="20"/>
       <c r="Y126" s="28"/>
     </row>
-    <row r="127" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F127" s="18" t="s">
         <v>25</v>
       </c>
@@ -5174,7 +4794,7 @@
       <c r="X127" s="20"/>
       <c r="Y127" s="28"/>
     </row>
-    <row r="128" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F128" s="18" t="s">
         <v>26</v>
       </c>
@@ -5194,7 +4814,7 @@
       <c r="X128" s="20"/>
       <c r="Y128" s="28"/>
     </row>
-    <row r="129" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F129" s="18" t="s">
         <v>27</v>
       </c>
@@ -5214,7 +4834,7 @@
       <c r="X129" s="20"/>
       <c r="Y129" s="28"/>
     </row>
-    <row r="130" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F130" s="18" t="s">
         <v>28</v>
       </c>
@@ -5234,7 +4854,7 @@
       <c r="X130" s="20"/>
       <c r="Y130" s="28"/>
     </row>
-    <row r="131" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F131" s="18" t="s">
         <v>29</v>
       </c>
@@ -5254,7 +4874,7 @@
       <c r="X131" s="20"/>
       <c r="Y131" s="28"/>
     </row>
-    <row r="132" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F132" s="18" t="s">
         <v>30</v>
       </c>
@@ -5274,7 +4894,7 @@
       <c r="X132" s="20"/>
       <c r="Y132" s="28"/>
     </row>
-    <row r="133" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F133" s="18" t="s">
         <v>31</v>
       </c>
@@ -5294,7 +4914,7 @@
       <c r="X133" s="20"/>
       <c r="Y133" s="28"/>
     </row>
-    <row r="134" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F134" s="18" t="s">
         <v>32</v>
       </c>
@@ -5314,7 +4934,7 @@
       <c r="X134" s="20"/>
       <c r="Y134" s="28"/>
     </row>
-    <row r="135" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F135" s="18" t="s">
         <v>33</v>
       </c>
@@ -5334,7 +4954,7 @@
       <c r="X135" s="20"/>
       <c r="Y135" s="28"/>
     </row>
-    <row r="136" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F136" s="18" t="s">
         <v>34</v>
       </c>
@@ -5354,7 +4974,7 @@
       <c r="X136" s="20"/>
       <c r="Y136" s="28"/>
     </row>
-    <row r="137" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F137" s="18" t="s">
         <v>35</v>
       </c>
@@ -5374,7 +4994,7 @@
       <c r="X137" s="20"/>
       <c r="Y137" s="28"/>
     </row>
-    <row r="138" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F138" s="18" t="s">
         <v>36</v>
       </c>
@@ -5394,7 +5014,7 @@
       <c r="X138" s="20"/>
       <c r="Y138" s="28"/>
     </row>
-    <row r="139" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F139" s="18" t="s">
         <v>37</v>
       </c>
@@ -5414,7 +5034,7 @@
       <c r="X139" s="20"/>
       <c r="Y139" s="28"/>
     </row>
-    <row r="140" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F140" s="18" t="s">
         <v>38</v>
       </c>
@@ -5434,7 +5054,7 @@
       <c r="X140" s="20"/>
       <c r="Y140" s="28"/>
     </row>
-    <row r="141" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F141" s="18" t="s">
         <v>39</v>
       </c>
@@ -5454,7 +5074,7 @@
       <c r="X141" s="20"/>
       <c r="Y141" s="28"/>
     </row>
-    <row r="142" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F142" s="18" t="s">
         <v>40</v>
       </c>
@@ -5474,7 +5094,7 @@
       <c r="X142" s="20"/>
       <c r="Y142" s="28"/>
     </row>
-    <row r="143" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F143" s="18" t="s">
         <v>41</v>
       </c>
@@ -5494,7 +5114,7 @@
       <c r="X143" s="20"/>
       <c r="Y143" s="28"/>
     </row>
-    <row r="144" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F144" s="18" t="s">
         <v>42</v>
       </c>
@@ -5514,7 +5134,7 @@
       <c r="X144" s="20"/>
       <c r="Y144" s="28"/>
     </row>
-    <row r="145" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F145" s="18" t="s">
         <v>43</v>
       </c>
@@ -5534,7 +5154,7 @@
       <c r="X145" s="20"/>
       <c r="Y145" s="28"/>
     </row>
-    <row r="146" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F146" s="18" t="s">
         <v>44</v>
       </c>
@@ -5554,7 +5174,7 @@
       <c r="X146" s="20"/>
       <c r="Y146" s="28"/>
     </row>
-    <row r="147" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F147" s="18" t="s">
         <v>45</v>
       </c>
@@ -5574,7 +5194,7 @@
       <c r="X147" s="20"/>
       <c r="Y147" s="28"/>
     </row>
-    <row r="148" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F148" s="18" t="s">
         <v>46</v>
       </c>
@@ -5594,7 +5214,7 @@
       <c r="X148" s="20"/>
       <c r="Y148" s="28"/>
     </row>
-    <row r="149" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F149" s="18" t="s">
         <v>47</v>
       </c>
@@ -5614,7 +5234,7 @@
       <c r="X149" s="20"/>
       <c r="Y149" s="28"/>
     </row>
-    <row r="150" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F150" s="18" t="s">
         <v>48</v>
       </c>
@@ -5634,7 +5254,7 @@
       <c r="X150" s="20"/>
       <c r="Y150" s="28"/>
     </row>
-    <row r="151" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F151" s="18" t="s">
         <v>49</v>
       </c>
@@ -5654,7 +5274,7 @@
       <c r="X151" s="20"/>
       <c r="Y151" s="28"/>
     </row>
-    <row r="152" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F152" s="18" t="s">
         <v>50</v>
       </c>
@@ -5674,7 +5294,7 @@
       <c r="X152" s="20"/>
       <c r="Y152" s="28"/>
     </row>
-    <row r="153" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F153" s="18" t="s">
         <v>51</v>
       </c>
@@ -5694,7 +5314,7 @@
       <c r="X153" s="20"/>
       <c r="Y153" s="28"/>
     </row>
-    <row r="154" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F154" s="18" t="s">
         <v>52</v>
       </c>
@@ -5714,7 +5334,7 @@
       <c r="X154" s="20"/>
       <c r="Y154" s="28"/>
     </row>
-    <row r="155" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F155" s="18" t="s">
         <v>53</v>
       </c>
@@ -5734,7 +5354,7 @@
       <c r="X155" s="20"/>
       <c r="Y155" s="28"/>
     </row>
-    <row r="156" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F156" s="18" t="s">
         <v>54</v>
       </c>
@@ -5754,7 +5374,7 @@
       <c r="X156" s="20"/>
       <c r="Y156" s="28"/>
     </row>
-    <row r="157" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F157" s="18" t="s">
         <v>55</v>
       </c>
@@ -5774,7 +5394,7 @@
       <c r="X157" s="20"/>
       <c r="Y157" s="28"/>
     </row>
-    <row r="158" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F158" s="18" t="s">
         <v>56</v>
       </c>
@@ -5794,7 +5414,7 @@
       <c r="X158" s="20"/>
       <c r="Y158" s="28"/>
     </row>
-    <row r="159" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F159" s="18" t="s">
         <v>57</v>
       </c>
@@ -5814,7 +5434,7 @@
       <c r="X159" s="20"/>
       <c r="Y159" s="28"/>
     </row>
-    <row r="160" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F160" s="18" t="s">
         <v>58</v>
       </c>
@@ -5834,7 +5454,7 @@
       <c r="X160" s="20"/>
       <c r="Y160" s="28"/>
     </row>
-    <row r="161" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F161" s="18" t="s">
         <v>59</v>
       </c>

--- a/resultados/Tabla Práctica 2.xlsx
+++ b/resultados/Tabla Práctica 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fl156\Desktop\Practica2MH\resultados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Desktop\Practica2MH\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4488F6-5D27-4E63-8062-7798F029AB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F06C94C-1BF7-4697-A568-08444EB504B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{11FB9E6F-B78B-44AD-B608-3F704304FA52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11FB9E6F-B78B-44AD-B608-3F704304FA52}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -227,13 +227,13 @@
     <t>Algoritmo AGG-uniforme</t>
   </si>
   <si>
-    <t>Algoritmo AM-10-1 (AGE-uniforme + bl)</t>
+    <t>Algoritmo AM-10-1 (AGG-uniforme + bl)</t>
   </si>
   <si>
-    <t>Algoritmo AM-10-0.1 (AGE-uniforme + bl)</t>
+    <t>Algoritmo AM-10-0.1 (AGG-uniforme + bl)</t>
   </si>
   <si>
-    <t>Algoritmo AM-10-0.1mej (AGE-uniforme + bl)</t>
+    <t>Algoritmo AM-10-0.1mej (AGG-uniforme + bl)</t>
   </si>
 </sst>
 </file>
@@ -807,25 +807,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA8B429-1123-409D-A169-A988B43F4B2A}">
   <dimension ref="A1:AB161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:Q53"/>
+    <sheetView tabSelected="1" topLeftCell="H87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V111" sqref="V111:Y161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="29"/>
-    <col min="11" max="11" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" customWidth="1"/>
-    <col min="19" max="19" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="29"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -843,7 +843,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="30"/>
     </row>
-    <row r="2" spans="1:20" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -868,7 +868,7 @@
       <c r="S2" s="9"/>
       <c r="T2" s="31"/>
     </row>
-    <row r="3" spans="1:20" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -913,7 +913,7 @@
       <c r="S3" s="16"/>
       <c r="T3" s="32"/>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
@@ -937,7 +937,9 @@
         <f>G4-D4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="28"/>
+      <c r="I4" s="28">
+        <v>35</v>
+      </c>
       <c r="J4" s="15"/>
       <c r="K4" s="16"/>
       <c r="L4" s="32"/>
@@ -950,12 +952,14 @@
       <c r="P4" s="20">
         <v>0</v>
       </c>
-      <c r="Q4" s="28"/>
+      <c r="Q4" s="28">
+        <v>68</v>
+      </c>
       <c r="R4" s="15"/>
       <c r="S4" s="16"/>
       <c r="T4" s="32"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -978,7 +982,9 @@
       <c r="H5" s="20">
         <v>0</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="28">
+        <v>32</v>
+      </c>
       <c r="J5" s="15"/>
       <c r="K5" s="16"/>
       <c r="L5" s="32"/>
@@ -991,12 +997,14 @@
       <c r="P5" s="20">
         <v>0</v>
       </c>
-      <c r="Q5" s="28"/>
+      <c r="Q5" s="28">
+        <v>69</v>
+      </c>
       <c r="R5" s="15"/>
       <c r="S5" s="16"/>
       <c r="T5" s="32"/>
     </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
@@ -1019,14 +1027,16 @@
       <c r="H6" s="20">
         <v>0</v>
       </c>
-      <c r="I6" s="28"/>
+      <c r="I6" s="28">
+        <v>30</v>
+      </c>
       <c r="J6" s="15"/>
       <c r="K6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="35" t="e">
+      <c r="L6" s="35">
         <f>AVERAGE(H4:H53)</f>
-        <v>#DIV/0!</v>
+        <v>0.6311593737875616</v>
       </c>
       <c r="N6" s="18" t="s">
         <v>10</v>
@@ -1037,17 +1047,19 @@
       <c r="P6" s="20">
         <v>0</v>
       </c>
-      <c r="Q6" s="28"/>
+      <c r="Q6" s="28">
+        <v>72</v>
+      </c>
       <c r="R6" s="15"/>
       <c r="S6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="35" t="e">
+      <c r="T6" s="35">
         <f>AVERAGE(P4:P53)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0.52844733236118291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -1070,14 +1082,16 @@
       <c r="H7" s="20">
         <v>0</v>
       </c>
-      <c r="I7" s="28"/>
+      <c r="I7" s="28">
+        <v>39</v>
+      </c>
       <c r="J7" s="15"/>
       <c r="K7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="33" t="e">
+      <c r="L7" s="33">
         <f>AVERAGE(I4:I53)</f>
-        <v>#DIV/0!</v>
+        <v>248.52</v>
       </c>
       <c r="N7" s="18" t="s">
         <v>12</v>
@@ -1088,17 +1102,19 @@
       <c r="P7" s="20">
         <v>0</v>
       </c>
-      <c r="Q7" s="28"/>
+      <c r="Q7" s="28">
+        <v>72</v>
+      </c>
       <c r="R7" s="15"/>
       <c r="S7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="33" t="e">
+      <c r="T7" s="33">
         <f>AVERAGE(Q4:Q53)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>554.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>14</v>
       </c>
@@ -1121,7 +1137,9 @@
       <c r="H8" s="20">
         <v>0</v>
       </c>
-      <c r="I8" s="28"/>
+      <c r="I8" s="28">
+        <v>31</v>
+      </c>
       <c r="J8" s="15"/>
       <c r="K8" s="16"/>
       <c r="L8" s="32"/>
@@ -1134,12 +1152,14 @@
       <c r="P8" s="20">
         <v>0</v>
       </c>
-      <c r="Q8" s="28"/>
+      <c r="Q8" s="28">
+        <v>65</v>
+      </c>
       <c r="R8" s="15"/>
       <c r="S8" s="16"/>
       <c r="T8" s="32"/>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
@@ -1156,29 +1176,37 @@
       <c r="F9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20" t="e">
+      <c r="G9" s="19">
+        <v>38.051699999999997</v>
+      </c>
+      <c r="H9" s="20">
         <f>(G9-D9)/G9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="28"/>
+        <v>0.66577156868156484</v>
+      </c>
+      <c r="I9" s="28">
+        <v>50</v>
+      </c>
       <c r="J9" s="15"/>
       <c r="K9" s="16"/>
       <c r="L9" s="32"/>
       <c r="N9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="20" t="e">
+      <c r="O9" s="19">
+        <v>38.519599999999997</v>
+      </c>
+      <c r="P9" s="20">
         <f>(O9-D9)/O9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q9" s="28"/>
+        <v>0.669831462424332</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>64</v>
+      </c>
       <c r="R9" s="15"/>
       <c r="S9" s="16"/>
       <c r="T9" s="32"/>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>16</v>
       </c>
@@ -1195,29 +1223,37 @@
       <c r="F10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20" t="e">
+      <c r="G10" s="19">
+        <v>40.463900000000002</v>
+      </c>
+      <c r="H10" s="20">
         <f t="shared" ref="H10:H53" si="0">(G10-D10)/G10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="28"/>
+        <v>0.65157214208220904</v>
+      </c>
+      <c r="I10" s="28">
+        <v>50</v>
+      </c>
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
       <c r="L10" s="32"/>
       <c r="N10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="20" t="e">
+      <c r="O10" s="19">
+        <v>32.207000000000001</v>
+      </c>
+      <c r="P10" s="20">
         <f t="shared" ref="P10:P53" si="1">(O10-D10)/O10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q10" s="28"/>
+        <v>0.56224578507778744</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>67</v>
+      </c>
       <c r="R10" s="15"/>
       <c r="S10" s="16"/>
       <c r="T10" s="32"/>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>17</v>
       </c>
@@ -1234,29 +1270,37 @@
       <c r="F11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20" t="e">
+      <c r="G11" s="19">
+        <v>22.2758</v>
+      </c>
+      <c r="H11" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="28"/>
+        <v>0.24756058143816159</v>
+      </c>
+      <c r="I11" s="28">
+        <v>53</v>
+      </c>
       <c r="J11" s="15"/>
       <c r="K11" s="16"/>
       <c r="L11" s="32"/>
       <c r="N11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20" t="e">
+      <c r="O11" s="19">
+        <v>33.780900000000003</v>
+      </c>
+      <c r="P11" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q11" s="28"/>
+        <v>0.50382642262344113</v>
+      </c>
+      <c r="Q11" s="28">
+        <v>69</v>
+      </c>
       <c r="R11" s="15"/>
       <c r="S11" s="16"/>
       <c r="T11" s="32"/>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>18</v>
       </c>
@@ -1273,29 +1317,37 @@
       <c r="F12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20" t="e">
+      <c r="G12" s="19">
+        <v>25.014500000000002</v>
+      </c>
+      <c r="H12" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="28"/>
+        <v>0.31762737612185343</v>
+      </c>
+      <c r="I12" s="28">
+        <v>52</v>
+      </c>
       <c r="J12" s="15"/>
       <c r="K12" s="16"/>
       <c r="L12" s="32"/>
       <c r="N12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="19"/>
-      <c r="P12" s="20" t="e">
+      <c r="O12" s="19">
+        <v>37.361899999999999</v>
+      </c>
+      <c r="P12" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q12" s="28"/>
+        <v>0.54313859841175371</v>
+      </c>
+      <c r="Q12" s="28">
+        <v>62</v>
+      </c>
       <c r="R12" s="15"/>
       <c r="S12" s="16"/>
       <c r="T12" s="32"/>
     </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>19</v>
       </c>
@@ -1312,27 +1364,35 @@
       <c r="F13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20" t="e">
+      <c r="G13" s="19">
+        <v>39.055700000000002</v>
+      </c>
+      <c r="H13" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="28"/>
+        <v>0.40430641366049264</v>
+      </c>
+      <c r="I13" s="28">
+        <v>52</v>
+      </c>
       <c r="J13" s="15"/>
       <c r="L13" s="32"/>
       <c r="N13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="19"/>
-      <c r="P13" s="20" t="e">
+      <c r="O13" s="19">
+        <v>31.435600000000001</v>
+      </c>
+      <c r="P13" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q13" s="28"/>
+        <v>0.25990819325860176</v>
+      </c>
+      <c r="Q13" s="28">
+        <v>73</v>
+      </c>
       <c r="R13" s="15"/>
       <c r="T13" s="32"/>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
@@ -1349,27 +1409,35 @@
       <c r="F14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20" t="e">
+      <c r="G14" s="19">
+        <v>15.7994</v>
+      </c>
+      <c r="H14" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="28"/>
+        <v>0.87809030722685544</v>
+      </c>
+      <c r="I14" s="28">
+        <v>59</v>
+      </c>
       <c r="J14" s="15"/>
       <c r="L14" s="32"/>
       <c r="N14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="19"/>
-      <c r="P14" s="20" t="e">
+      <c r="O14" s="19">
+        <v>34.249400000000001</v>
+      </c>
+      <c r="P14" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q14" s="28"/>
+        <v>0.94376251846747627</v>
+      </c>
+      <c r="Q14" s="28">
+        <v>75</v>
+      </c>
       <c r="R14" s="15"/>
       <c r="T14" s="32"/>
     </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>21</v>
       </c>
@@ -1386,27 +1454,35 @@
       <c r="F15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20" t="e">
+      <c r="G15" s="19">
+        <v>17.6905</v>
+      </c>
+      <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="28"/>
+        <v>0.88010288007687121</v>
+      </c>
+      <c r="I15" s="28">
+        <v>57</v>
+      </c>
       <c r="J15" s="15"/>
       <c r="L15" s="32"/>
       <c r="N15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="19"/>
-      <c r="P15" s="20" t="e">
+      <c r="O15" s="19">
+        <v>14.444800000000001</v>
+      </c>
+      <c r="P15" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q15" s="28"/>
+        <v>0.85316238369516295</v>
+      </c>
+      <c r="Q15" s="28">
+        <v>83</v>
+      </c>
       <c r="R15" s="15"/>
       <c r="T15" s="32"/>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>22</v>
       </c>
@@ -1423,27 +1499,35 @@
       <c r="F16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20" t="e">
+      <c r="G16" s="19">
+        <v>21.261600000000001</v>
+      </c>
+      <c r="H16" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="28"/>
+        <v>0.88889312187229652</v>
+      </c>
+      <c r="I16" s="28">
+        <v>57</v>
+      </c>
       <c r="J16" s="15"/>
       <c r="L16" s="32"/>
       <c r="N16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="19"/>
-      <c r="P16" s="20" t="e">
+      <c r="O16" s="19">
+        <v>11.806100000000001</v>
+      </c>
+      <c r="P16" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16" s="28"/>
+        <v>0.79990767484605596</v>
+      </c>
+      <c r="Q16" s="28">
+        <v>76</v>
+      </c>
       <c r="R16" s="15"/>
       <c r="T16" s="32"/>
     </row>
-    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>23</v>
       </c>
@@ -1460,27 +1544,35 @@
       <c r="F17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20" t="e">
+      <c r="G17" s="19">
+        <v>10.394299999999999</v>
+      </c>
+      <c r="H17" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="28"/>
+        <v>0.83998922486363681</v>
+      </c>
+      <c r="I17" s="28">
+        <v>61</v>
+      </c>
       <c r="J17" s="15"/>
       <c r="L17" s="32"/>
       <c r="N17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="19"/>
-      <c r="P17" s="20" t="e">
+      <c r="O17" s="19">
+        <v>13.026300000000001</v>
+      </c>
+      <c r="P17" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q17" s="28"/>
+        <v>0.87231984523618367</v>
+      </c>
+      <c r="Q17" s="28">
+        <v>114</v>
+      </c>
       <c r="R17" s="15"/>
       <c r="T17" s="32"/>
     </row>
-    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>24</v>
       </c>
@@ -1497,27 +1589,35 @@
       <c r="F18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20" t="e">
+      <c r="G18" s="19">
+        <v>9.7051400000000001</v>
+      </c>
+      <c r="H18" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="28"/>
+        <v>0.70601866639739763</v>
+      </c>
+      <c r="I18" s="28">
+        <v>59</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="L18" s="32"/>
       <c r="N18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O18" s="19"/>
-      <c r="P18" s="20" t="e">
+      <c r="O18" s="19">
+        <v>8.4449500000000004</v>
+      </c>
+      <c r="P18" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q18" s="28"/>
+        <v>0.66214956867714314</v>
+      </c>
+      <c r="Q18" s="28">
+        <v>105</v>
+      </c>
       <c r="R18" s="5"/>
       <c r="T18" s="32"/>
     </row>
-    <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>25</v>
       </c>
@@ -1534,27 +1634,35 @@
       <c r="F19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20" t="e">
+      <c r="G19" s="19">
+        <v>96.573999999999998</v>
+      </c>
+      <c r="H19" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="28"/>
+        <v>0.55737796922568084</v>
+      </c>
+      <c r="I19" s="28">
+        <v>138</v>
+      </c>
       <c r="J19" s="22"/>
       <c r="L19" s="32"/>
       <c r="N19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="O19" s="19"/>
-      <c r="P19" s="20" t="e">
+      <c r="O19" s="19">
+        <v>81.100999999999999</v>
+      </c>
+      <c r="P19" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q19" s="28"/>
+        <v>0.47293152982085174</v>
+      </c>
+      <c r="Q19" s="28">
+        <v>264</v>
+      </c>
       <c r="R19" s="22"/>
       <c r="T19" s="32"/>
     </row>
-    <row r="20" spans="1:20" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>26</v>
       </c>
@@ -1571,27 +1679,35 @@
       <c r="F20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20" t="e">
+      <c r="G20" s="19">
+        <v>131.79599999999999</v>
+      </c>
+      <c r="H20" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="28"/>
+        <v>0.63498429390877109</v>
+      </c>
+      <c r="I20" s="28">
+        <v>138</v>
+      </c>
       <c r="J20" s="21"/>
       <c r="L20" s="32"/>
       <c r="N20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="O20" s="19"/>
-      <c r="P20" s="20" t="e">
+      <c r="O20" s="19">
+        <v>88.906400000000005</v>
+      </c>
+      <c r="P20" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q20" s="28"/>
+        <v>0.45889598499096129</v>
+      </c>
+      <c r="Q20" s="28">
+        <v>208</v>
+      </c>
       <c r="R20" s="21"/>
       <c r="T20" s="32"/>
     </row>
-    <row r="21" spans="1:20" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>27</v>
       </c>
@@ -1608,27 +1724,35 @@
       <c r="F21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20" t="e">
+      <c r="G21" s="19">
+        <v>123.777</v>
+      </c>
+      <c r="H21" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="28"/>
+        <v>0.65101682865152899</v>
+      </c>
+      <c r="I21" s="28">
+        <v>125</v>
+      </c>
       <c r="J21" s="21"/>
       <c r="L21" s="32"/>
       <c r="N21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="O21" s="19"/>
-      <c r="P21" s="20" t="e">
+      <c r="O21" s="19">
+        <v>116.48</v>
+      </c>
+      <c r="P21" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q21" s="28"/>
+        <v>0.62915444711538726</v>
+      </c>
+      <c r="Q21" s="28">
+        <v>211</v>
+      </c>
       <c r="R21" s="21"/>
       <c r="T21" s="32"/>
     </row>
-    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>28</v>
       </c>
@@ -1645,27 +1769,35 @@
       <c r="F22" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20" t="e">
+      <c r="G22" s="19">
+        <v>170.17</v>
+      </c>
+      <c r="H22" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="28"/>
+        <v>0.72725832990539219</v>
+      </c>
+      <c r="I22" s="28">
+        <v>122</v>
+      </c>
       <c r="J22" s="23"/>
       <c r="L22" s="32"/>
       <c r="N22" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="O22" s="19"/>
-      <c r="P22" s="20" t="e">
+      <c r="O22" s="19">
+        <v>114.59</v>
+      </c>
+      <c r="P22" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q22" s="28"/>
+        <v>0.59496945632254639</v>
+      </c>
+      <c r="Q22" s="28">
+        <v>178</v>
+      </c>
       <c r="R22" s="23"/>
       <c r="T22" s="32"/>
     </row>
-    <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>29</v>
       </c>
@@ -1682,29 +1814,37 @@
       <c r="F23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20" t="e">
+      <c r="G23" s="19">
+        <v>168.11799999999999</v>
+      </c>
+      <c r="H23" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="28"/>
+        <v>0.71618083726906345</v>
+      </c>
+      <c r="I23" s="28">
+        <v>121</v>
+      </c>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="L23" s="32"/>
       <c r="N23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="O23" s="19"/>
-      <c r="P23" s="20" t="e">
+      <c r="O23" s="19">
+        <v>102.85</v>
+      </c>
+      <c r="P23" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q23" s="28"/>
+        <v>0.53607087992222069</v>
+      </c>
+      <c r="Q23" s="28">
+        <v>199</v>
+      </c>
       <c r="R23" s="23"/>
       <c r="S23" s="23"/>
       <c r="T23" s="32"/>
     </row>
-    <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>30</v>
       </c>
@@ -1721,29 +1861,37 @@
       <c r="F24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20" t="e">
+      <c r="G24" s="19">
+        <v>48.939399999999999</v>
+      </c>
+      <c r="H24" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="28"/>
+        <v>0.71736433221494544</v>
+      </c>
+      <c r="I24" s="28">
+        <v>137</v>
+      </c>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
       <c r="L24" s="32"/>
       <c r="N24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="O24" s="19"/>
-      <c r="P24" s="20" t="e">
+      <c r="O24" s="19">
+        <v>57.8125</v>
+      </c>
+      <c r="P24" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q24" s="28"/>
+        <v>0.7607434378378396</v>
+      </c>
+      <c r="Q24" s="28">
+        <v>276</v>
+      </c>
       <c r="R24" s="23"/>
       <c r="S24" s="23"/>
       <c r="T24" s="32"/>
     </row>
-    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>31</v>
       </c>
@@ -1760,29 +1908,37 @@
       <c r="F25" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20" t="e">
+      <c r="G25" s="19">
+        <v>70.488399999999999</v>
+      </c>
+      <c r="H25" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="28"/>
+        <v>0.80614767819952926</v>
+      </c>
+      <c r="I25" s="28">
+        <v>134</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="32"/>
       <c r="N25" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="O25" s="19"/>
-      <c r="P25" s="20" t="e">
+      <c r="O25" s="19">
+        <v>60.578899999999997</v>
+      </c>
+      <c r="P25" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25" s="28"/>
+        <v>0.77443730407781752</v>
+      </c>
+      <c r="Q25" s="28">
+        <v>254</v>
+      </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="32"/>
     </row>
-    <row r="26" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>32</v>
       </c>
@@ -1799,29 +1955,37 @@
       <c r="F26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20" t="e">
+      <c r="G26" s="19">
+        <v>62.751199999999997</v>
+      </c>
+      <c r="H26" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="28"/>
+        <v>0.75545678807736261</v>
+      </c>
+      <c r="I26" s="28">
+        <v>131</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="32"/>
       <c r="N26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O26" s="19"/>
-      <c r="P26" s="20" t="e">
+      <c r="O26" s="19">
+        <v>47.368099999999998</v>
+      </c>
+      <c r="P26" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q26" s="28"/>
+        <v>0.67603978204741588</v>
+      </c>
+      <c r="Q26" s="28">
+        <v>227</v>
+      </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="32"/>
     </row>
-    <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>33</v>
       </c>
@@ -1838,29 +2002,37 @@
       <c r="F27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20" t="e">
+      <c r="G27" s="19">
+        <v>48.146099999999997</v>
+      </c>
+      <c r="H27" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="28"/>
+        <v>0.82053291959266927</v>
+      </c>
+      <c r="I27" s="28">
+        <v>140</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="32"/>
       <c r="N27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="O27" s="19"/>
-      <c r="P27" s="20" t="e">
+      <c r="O27" s="19">
+        <v>71.778400000000005</v>
+      </c>
+      <c r="P27" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q27" s="28"/>
+        <v>0.87962061009998282</v>
+      </c>
+      <c r="Q27" s="28">
+        <v>398</v>
+      </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="32"/>
     </row>
-    <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>34</v>
       </c>
@@ -1877,29 +2049,37 @@
       <c r="F28" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20" t="e">
+      <c r="G28" s="19">
+        <v>62.234299999999998</v>
+      </c>
+      <c r="H28" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="28"/>
+        <v>0.72361688008060021</v>
+      </c>
+      <c r="I28" s="28">
+        <v>131</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="32"/>
       <c r="N28" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="O28" s="19"/>
-      <c r="P28" s="20" t="e">
+      <c r="O28" s="19">
+        <v>66.094999999999999</v>
+      </c>
+      <c r="P28" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="28"/>
+        <v>0.73976079885014157</v>
+      </c>
+      <c r="Q28" s="28">
+        <v>384</v>
+      </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="32"/>
     </row>
-    <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>35</v>
       </c>
@@ -1916,29 +2096,37 @@
       <c r="F29" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20" t="e">
+      <c r="G29" s="19">
+        <v>424.66300000000001</v>
+      </c>
+      <c r="H29" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="28"/>
+        <v>0.60267414396827368</v>
+      </c>
+      <c r="I29" s="28">
+        <v>354</v>
+      </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="32"/>
       <c r="N29" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O29" s="19"/>
-      <c r="P29" s="20" t="e">
+      <c r="O29" s="19">
+        <v>271.68900000000002</v>
+      </c>
+      <c r="P29" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q29" s="28"/>
+        <v>0.37896053944031233</v>
+      </c>
+      <c r="Q29" s="28">
+        <v>740</v>
+      </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="32"/>
     </row>
-    <row r="30" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>36</v>
       </c>
@@ -1955,29 +2143,37 @@
       <c r="F30" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20" t="e">
+      <c r="G30" s="19">
+        <v>424.46800000000002</v>
+      </c>
+      <c r="H30" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="28"/>
+        <v>0.70057281114241832</v>
+      </c>
+      <c r="I30" s="28">
+        <v>365</v>
+      </c>
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
       <c r="L30" s="32"/>
       <c r="N30" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="O30" s="19"/>
-      <c r="P30" s="20" t="e">
+      <c r="O30" s="19">
+        <v>234.673</v>
+      </c>
+      <c r="P30" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q30" s="28"/>
+        <v>0.45840697481175935</v>
+      </c>
+      <c r="Q30" s="28">
+        <v>662</v>
+      </c>
       <c r="R30" s="23"/>
       <c r="S30" s="23"/>
       <c r="T30" s="32"/>
     </row>
-    <row r="31" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>37</v>
       </c>
@@ -1994,29 +2190,37 @@
       <c r="F31" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20" t="e">
+      <c r="G31" s="19">
+        <v>471.60300000000001</v>
+      </c>
+      <c r="H31" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="28"/>
+        <v>0.7744306333929194</v>
+      </c>
+      <c r="I31" s="28">
+        <v>356</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="32"/>
       <c r="N31" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O31" s="19"/>
-      <c r="P31" s="20" t="e">
+      <c r="O31" s="19">
+        <v>234.22200000000001</v>
+      </c>
+      <c r="P31" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q31" s="28"/>
+        <v>0.54581896662141471</v>
+      </c>
+      <c r="Q31" s="28">
+        <v>812</v>
+      </c>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="32"/>
     </row>
-    <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>38</v>
       </c>
@@ -2033,29 +2237,37 @@
       <c r="F32" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20" t="e">
+      <c r="G32" s="19">
+        <v>501.24099999999999</v>
+      </c>
+      <c r="H32" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="28"/>
+        <v>0.72577430816713118</v>
+      </c>
+      <c r="I32" s="28">
+        <v>363</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="32"/>
       <c r="N32" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="O32" s="19"/>
-      <c r="P32" s="20" t="e">
+      <c r="O32" s="19">
+        <v>218.46899999999999</v>
+      </c>
+      <c r="P32" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q32" s="28"/>
+        <v>0.3708344891037218</v>
+      </c>
+      <c r="Q32" s="28">
+        <v>661</v>
+      </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="32"/>
     </row>
-    <row r="33" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>39</v>
       </c>
@@ -2072,29 +2284,37 @@
       <c r="F33" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20" t="e">
+      <c r="G33" s="19">
+        <v>301.18799999999999</v>
+      </c>
+      <c r="H33" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="28"/>
+        <v>0.57674362856421568</v>
+      </c>
+      <c r="I33" s="28">
+        <v>366</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="32"/>
       <c r="N33" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O33" s="19"/>
-      <c r="P33" s="20" t="e">
+      <c r="O33" s="19">
+        <v>195.691</v>
+      </c>
+      <c r="P33" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q33" s="28"/>
+        <v>0.34856615787133288</v>
+      </c>
+      <c r="Q33" s="28">
+        <v>866</v>
+      </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="32"/>
     </row>
-    <row r="34" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>40</v>
       </c>
@@ -2111,29 +2331,37 @@
       <c r="F34" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20" t="e">
+      <c r="G34" s="19">
+        <v>91.808300000000003</v>
+      </c>
+      <c r="H34" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="28"/>
+        <v>0.87206886523331872</v>
+      </c>
+      <c r="I34" s="28">
+        <v>189</v>
+      </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="32"/>
       <c r="N34" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O34" s="19"/>
-      <c r="P34" s="20" t="e">
+      <c r="O34" s="19">
+        <v>68.099500000000006</v>
+      </c>
+      <c r="P34" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q34" s="28"/>
+        <v>0.82752971754565163</v>
+      </c>
+      <c r="Q34" s="28">
+        <v>446</v>
+      </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="32"/>
     </row>
-    <row r="35" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>41</v>
       </c>
@@ -2150,29 +2378,37 @@
       <c r="F35" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20" t="e">
+      <c r="G35" s="19">
+        <v>60.738199999999999</v>
+      </c>
+      <c r="H35" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="28"/>
+        <v>0.69065711529153473</v>
+      </c>
+      <c r="I35" s="28">
+        <v>194</v>
+      </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="32"/>
       <c r="N35" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="O35" s="19"/>
-      <c r="P35" s="20" t="e">
+      <c r="O35" s="19">
+        <v>68.329800000000006</v>
+      </c>
+      <c r="P35" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q35" s="28"/>
+        <v>0.72502583060392845</v>
+      </c>
+      <c r="Q35" s="28">
+        <v>377</v>
+      </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="32"/>
     </row>
-    <row r="36" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>42</v>
       </c>
@@ -2189,29 +2425,37 @@
       <c r="F36" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20" t="e">
+      <c r="G36" s="19">
+        <v>84.233099999999993</v>
+      </c>
+      <c r="H36" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="28"/>
+        <v>0.77999622476200214</v>
+      </c>
+      <c r="I36" s="28">
+        <v>187</v>
+      </c>
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
       <c r="L36" s="32"/>
       <c r="N36" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="O36" s="19"/>
-      <c r="P36" s="20" t="e">
+      <c r="O36" s="19">
+        <v>42.944600000000001</v>
+      </c>
+      <c r="P36" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q36" s="28"/>
+        <v>0.56847659542760209</v>
+      </c>
+      <c r="Q36" s="28">
+        <v>377</v>
+      </c>
       <c r="R36" s="23"/>
       <c r="S36" s="23"/>
       <c r="T36" s="32"/>
     </row>
-    <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>43</v>
       </c>
@@ -2228,29 +2472,37 @@
       <c r="F37" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20" t="e">
+      <c r="G37" s="19">
+        <v>96.5715</v>
+      </c>
+      <c r="H37" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="28"/>
+        <v>0.79819791553408503</v>
+      </c>
+      <c r="I37" s="28">
+        <v>197</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="32"/>
       <c r="N37" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O37" s="19"/>
-      <c r="P37" s="20" t="e">
+      <c r="O37" s="19">
+        <v>72.689599999999999</v>
+      </c>
+      <c r="P37" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q37" s="28"/>
+        <v>0.73189658493099286</v>
+      </c>
+      <c r="Q37" s="28">
+        <v>333</v>
+      </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="32"/>
     </row>
-    <row r="38" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>44</v>
       </c>
@@ -2267,29 +2519,37 @@
       <c r="F38" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="20" t="e">
+      <c r="G38" s="19">
+        <v>47.301000000000002</v>
+      </c>
+      <c r="H38" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="28"/>
+        <v>0.61708166846367307</v>
+      </c>
+      <c r="I38" s="28">
+        <v>186</v>
+      </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="32"/>
       <c r="N38" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="O38" s="19"/>
-      <c r="P38" s="20" t="e">
+      <c r="O38" s="19">
+        <v>52.114800000000002</v>
+      </c>
+      <c r="P38" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q38" s="28"/>
+        <v>0.65245151089518139</v>
+      </c>
+      <c r="Q38" s="28">
+        <v>444</v>
+      </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="32"/>
     </row>
-    <row r="39" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>45</v>
       </c>
@@ -2306,29 +2566,37 @@
       <c r="F39" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G39" s="19"/>
-      <c r="H39" s="20" t="e">
+      <c r="G39" s="19">
+        <v>590.46900000000005</v>
+      </c>
+      <c r="H39" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="28"/>
+        <v>0.73676049038983926</v>
+      </c>
+      <c r="I39" s="28">
+        <v>533</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="32"/>
       <c r="N39" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O39" s="19"/>
-      <c r="P39" s="20" t="e">
+      <c r="O39" s="19">
+        <v>342.29199999999997</v>
+      </c>
+      <c r="P39" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q39" s="28"/>
+        <v>0.54590007946431107</v>
+      </c>
+      <c r="Q39" s="28">
+        <v>1099</v>
+      </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="32"/>
     </row>
-    <row r="40" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>46</v>
       </c>
@@ -2345,29 +2613,37 @@
       <c r="F40" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20" t="e">
+      <c r="G40" s="19">
+        <v>775.53700000000003</v>
+      </c>
+      <c r="H40" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="28"/>
+        <v>0.74353948296470829</v>
+      </c>
+      <c r="I40" s="28">
+        <v>521</v>
+      </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="32"/>
       <c r="N40" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="O40" s="19"/>
-      <c r="P40" s="20" t="e">
+      <c r="O40" s="19">
+        <v>279.755</v>
+      </c>
+      <c r="P40" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q40" s="28"/>
+        <v>0.28903998141231074</v>
+      </c>
+      <c r="Q40" s="28">
+        <v>1287</v>
+      </c>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="32"/>
     </row>
-    <row r="41" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>47</v>
       </c>
@@ -2384,29 +2660,37 @@
       <c r="F41" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="20" t="e">
+      <c r="G41" s="19">
+        <v>660.30399999999997</v>
+      </c>
+      <c r="H41" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="28"/>
+        <v>0.71533258923162657</v>
+      </c>
+      <c r="I41" s="28">
+        <v>531</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="32"/>
       <c r="N41" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="O41" s="19"/>
-      <c r="P41" s="20" t="e">
+      <c r="O41" s="19">
+        <v>304.964</v>
+      </c>
+      <c r="P41" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q41" s="28"/>
+        <v>0.38364190527406516</v>
+      </c>
+      <c r="Q41" s="28">
+        <v>1102</v>
+      </c>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="32"/>
     </row>
-    <row r="42" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>48</v>
       </c>
@@ -2423,29 +2707,37 @@
       <c r="F42" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="19"/>
-      <c r="H42" s="20" t="e">
+      <c r="G42" s="19">
+        <v>630.38800000000003</v>
+      </c>
+      <c r="H42" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="28"/>
+        <v>0.73256121626680548</v>
+      </c>
+      <c r="I42" s="28">
+        <v>555</v>
+      </c>
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
       <c r="L42" s="32"/>
       <c r="N42" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="O42" s="19"/>
-      <c r="P42" s="20" t="e">
+      <c r="O42" s="19">
+        <v>306.88799999999998</v>
+      </c>
+      <c r="P42" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q42" s="28"/>
+        <v>0.45064583822110665</v>
+      </c>
+      <c r="Q42" s="28">
+        <v>1458</v>
+      </c>
       <c r="R42" s="23"/>
       <c r="S42" s="23"/>
       <c r="T42" s="32"/>
     </row>
-    <row r="43" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>49</v>
       </c>
@@ -2462,29 +2754,37 @@
       <c r="F43" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="19"/>
-      <c r="H43" s="20" t="e">
+      <c r="G43" s="19">
+        <v>610.44299999999998</v>
+      </c>
+      <c r="H43" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I43" s="28"/>
+        <v>0.70809110760545535</v>
+      </c>
+      <c r="I43" s="28">
+        <v>542</v>
+      </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="32"/>
       <c r="N43" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="O43" s="19"/>
-      <c r="P43" s="20" t="e">
+      <c r="O43" s="19">
+        <v>302.97899999999998</v>
+      </c>
+      <c r="P43" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q43" s="28"/>
+        <v>0.41186108608186373</v>
+      </c>
+      <c r="Q43" s="28">
+        <v>1213</v>
+      </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="32"/>
     </row>
-    <row r="44" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>50</v>
       </c>
@@ -2501,29 +2801,37 @@
       <c r="F44" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G44" s="19"/>
-      <c r="H44" s="20" t="e">
+      <c r="G44" s="19">
+        <v>86.8142</v>
+      </c>
+      <c r="H44" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I44" s="28"/>
+        <v>0.73107993853539743</v>
+      </c>
+      <c r="I44" s="28">
+        <v>267</v>
+      </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="32"/>
       <c r="N44" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="O44" s="19"/>
-      <c r="P44" s="20" t="e">
+      <c r="O44" s="19">
+        <v>93.533699999999996</v>
+      </c>
+      <c r="P44" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q44" s="28"/>
+        <v>0.75039926785746425</v>
+      </c>
+      <c r="Q44" s="28">
+        <v>737</v>
+      </c>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
       <c r="T44" s="32"/>
     </row>
-    <row r="45" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>51</v>
       </c>
@@ -2540,29 +2848,37 @@
       <c r="F45" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G45" s="19"/>
-      <c r="H45" s="20" t="e">
+      <c r="G45" s="19">
+        <v>113.087</v>
+      </c>
+      <c r="H45" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="28"/>
+        <v>0.76310716527983247</v>
+      </c>
+      <c r="I45" s="28">
+        <v>256</v>
+      </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="32"/>
       <c r="N45" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="O45" s="19"/>
-      <c r="P45" s="20" t="e">
+      <c r="O45" s="19">
+        <v>49.201900000000002</v>
+      </c>
+      <c r="P45" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q45" s="28"/>
+        <v>0.45551899418519209</v>
+      </c>
+      <c r="Q45" s="28">
+        <v>566</v>
+      </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="32"/>
     </row>
-    <row r="46" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>52</v>
       </c>
@@ -2579,29 +2895,37 @@
       <c r="F46" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G46" s="19"/>
-      <c r="H46" s="20" t="e">
+      <c r="G46" s="19">
+        <v>95.647000000000006</v>
+      </c>
+      <c r="H46" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I46" s="28"/>
+        <v>0.72027904691208722</v>
+      </c>
+      <c r="I46" s="28">
+        <v>257</v>
+      </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="32"/>
       <c r="N46" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="O46" s="19"/>
-      <c r="P46" s="20" t="e">
+      <c r="O46" s="19">
+        <v>94.452299999999994</v>
+      </c>
+      <c r="P46" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q46" s="28"/>
+        <v>0.7167409369597183</v>
+      </c>
+      <c r="Q46" s="28">
+        <v>597</v>
+      </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="32"/>
     </row>
-    <row r="47" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>53</v>
       </c>
@@ -2618,29 +2942,37 @@
       <c r="F47" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="20" t="e">
+      <c r="G47" s="19">
+        <v>102.572</v>
+      </c>
+      <c r="H47" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I47" s="28"/>
+        <v>0.74714746714502489</v>
+      </c>
+      <c r="I47" s="28">
+        <v>260</v>
+      </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="32"/>
       <c r="N47" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="O47" s="19"/>
-      <c r="P47" s="20" t="e">
+      <c r="O47" s="19">
+        <v>124.51</v>
+      </c>
+      <c r="P47" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q47" s="28"/>
+        <v>0.79169873905709987</v>
+      </c>
+      <c r="Q47" s="28">
+        <v>706</v>
+      </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="32"/>
     </row>
-    <row r="48" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>54</v>
       </c>
@@ -2657,29 +2989,37 @@
       <c r="F48" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G48" s="19"/>
-      <c r="H48" s="20" t="e">
+      <c r="G48" s="19">
+        <v>118.366</v>
+      </c>
+      <c r="H48" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I48" s="28"/>
+        <v>0.76536327999594977</v>
+      </c>
+      <c r="I48" s="28">
+        <v>259</v>
+      </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="32"/>
       <c r="N48" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="O48" s="19"/>
-      <c r="P48" s="20" t="e">
+      <c r="O48" s="19">
+        <v>73.650400000000005</v>
+      </c>
+      <c r="P48" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q48" s="28"/>
+        <v>0.62290754700586282</v>
+      </c>
+      <c r="Q48" s="28">
+        <v>845</v>
+      </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="32"/>
     </row>
-    <row r="49" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
         <v>55</v>
       </c>
@@ -2696,25 +3036,33 @@
       <c r="F49" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="20" t="e">
+      <c r="G49" s="19">
+        <v>843.62199999999996</v>
+      </c>
+      <c r="H49" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I49" s="28"/>
+        <v>0.7300339370002229</v>
+      </c>
+      <c r="I49" s="28">
+        <v>732</v>
+      </c>
       <c r="L49" s="32"/>
       <c r="N49" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="O49" s="19"/>
-      <c r="P49" s="20" t="e">
+      <c r="O49" s="19">
+        <v>373.35199999999998</v>
+      </c>
+      <c r="P49" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q49" s="28"/>
+        <v>0.38998770597184962</v>
+      </c>
+      <c r="Q49" s="28">
+        <v>1952</v>
+      </c>
       <c r="T49" s="32"/>
     </row>
-    <row r="50" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>56</v>
       </c>
@@ -2731,25 +3079,33 @@
       <c r="F50" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G50" s="19"/>
-      <c r="H50" s="20" t="e">
+      <c r="G50" s="19">
+        <v>732.99900000000002</v>
+      </c>
+      <c r="H50" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I50" s="28"/>
+        <v>0.68812658680298344</v>
+      </c>
+      <c r="I50" s="28">
+        <v>731</v>
+      </c>
       <c r="L50" s="32"/>
       <c r="N50" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="O50" s="19"/>
-      <c r="P50" s="20" t="e">
+      <c r="O50" s="19">
+        <v>436.09699999999998</v>
+      </c>
+      <c r="P50" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q50" s="28"/>
+        <v>0.47579804493037098</v>
+      </c>
+      <c r="Q50" s="28">
+        <v>1681</v>
+      </c>
       <c r="T50" s="32"/>
     </row>
-    <row r="51" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>57</v>
       </c>
@@ -2766,25 +3122,33 @@
       <c r="F51" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G51" s="19"/>
-      <c r="H51" s="20" t="e">
+      <c r="G51" s="19">
+        <v>695.15300000000002</v>
+      </c>
+      <c r="H51" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I51" s="28"/>
+        <v>0.67381951886850944</v>
+      </c>
+      <c r="I51" s="28">
+        <v>730</v>
+      </c>
       <c r="L51" s="32"/>
       <c r="N51" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="O51" s="19"/>
-      <c r="P51" s="20" t="e">
+      <c r="O51" s="19">
+        <v>382.2</v>
+      </c>
+      <c r="P51" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q51" s="28"/>
+        <v>0.40673642072213761</v>
+      </c>
+      <c r="Q51" s="28">
+        <v>1764</v>
+      </c>
       <c r="T51" s="32"/>
     </row>
-    <row r="52" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>58</v>
       </c>
@@ -2801,25 +3165,33 @@
       <c r="F52" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G52" s="19"/>
-      <c r="H52" s="20" t="e">
+      <c r="G52" s="19">
+        <v>728.82100000000003</v>
+      </c>
+      <c r="H52" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I52" s="28"/>
+        <v>0.68934812525983336</v>
+      </c>
+      <c r="I52" s="28">
+        <v>729</v>
+      </c>
       <c r="L52" s="32"/>
       <c r="N52" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="O52" s="19"/>
-      <c r="P52" s="20" t="e">
+      <c r="O52" s="19">
+        <v>435.93099999999998</v>
+      </c>
+      <c r="P52" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q52" s="28"/>
+        <v>0.48062970974763664</v>
+      </c>
+      <c r="Q52" s="28">
+        <v>1819</v>
+      </c>
       <c r="T52" s="32"/>
     </row>
-    <row r="53" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
         <v>59</v>
       </c>
@@ -2836,26 +3208,34 @@
       <c r="F53" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="19"/>
-      <c r="H53" s="20" t="e">
+      <c r="G53" s="19">
+        <v>790.80499999999995</v>
+      </c>
+      <c r="H53" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" s="28"/>
+        <v>0.6853122830533469</v>
+      </c>
+      <c r="I53" s="28">
+        <v>732</v>
+      </c>
       <c r="L53" s="32"/>
       <c r="N53" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="O53" s="19"/>
-      <c r="P53" s="20" t="e">
+      <c r="O53" s="19">
+        <v>452.48</v>
+      </c>
+      <c r="P53" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q53" s="28"/>
+        <v>0.45001631011315862</v>
+      </c>
+      <c r="Q53" s="28">
+        <v>1448</v>
+      </c>
       <c r="T53" s="32"/>
     </row>
-    <row r="55" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:20" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F56" s="38" t="s">
         <v>62</v>
       </c>
@@ -2869,7 +3249,7 @@
       <c r="P56" s="38"/>
       <c r="Q56" s="38"/>
     </row>
-    <row r="57" spans="1:20" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:20" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F57" s="13" t="s">
         <v>1</v>
       </c>
@@ -2895,7 +3275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F58" s="18" t="s">
         <v>8</v>
       </c>
@@ -2918,10 +3298,10 @@
         <v>0</v>
       </c>
       <c r="Q58" s="28">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F59" s="18" t="s">
         <v>9</v>
       </c>
@@ -2944,10 +3324,10 @@
         <v>0</v>
       </c>
       <c r="Q59" s="28">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F60" s="18" t="s">
         <v>10</v>
       </c>
@@ -2977,17 +3357,17 @@
         <v>0</v>
       </c>
       <c r="Q60" s="28">
-        <v>547</v>
+        <v>389</v>
       </c>
       <c r="S60" s="21" t="s">
         <v>11</v>
       </c>
       <c r="T60" s="35">
         <f>AVERAGE(P58:P107)</f>
-        <v>0.47517271562777047</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0.45876513126629304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F61" s="18" t="s">
         <v>12</v>
       </c>
@@ -3017,17 +3397,17 @@
         <v>0</v>
       </c>
       <c r="Q61" s="28">
-        <v>551</v>
+        <v>372</v>
       </c>
       <c r="S61" s="21" t="s">
         <v>13</v>
       </c>
       <c r="T61" s="33">
         <f>AVERAGE(Q58:Q107)</f>
-        <v>3161.38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2458.62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F62" s="18" t="s">
         <v>14</v>
       </c>
@@ -3050,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="Q62" s="28">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F63" s="18" t="s">
         <v>15</v>
       </c>
@@ -3071,17 +3451,17 @@
         <v>15</v>
       </c>
       <c r="O63" s="19">
-        <v>39.0518</v>
+        <v>20.395499999999998</v>
       </c>
       <c r="P63" s="20">
         <f>(O63-D9)/O63</f>
-        <v>0.67433101675211649</v>
+        <v>0.37643303669928657</v>
       </c>
       <c r="Q63" s="28">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F64" s="18" t="s">
         <v>16</v>
       </c>
@@ -3099,17 +3479,17 @@
         <v>16</v>
       </c>
       <c r="O64" s="19">
-        <v>34.681899999999999</v>
+        <v>28.420999999999999</v>
       </c>
       <c r="P64" s="20">
         <f t="shared" ref="P64:P107" si="3">(O64-D10)/O64</f>
-        <v>0.59348392100779657</v>
+        <v>0.50393195172584704</v>
       </c>
       <c r="Q64" s="28">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="65" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F65" s="18" t="s">
         <v>17</v>
       </c>
@@ -3134,10 +3514,10 @@
         <v>0.23207156438275486</v>
       </c>
       <c r="Q65" s="28">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="66" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="66" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F66" s="18" t="s">
         <v>18</v>
       </c>
@@ -3162,10 +3542,10 @@
         <v>0.4351179622269396</v>
       </c>
       <c r="Q66" s="28">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="67" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="67" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F67" s="18" t="s">
         <v>19</v>
       </c>
@@ -3190,10 +3570,10 @@
         <v>0.1292855084450836</v>
       </c>
       <c r="Q67" s="28">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="68" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="68" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F68" s="18" t="s">
         <v>20</v>
       </c>
@@ -3218,10 +3598,10 @@
         <v>0.86559998883546829</v>
       </c>
       <c r="Q68" s="28">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="69" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="69" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F69" s="18" t="s">
         <v>21</v>
       </c>
@@ -3246,10 +3626,10 @@
         <v>0.78841227405130387</v>
       </c>
       <c r="Q69" s="28">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="70" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="70" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F70" s="18" t="s">
         <v>22</v>
       </c>
@@ -3274,10 +3654,10 @@
         <v>0.86827169718734087</v>
       </c>
       <c r="Q70" s="28">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="71" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="71" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F71" s="18" t="s">
         <v>23</v>
       </c>
@@ -3302,10 +3682,10 @@
         <v>0.89873787649090087</v>
       </c>
       <c r="Q71" s="28">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="72" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="72" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F72" s="18" t="s">
         <v>24</v>
       </c>
@@ -3330,10 +3710,10 @@
         <v>0.74873138468855205</v>
       </c>
       <c r="Q72" s="28">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="73" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="73" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F73" s="18" t="s">
         <v>25</v>
       </c>
@@ -3358,10 +3738,10 @@
         <v>0.53903810671001284</v>
       </c>
       <c r="Q73" s="28">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="74" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="74" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F74" s="18" t="s">
         <v>26</v>
       </c>
@@ -3386,10 +3766,10 @@
         <v>0.21165565453366236</v>
       </c>
       <c r="Q74" s="28">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="75" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="75" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F75" s="18" t="s">
         <v>27</v>
       </c>
@@ -3414,10 +3794,10 @@
         <v>0.63314176277750667</v>
       </c>
       <c r="Q75" s="28">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="76" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="76" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F76" s="18" t="s">
         <v>28</v>
       </c>
@@ -3442,10 +3822,10 @@
         <v>0.46482021514453009</v>
       </c>
       <c r="Q76" s="28">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="77" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="77" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F77" s="18" t="s">
         <v>29</v>
       </c>
@@ -3463,17 +3843,17 @@
         <v>29</v>
       </c>
       <c r="O77" s="19">
-        <v>147.76900000000001</v>
+        <v>128.39500000000001</v>
       </c>
       <c r="P77" s="20">
         <f t="shared" si="3"/>
-        <v>0.67709661701710377</v>
+        <v>0.62837252229448504</v>
       </c>
       <c r="Q77" s="28">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="78" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="78" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F78" s="18" t="s">
         <v>30</v>
       </c>
@@ -3491,17 +3871,17 @@
         <v>30</v>
       </c>
       <c r="O78" s="19">
-        <v>58.651600000000002</v>
+        <v>52.286099999999998</v>
       </c>
       <c r="P78" s="20">
         <f t="shared" si="3"/>
-        <v>0.76416636545294758</v>
+        <v>0.73545512095949206</v>
       </c>
       <c r="Q78" s="28">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="79" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="79" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F79" s="18" t="s">
         <v>31</v>
       </c>
@@ -3519,17 +3899,17 @@
         <v>31</v>
       </c>
       <c r="O79" s="19">
-        <v>65.988600000000005</v>
+        <v>53.9619</v>
       </c>
       <c r="P79" s="20">
         <f t="shared" si="3"/>
-        <v>0.79292877860720945</v>
+        <v>0.74677800448093379</v>
       </c>
       <c r="Q79" s="28">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="80" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="80" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F80" s="18" t="s">
         <v>32</v>
       </c>
@@ -3547,17 +3927,17 @@
         <v>32</v>
       </c>
       <c r="O80" s="19">
-        <v>45.916899999999998</v>
+        <v>45.428199999999997</v>
       </c>
       <c r="P80" s="20">
         <f t="shared" si="3"/>
-        <v>0.66580104493117354</v>
+        <v>0.66220585451328029</v>
       </c>
       <c r="Q80" s="28">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="81" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="81" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F81" s="18" t="s">
         <v>33</v>
       </c>
@@ -3575,17 +3955,17 @@
         <v>33</v>
       </c>
       <c r="O81" s="19">
-        <v>36.488300000000002</v>
+        <v>55.225499999999997</v>
       </c>
       <c r="P81" s="20">
         <f t="shared" si="3"/>
-        <v>0.76319422938313408</v>
+        <v>0.84353894487149239</v>
       </c>
       <c r="Q81" s="28">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="82" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="82" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F82" s="18" t="s">
         <v>34</v>
       </c>
@@ -3603,17 +3983,17 @@
         <v>34</v>
       </c>
       <c r="O82" s="19">
-        <v>65.128699999999995</v>
+        <v>58.455599999999997</v>
       </c>
       <c r="P82" s="20">
         <f t="shared" si="3"/>
-        <v>0.7358996878488302</v>
+        <v>0.70575086048214541</v>
       </c>
       <c r="Q82" s="28">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="83" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="83" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F83" s="18" t="s">
         <v>35</v>
       </c>
@@ -3631,17 +4011,17 @@
         <v>35</v>
       </c>
       <c r="O83" s="19">
-        <v>230.17</v>
+        <v>222.05799999999999</v>
       </c>
       <c r="P83" s="20">
         <f t="shared" si="3"/>
-        <v>0.26693491766954425</v>
+        <v>0.24015531978131388</v>
       </c>
       <c r="Q83" s="28">
-        <v>4449</v>
-      </c>
-    </row>
-    <row r="84" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="84" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F84" s="18" t="s">
         <v>36</v>
       </c>
@@ -3659,17 +4039,17 @@
         <v>36</v>
       </c>
       <c r="O84" s="19">
-        <v>182.304</v>
+        <v>148.48599999999999</v>
       </c>
       <c r="P84" s="20">
         <f t="shared" si="3"/>
-        <v>0.3028279138142882</v>
+        <v>0.14404549923898541</v>
       </c>
       <c r="Q84" s="28">
-        <v>4260</v>
-      </c>
-    </row>
-    <row r="85" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="85" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F85" s="18" t="s">
         <v>37</v>
       </c>
@@ -3687,17 +4067,17 @@
         <v>37</v>
       </c>
       <c r="O85" s="19">
-        <v>161.85900000000001</v>
+        <v>170.53299999999999</v>
       </c>
       <c r="P85" s="20">
         <f t="shared" si="3"/>
-        <v>0.342766296591484</v>
+        <v>0.37619586824838003</v>
       </c>
       <c r="Q85" s="28">
-        <v>4314</v>
-      </c>
-    </row>
-    <row r="86" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="86" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F86" s="18" t="s">
         <v>38</v>
       </c>
@@ -3715,17 +4095,17 @@
         <v>38</v>
       </c>
       <c r="O86" s="19">
-        <v>265.26</v>
+        <v>229.99100000000001</v>
       </c>
       <c r="P86" s="20">
         <f t="shared" si="3"/>
-        <v>0.481817235919479</v>
+        <v>0.40235417907657695</v>
       </c>
       <c r="Q86" s="28">
-        <v>4002</v>
-      </c>
-    </row>
-    <row r="87" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="87" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F87" s="18" t="s">
         <v>39</v>
       </c>
@@ -3743,17 +4123,17 @@
         <v>39</v>
       </c>
       <c r="O87" s="19">
-        <v>214.959</v>
+        <v>181.71899999999999</v>
       </c>
       <c r="P87" s="20">
         <f t="shared" si="3"/>
-        <v>0.40695788499201707</v>
+        <v>0.2984787501582058</v>
       </c>
       <c r="Q87" s="28">
-        <v>4132</v>
-      </c>
-    </row>
-    <row r="88" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="88" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F88" s="18" t="s">
         <v>40</v>
       </c>
@@ -3771,17 +4151,17 @@
         <v>40</v>
       </c>
       <c r="O88" s="19">
-        <v>33.450400000000002</v>
+        <v>40.630200000000002</v>
       </c>
       <c r="P88" s="20">
         <f t="shared" si="3"/>
-        <v>0.64887893717265266</v>
+        <v>0.71092586302799643</v>
       </c>
       <c r="Q88" s="28">
-        <v>2480</v>
-      </c>
-    </row>
-    <row r="89" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="89" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F89" s="18" t="s">
         <v>41</v>
       </c>
@@ -3799,17 +4179,17 @@
         <v>41</v>
       </c>
       <c r="O89" s="19">
-        <v>71.466399999999993</v>
+        <v>55.415999999999997</v>
       </c>
       <c r="P89" s="20">
         <f t="shared" si="3"/>
-        <v>0.73709421490379123</v>
+        <v>0.66094756027140722</v>
       </c>
       <c r="Q89" s="28">
-        <v>2439</v>
-      </c>
-    </row>
-    <row r="90" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="90" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F90" s="18" t="s">
         <v>42</v>
       </c>
@@ -3827,17 +4207,17 @@
         <v>42</v>
       </c>
       <c r="O90" s="19">
-        <v>50.241399999999999</v>
+        <v>75.311199999999999</v>
       </c>
       <c r="P90" s="20">
         <f t="shared" si="3"/>
-        <v>0.63114881352828944</v>
+        <v>0.75393301394746337</v>
       </c>
       <c r="Q90" s="28">
-        <v>2467</v>
-      </c>
-    </row>
-    <row r="91" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="91" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F91" s="18" t="s">
         <v>43</v>
       </c>
@@ -3855,17 +4235,17 @@
         <v>43</v>
       </c>
       <c r="O91" s="19">
-        <v>86.435199999999995</v>
+        <v>71.595600000000005</v>
       </c>
       <c r="P91" s="20">
         <f t="shared" si="3"/>
-        <v>0.77453248213690595</v>
+        <v>0.72779989273083678</v>
       </c>
       <c r="Q91" s="28">
-        <v>2392</v>
-      </c>
-    </row>
-    <row r="92" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="92" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F92" s="18" t="s">
         <v>44</v>
       </c>
@@ -3883,17 +4263,17 @@
         <v>44</v>
       </c>
       <c r="O92" s="19">
-        <v>63.2714</v>
+        <v>50.561300000000003</v>
       </c>
       <c r="P92" s="20">
         <f t="shared" si="3"/>
-        <v>0.71373448351072044</v>
+        <v>0.64177305567697429</v>
       </c>
       <c r="Q92" s="28">
-        <v>2457</v>
-      </c>
-    </row>
-    <row r="93" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="93" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F93" s="18" t="s">
         <v>45</v>
       </c>
@@ -3911,17 +4291,17 @@
         <v>45</v>
       </c>
       <c r="O93" s="19">
-        <v>261.52300000000002</v>
+        <v>228.489</v>
       </c>
       <c r="P93" s="20">
         <f t="shared" si="3"/>
-        <v>0.40565544904271522</v>
+        <v>0.31972755800059521</v>
       </c>
       <c r="Q93" s="28">
-        <v>6548</v>
-      </c>
-    </row>
-    <row r="94" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5329</v>
+      </c>
+    </row>
+    <row r="94" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F94" s="18" t="s">
         <v>46</v>
       </c>
@@ -3939,17 +4319,17 @@
         <v>46</v>
       </c>
       <c r="O94" s="19">
-        <v>302.33300000000003</v>
+        <v>284.02300000000002</v>
       </c>
       <c r="P94" s="20">
         <f t="shared" si="3"/>
-        <v>0.34213393840566864</v>
+        <v>0.29972354351584557</v>
       </c>
       <c r="Q94" s="28">
-        <v>6403</v>
-      </c>
-    </row>
-    <row r="95" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4963</v>
+      </c>
+    </row>
+    <row r="95" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F95" s="18" t="s">
         <v>47</v>
       </c>
@@ -3967,17 +4347,17 @@
         <v>47</v>
       </c>
       <c r="O95" s="19">
-        <v>221.864</v>
+        <v>274.7</v>
       </c>
       <c r="P95" s="20">
         <f t="shared" si="3"/>
-        <v>0.15278265063282015</v>
+        <v>0.31573705860939205</v>
       </c>
       <c r="Q95" s="28">
-        <v>6700</v>
-      </c>
-    </row>
-    <row r="96" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4973</v>
+      </c>
+    </row>
+    <row r="96" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F96" s="18" t="s">
         <v>48</v>
       </c>
@@ -3995,17 +4375,17 @@
         <v>48</v>
       </c>
       <c r="O96" s="19">
-        <v>223.37799999999999</v>
+        <v>249.42099999999999</v>
       </c>
       <c r="P96" s="20">
         <f t="shared" si="3"/>
-        <v>0.24526945357196764</v>
+        <v>0.32407375481615014</v>
       </c>
       <c r="Q96" s="28">
-        <v>6932</v>
-      </c>
-    </row>
-    <row r="97" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="97" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F97" s="18" t="s">
         <v>49</v>
       </c>
@@ -4023,17 +4403,17 @@
         <v>49</v>
       </c>
       <c r="O97" s="19">
-        <v>354.85</v>
+        <v>333.23099999999999</v>
       </c>
       <c r="P97" s="20">
         <f t="shared" si="3"/>
-        <v>0.49783361983936031</v>
+        <v>0.46525461316623301</v>
       </c>
       <c r="Q97" s="28">
-        <v>6875</v>
-      </c>
-    </row>
-    <row r="98" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5491</v>
+      </c>
+    </row>
+    <row r="98" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F98" s="18" t="s">
         <v>50</v>
       </c>
@@ -4051,17 +4431,17 @@
         <v>50</v>
       </c>
       <c r="O98" s="19">
-        <v>86.621600000000001</v>
+        <v>63.505099999999999</v>
       </c>
       <c r="P98" s="20">
         <f t="shared" si="3"/>
-        <v>0.73048200448848444</v>
+        <v>0.63237472266006511</v>
       </c>
       <c r="Q98" s="28">
-        <v>3573</v>
-      </c>
-    </row>
-    <row r="99" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="99" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F99" s="18" t="s">
         <v>51</v>
       </c>
@@ -4079,17 +4459,17 @@
         <v>51</v>
       </c>
       <c r="O99" s="19">
-        <v>79.7102</v>
+        <v>79.350800000000007</v>
       </c>
       <c r="P99" s="20">
         <f t="shared" si="3"/>
-        <v>0.66391377765957682</v>
+        <v>0.66239155748902856</v>
       </c>
       <c r="Q99" s="28">
-        <v>3499</v>
-      </c>
-    </row>
-    <row r="100" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="100" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F100" s="18" t="s">
         <v>52</v>
       </c>
@@ -4107,17 +4487,17 @@
         <v>52</v>
       </c>
       <c r="O100" s="19">
-        <v>65.957499999999996</v>
+        <v>74.189599999999999</v>
       </c>
       <c r="P100" s="20">
         <f t="shared" si="3"/>
-        <v>0.59436804002578025</v>
+        <v>0.6393770825021351</v>
       </c>
       <c r="Q100" s="28">
-        <v>3519</v>
-      </c>
-    </row>
-    <row r="101" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="101" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F101" s="18" t="s">
         <v>53</v>
       </c>
@@ -4135,17 +4515,17 @@
         <v>53</v>
       </c>
       <c r="O101" s="19">
-        <v>62.370199999999997</v>
+        <v>87.334199999999996</v>
       </c>
       <c r="P101" s="20">
         <f t="shared" si="3"/>
-        <v>0.58416695793823803</v>
+        <v>0.70303054244499286</v>
       </c>
       <c r="Q101" s="28">
-        <v>4072</v>
-      </c>
-    </row>
-    <row r="102" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="102" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F102" s="18" t="s">
         <v>54</v>
       </c>
@@ -4163,17 +4543,17 @@
         <v>54</v>
       </c>
       <c r="O102" s="19">
-        <v>70.416600000000003</v>
+        <v>59.897799999999997</v>
       </c>
       <c r="P102" s="20">
         <f t="shared" si="3"/>
-        <v>0.60559001712665195</v>
+        <v>0.53632670982908559</v>
       </c>
       <c r="Q102" s="28">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="103" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="103" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F103" s="18" t="s">
         <v>55</v>
       </c>
@@ -4191,17 +4571,17 @@
         <v>55</v>
       </c>
       <c r="O103" s="19">
-        <v>272.452</v>
+        <v>307.06900000000002</v>
       </c>
       <c r="P103" s="20">
         <f t="shared" si="3"/>
-        <v>0.16407547017457022</v>
+        <v>0.2583122685780786</v>
       </c>
       <c r="Q103" s="28">
-        <v>9628</v>
-      </c>
-    </row>
-    <row r="104" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7509</v>
+      </c>
+    </row>
+    <row r="104" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F104" s="18" t="s">
         <v>56</v>
       </c>
@@ -4226,10 +4606,10 @@
         <v>0.22267971478215925</v>
       </c>
       <c r="Q104" s="28">
-        <v>10088</v>
-      </c>
-    </row>
-    <row r="105" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7939</v>
+      </c>
+    </row>
+    <row r="105" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F105" s="18" t="s">
         <v>57</v>
       </c>
@@ -4254,10 +4634,10 @@
         <v>0.28914830849873496</v>
       </c>
       <c r="Q105" s="28">
-        <v>10318</v>
-      </c>
-    </row>
-    <row r="106" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>8024</v>
+      </c>
+    </row>
+    <row r="106" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F106" s="18" t="s">
         <v>58</v>
       </c>
@@ -4282,10 +4662,10 @@
         <v>0.12183069583429135</v>
       </c>
       <c r="Q106" s="28">
-        <v>10646</v>
-      </c>
-    </row>
-    <row r="107" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="107" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F107" s="18" t="s">
         <v>59</v>
       </c>
@@ -4303,18 +4683,18 @@
         <v>59</v>
       </c>
       <c r="O107" s="19">
-        <v>382.99</v>
+        <v>301.392</v>
       </c>
       <c r="P107" s="20">
         <f t="shared" si="3"/>
-        <v>0.35022684665396486</v>
+        <v>0.17430913892871075</v>
       </c>
       <c r="Q107" s="28">
-        <v>9218</v>
-      </c>
-    </row>
-    <row r="109" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="110" spans="6:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7233</v>
+      </c>
+    </row>
+    <row r="109" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="6:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F110" s="38" t="s">
         <v>64</v>
       </c>
@@ -4334,7 +4714,7 @@
       <c r="X110" s="38"/>
       <c r="Y110" s="38"/>
     </row>
-    <row r="111" spans="6:25" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="6:25" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F111" s="13" t="s">
         <v>1</v>
       </c>
@@ -4372,7 +4752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F112" s="18" t="s">
         <v>8</v>
       </c>
@@ -4382,7 +4762,9 @@
       <c r="H112" s="20">
         <v>0</v>
       </c>
-      <c r="I112" s="28"/>
+      <c r="I112" s="28">
+        <v>539</v>
+      </c>
       <c r="N112" s="18" t="s">
         <v>8</v>
       </c>
@@ -4392,7 +4774,9 @@
       <c r="P112" s="20">
         <v>0</v>
       </c>
-      <c r="Q112" s="28"/>
+      <c r="Q112" s="28">
+        <v>278</v>
+      </c>
       <c r="V112" s="18" t="s">
         <v>8</v>
       </c>
@@ -4402,9 +4786,11 @@
       <c r="X112" s="20">
         <v>0</v>
       </c>
-      <c r="Y112" s="28"/>
-    </row>
-    <row r="113" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y112" s="28">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="113" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F113" s="18" t="s">
         <v>9</v>
       </c>
@@ -4414,7 +4800,9 @@
       <c r="H113" s="20">
         <v>0</v>
       </c>
-      <c r="I113" s="28"/>
+      <c r="I113" s="28">
+        <v>544</v>
+      </c>
       <c r="N113" s="18" t="s">
         <v>9</v>
       </c>
@@ -4424,7 +4812,9 @@
       <c r="P113" s="20">
         <v>0</v>
       </c>
-      <c r="Q113" s="28"/>
+      <c r="Q113" s="28">
+        <v>258</v>
+      </c>
       <c r="V113" s="18" t="s">
         <v>9</v>
       </c>
@@ -4434,9 +4824,11 @@
       <c r="X113" s="20">
         <v>0</v>
       </c>
-      <c r="Y113" s="28"/>
-    </row>
-    <row r="114" spans="6:28" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y113" s="28">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="114" spans="6:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F114" s="18" t="s">
         <v>10</v>
       </c>
@@ -4446,13 +4838,15 @@
       <c r="H114" s="20">
         <v>0</v>
       </c>
-      <c r="I114" s="28"/>
+      <c r="I114" s="28">
+        <v>533</v>
+      </c>
       <c r="K114" s="21" t="s">
         <v>11</v>
       </c>
       <c r="L114" s="35">
         <f>AVERAGE(H112:H161)</f>
-        <v>0</v>
+        <v>0.43672868103968054</v>
       </c>
       <c r="N114" s="18" t="s">
         <v>10</v>
@@ -4463,13 +4857,15 @@
       <c r="P114" s="20">
         <v>0</v>
       </c>
-      <c r="Q114" s="28"/>
+      <c r="Q114" s="28">
+        <v>263</v>
+      </c>
       <c r="S114" s="21" t="s">
         <v>11</v>
       </c>
       <c r="T114" s="35">
         <f>AVERAGE(P112:P161)</f>
-        <v>0</v>
+        <v>0.49147620079269183</v>
       </c>
       <c r="V114" s="18" t="s">
         <v>10</v>
@@ -4480,16 +4876,18 @@
       <c r="X114" s="20">
         <v>0</v>
       </c>
-      <c r="Y114" s="28"/>
+      <c r="Y114" s="28">
+        <v>249</v>
+      </c>
       <c r="AA114" s="21" t="s">
         <v>11</v>
       </c>
       <c r="AB114" s="35">
         <f>AVERAGE(X112:X161)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="6:28" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0.51018109348403495</v>
+      </c>
+    </row>
+    <row r="115" spans="6:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F115" s="18" t="s">
         <v>12</v>
       </c>
@@ -4499,13 +4897,15 @@
       <c r="H115" s="20">
         <v>0</v>
       </c>
-      <c r="I115" s="28"/>
+      <c r="I115" s="28">
+        <v>517</v>
+      </c>
       <c r="K115" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L115" s="33" t="e">
+      <c r="L115" s="33">
         <f>AVERAGE(I112:I161)</f>
-        <v>#DIV/0!</v>
+        <v>2982.7</v>
       </c>
       <c r="N115" s="18" t="s">
         <v>12</v>
@@ -4516,13 +4916,15 @@
       <c r="P115" s="20">
         <v>0</v>
       </c>
-      <c r="Q115" s="28"/>
+      <c r="Q115" s="28">
+        <v>258</v>
+      </c>
       <c r="S115" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="T115" s="33" t="e">
+      <c r="T115" s="33">
         <f>AVERAGE(Q112:Q161)</f>
-        <v>#DIV/0!</v>
+        <v>2211.1</v>
       </c>
       <c r="V115" s="18" t="s">
         <v>12</v>
@@ -4533,16 +4935,18 @@
       <c r="X115" s="20">
         <v>0</v>
       </c>
-      <c r="Y115" s="28"/>
+      <c r="Y115" s="28">
+        <v>245</v>
+      </c>
       <c r="AA115" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AB115" s="33" t="e">
+      <c r="AB115" s="33">
         <f>AVERAGE(Y112:Y161)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="116" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2178.42</v>
+      </c>
+    </row>
+    <row r="116" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F116" s="18" t="s">
         <v>14</v>
       </c>
@@ -4552,7 +4956,9 @@
       <c r="H116" s="20">
         <v>0</v>
       </c>
-      <c r="I116" s="28"/>
+      <c r="I116" s="28">
+        <v>522</v>
+      </c>
       <c r="N116" s="18" t="s">
         <v>14</v>
       </c>
@@ -4562,7 +4968,9 @@
       <c r="P116" s="20">
         <v>0</v>
       </c>
-      <c r="Q116" s="28"/>
+      <c r="Q116" s="28">
+        <v>257</v>
+      </c>
       <c r="V116" s="18" t="s">
         <v>14</v>
       </c>
@@ -4572,907 +4980,1854 @@
       <c r="X116" s="20">
         <v>0</v>
       </c>
-      <c r="Y116" s="28"/>
-    </row>
-    <row r="117" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y116" s="28">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="117" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F117" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G117" s="19"/>
-      <c r="H117" s="20"/>
-      <c r="I117" s="28"/>
+      <c r="G117" s="19">
+        <v>32.776200000000003</v>
+      </c>
+      <c r="H117" s="20">
+        <f>(G117-D9)/G117</f>
+        <v>0.61197576290113864</v>
+      </c>
+      <c r="I117" s="28">
+        <v>779</v>
+      </c>
       <c r="N117" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O117" s="19"/>
-      <c r="P117" s="20"/>
-      <c r="Q117" s="28"/>
+      <c r="O117" s="19">
+        <v>38.630499999999998</v>
+      </c>
+      <c r="P117" s="20">
+        <f>(O117-D9)/O117</f>
+        <v>0.67077930650652462</v>
+      </c>
+      <c r="Q117" s="28">
+        <v>439</v>
+      </c>
       <c r="V117" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="W117" s="19"/>
-      <c r="X117" s="20"/>
-      <c r="Y117" s="28"/>
-    </row>
-    <row r="118" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W117" s="19">
+        <v>35.618200000000002</v>
+      </c>
+      <c r="X117" s="20">
+        <f>(W117-D9)/W117</f>
+        <v>0.64293647629583472</v>
+      </c>
+      <c r="Y117" s="28">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="118" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F118" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G118" s="19"/>
-      <c r="H118" s="20"/>
-      <c r="I118" s="28"/>
+      <c r="G118" s="19">
+        <v>19.609000000000002</v>
+      </c>
+      <c r="H118" s="20">
+        <f t="shared" ref="H118:H161" si="4">(G118-D10)/G118</f>
+        <v>0.28100617063594779</v>
+      </c>
+      <c r="I118" s="28">
+        <v>841</v>
+      </c>
       <c r="N118" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O118" s="19"/>
-      <c r="P118" s="20"/>
-      <c r="Q118" s="28"/>
+      <c r="O118" s="19">
+        <v>33.3063</v>
+      </c>
+      <c r="P118" s="20">
+        <f t="shared" ref="P118:P161" si="5">(O118-D10)/O118</f>
+        <v>0.5766941989953942</v>
+      </c>
+      <c r="Q118" s="28">
+        <v>434</v>
+      </c>
       <c r="V118" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="W118" s="19"/>
-      <c r="X118" s="20"/>
-      <c r="Y118" s="28"/>
-    </row>
-    <row r="119" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W118" s="19">
+        <v>30.3901</v>
+      </c>
+      <c r="X118" s="20">
+        <f t="shared" ref="X118:X161" si="6">(W118-D10)/W118</f>
+        <v>0.53607424786362334</v>
+      </c>
+      <c r="Y118" s="28">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="119" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F119" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G119" s="19"/>
-      <c r="H119" s="20"/>
-      <c r="I119" s="28"/>
+      <c r="G119" s="19">
+        <v>20.9588</v>
+      </c>
+      <c r="H119" s="20">
+        <f t="shared" si="4"/>
+        <v>0.20027911903354198</v>
+      </c>
+      <c r="I119" s="28">
+        <v>847</v>
+      </c>
       <c r="N119" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="O119" s="19"/>
-      <c r="P119" s="20"/>
-      <c r="Q119" s="28"/>
+      <c r="O119" s="19">
+        <v>24.4453</v>
+      </c>
+      <c r="P119" s="20">
+        <f t="shared" si="5"/>
+        <v>0.31433895268211881</v>
+      </c>
+      <c r="Q119" s="28">
+        <v>415</v>
+      </c>
       <c r="V119" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="W119" s="19"/>
-      <c r="X119" s="20"/>
-      <c r="Y119" s="28"/>
-    </row>
-    <row r="120" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W119" s="19">
+        <v>16.761199999999999</v>
+      </c>
+      <c r="X119" s="20">
+        <f t="shared" si="6"/>
+        <v>5.966160059287754E-7</v>
+      </c>
+      <c r="Y119" s="28">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="120" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F120" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G120" s="19"/>
-      <c r="H120" s="20"/>
-      <c r="I120" s="28"/>
+      <c r="G120" s="19">
+        <v>28.660399999999999</v>
+      </c>
+      <c r="H120" s="20">
+        <f t="shared" si="4"/>
+        <v>0.40443224797979443</v>
+      </c>
+      <c r="I120" s="28">
+        <v>792</v>
+      </c>
       <c r="N120" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="O120" s="19"/>
-      <c r="P120" s="20"/>
-      <c r="Q120" s="28"/>
+      <c r="O120" s="19">
+        <v>45.934800000000003</v>
+      </c>
+      <c r="P120" s="20">
+        <f t="shared" si="5"/>
+        <v>0.62840351977150444</v>
+      </c>
+      <c r="Q120" s="28">
+        <v>442</v>
+      </c>
       <c r="V120" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="W120" s="19"/>
-      <c r="X120" s="20"/>
-      <c r="Y120" s="28"/>
-    </row>
-    <row r="121" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W120" s="19">
+        <v>28.500299999999999</v>
+      </c>
+      <c r="X120" s="20">
+        <f t="shared" si="6"/>
+        <v>0.40108665522819414</v>
+      </c>
+      <c r="Y120" s="28">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="121" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F121" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G121" s="19"/>
-      <c r="H121" s="20"/>
-      <c r="I121" s="28"/>
+      <c r="G121" s="19">
+        <v>30.701899999999998</v>
+      </c>
+      <c r="H121" s="20">
+        <f t="shared" si="4"/>
+        <v>0.24222181689081454</v>
+      </c>
+      <c r="I121" s="28">
+        <v>838</v>
+      </c>
       <c r="N121" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="O121" s="19"/>
-      <c r="P121" s="20"/>
-      <c r="Q121" s="28"/>
+      <c r="O121" s="19">
+        <v>28.251000000000001</v>
+      </c>
+      <c r="P121" s="20">
+        <f t="shared" si="5"/>
+        <v>0.17648118650667594</v>
+      </c>
+      <c r="Q121" s="28">
+        <v>502</v>
+      </c>
       <c r="V121" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="W121" s="19"/>
-      <c r="X121" s="20"/>
-      <c r="Y121" s="28"/>
-    </row>
-    <row r="122" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W121" s="19">
+        <v>51.424599999999998</v>
+      </c>
+      <c r="X121" s="20">
+        <f t="shared" si="6"/>
+        <v>0.54758559133177698</v>
+      </c>
+      <c r="Y121" s="28">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="122" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F122" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G122" s="19"/>
-      <c r="H122" s="20"/>
-      <c r="I122" s="28"/>
+      <c r="G122" s="19">
+        <v>8.7697800000000008</v>
+      </c>
+      <c r="H122" s="20">
+        <f t="shared" si="4"/>
+        <v>0.78037077326911064</v>
+      </c>
+      <c r="I122" s="28">
+        <v>1273</v>
+      </c>
       <c r="N122" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O122" s="19"/>
-      <c r="P122" s="20"/>
-      <c r="Q122" s="28"/>
+      <c r="O122" s="19">
+        <v>10.126200000000001</v>
+      </c>
+      <c r="P122" s="20">
+        <f t="shared" si="5"/>
+        <v>0.80979044458928129</v>
+      </c>
+      <c r="Q122" s="28">
+        <v>756</v>
+      </c>
       <c r="V122" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="W122" s="19"/>
-      <c r="X122" s="20"/>
-      <c r="Y122" s="28"/>
-    </row>
-    <row r="123" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W122" s="19">
+        <v>18.4376</v>
+      </c>
+      <c r="X122" s="20">
+        <f t="shared" si="6"/>
+        <v>0.8955341259166042</v>
+      </c>
+      <c r="Y122" s="28">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="123" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F123" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G123" s="19"/>
-      <c r="H123" s="20"/>
-      <c r="I123" s="28"/>
+      <c r="G123" s="19">
+        <v>8.7662399999999998</v>
+      </c>
+      <c r="H123" s="20">
+        <f t="shared" si="4"/>
+        <v>0.7580444979831592</v>
+      </c>
+      <c r="I123" s="28">
+        <v>1256</v>
+      </c>
       <c r="N123" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O123" s="19"/>
-      <c r="P123" s="20"/>
-      <c r="Q123" s="28"/>
+      <c r="O123" s="19">
+        <v>17.197099999999999</v>
+      </c>
+      <c r="P123" s="20">
+        <f t="shared" si="5"/>
+        <v>0.8766629257258427</v>
+      </c>
+      <c r="Q123" s="28">
+        <v>789</v>
+      </c>
       <c r="V123" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="W123" s="19"/>
-      <c r="X123" s="20"/>
-      <c r="Y123" s="28"/>
-    </row>
-    <row r="124" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W123" s="19">
+        <v>21.290700000000001</v>
+      </c>
+      <c r="X123" s="20">
+        <f t="shared" si="6"/>
+        <v>0.9003771599806436</v>
+      </c>
+      <c r="Y123" s="28">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="124" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F124" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G124" s="19"/>
-      <c r="H124" s="20"/>
-      <c r="I124" s="28"/>
+      <c r="G124" s="19">
+        <v>9.3673999999999999</v>
+      </c>
+      <c r="H124" s="20">
+        <f t="shared" si="4"/>
+        <v>0.74781582936567459</v>
+      </c>
+      <c r="I124" s="28">
+        <v>1330</v>
+      </c>
       <c r="N124" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O124" s="19"/>
-      <c r="P124" s="20"/>
-      <c r="Q124" s="28"/>
+      <c r="O124" s="19">
+        <v>16.003299999999999</v>
+      </c>
+      <c r="P124" s="20">
+        <f t="shared" si="5"/>
+        <v>0.85238607037298686</v>
+      </c>
+      <c r="Q124" s="28">
+        <v>1064</v>
+      </c>
       <c r="V124" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="W124" s="19"/>
-      <c r="X124" s="20"/>
-      <c r="Y124" s="28"/>
-    </row>
-    <row r="125" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W124" s="19">
+        <v>18.2319</v>
+      </c>
+      <c r="X124" s="20">
+        <f t="shared" si="6"/>
+        <v>0.87042985097548919</v>
+      </c>
+      <c r="Y124" s="28">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="125" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F125" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G125" s="19"/>
-      <c r="H125" s="20"/>
-      <c r="I125" s="28"/>
+      <c r="G125" s="19">
+        <v>7.1442600000000001</v>
+      </c>
+      <c r="H125" s="20">
+        <f t="shared" si="4"/>
+        <v>0.76719772236734096</v>
+      </c>
+      <c r="I125" s="28">
+        <v>1297</v>
+      </c>
       <c r="N125" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="O125" s="19"/>
-      <c r="P125" s="20"/>
-      <c r="Q125" s="28"/>
+      <c r="O125" s="19">
+        <v>19.036200000000001</v>
+      </c>
+      <c r="P125" s="20">
+        <f t="shared" si="5"/>
+        <v>0.91262962145806936</v>
+      </c>
+      <c r="Q125" s="28">
+        <v>918</v>
+      </c>
       <c r="V125" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="W125" s="19"/>
-      <c r="X125" s="20"/>
-      <c r="Y125" s="28"/>
-    </row>
-    <row r="126" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W125" s="19">
+        <v>10.8287</v>
+      </c>
+      <c r="X125" s="20">
+        <f t="shared" si="6"/>
+        <v>0.84640815610369657</v>
+      </c>
+      <c r="Y125" s="28">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="126" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F126" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G126" s="19"/>
-      <c r="H126" s="20"/>
-      <c r="I126" s="28"/>
+      <c r="G126" s="19">
+        <v>7.7909499999999996</v>
+      </c>
+      <c r="H126" s="20">
+        <f t="shared" si="4"/>
+        <v>0.63378920414070683</v>
+      </c>
+      <c r="I126" s="28">
+        <v>1255</v>
+      </c>
       <c r="N126" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O126" s="19"/>
-      <c r="P126" s="20"/>
-      <c r="Q126" s="28"/>
+      <c r="O126" s="19">
+        <v>4.7253400000000001</v>
+      </c>
+      <c r="P126" s="20">
+        <f t="shared" si="5"/>
+        <v>0.39620641054401162</v>
+      </c>
+      <c r="Q126" s="28">
+        <v>755</v>
+      </c>
       <c r="V126" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="W126" s="19"/>
-      <c r="X126" s="20"/>
-      <c r="Y126" s="28"/>
-    </row>
-    <row r="127" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W126" s="19">
+        <v>7.8720699999999999</v>
+      </c>
+      <c r="X126" s="20">
+        <f t="shared" si="6"/>
+        <v>0.63756292817518645</v>
+      </c>
+      <c r="Y126" s="28">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="127" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F127" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G127" s="19"/>
-      <c r="H127" s="20"/>
-      <c r="I127" s="28"/>
+      <c r="G127" s="19">
+        <v>66.171300000000002</v>
+      </c>
+      <c r="H127" s="20">
+        <f t="shared" si="4"/>
+        <v>0.35401329579441387</v>
+      </c>
+      <c r="I127" s="28">
+        <v>1753</v>
+      </c>
       <c r="N127" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="O127" s="19"/>
-      <c r="P127" s="20"/>
-      <c r="Q127" s="28"/>
+      <c r="O127" s="19">
+        <v>119.111</v>
+      </c>
+      <c r="P127" s="20">
+        <f t="shared" si="5"/>
+        <v>0.64112651224488837</v>
+      </c>
+      <c r="Q127" s="28">
+        <v>1329</v>
+      </c>
       <c r="V127" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="W127" s="19"/>
-      <c r="X127" s="20"/>
-      <c r="Y127" s="28"/>
-    </row>
-    <row r="128" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W127" s="19">
+        <v>102.974</v>
+      </c>
+      <c r="X127" s="20">
+        <f t="shared" si="6"/>
+        <v>0.58488764154059181</v>
+      </c>
+      <c r="Y127" s="28">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="128" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F128" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G128" s="19"/>
-      <c r="H128" s="20"/>
-      <c r="I128" s="28"/>
+      <c r="G128" s="19">
+        <v>87.413600000000002</v>
+      </c>
+      <c r="H128" s="20">
+        <f t="shared" si="4"/>
+        <v>0.44965531679281484</v>
+      </c>
+      <c r="I128" s="28">
+        <v>1684</v>
+      </c>
       <c r="N128" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="O128" s="19"/>
-      <c r="P128" s="20"/>
-      <c r="Q128" s="28"/>
+      <c r="O128" s="19">
+        <v>95.438699999999997</v>
+      </c>
+      <c r="P128" s="20">
+        <f t="shared" si="5"/>
+        <v>0.49593183897098764</v>
+      </c>
+      <c r="Q128" s="28">
+        <v>1411</v>
+      </c>
       <c r="V128" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="W128" s="19"/>
-      <c r="X128" s="20"/>
-      <c r="Y128" s="28"/>
-    </row>
-    <row r="129" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W128" s="19">
+        <v>125.241</v>
+      </c>
+      <c r="X128" s="20">
+        <f t="shared" si="6"/>
+        <v>0.61587970393082447</v>
+      </c>
+      <c r="Y128" s="28">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="129" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F129" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G129" s="19"/>
-      <c r="H129" s="20"/>
-      <c r="I129" s="28"/>
+      <c r="G129" s="19">
+        <v>66.612700000000004</v>
+      </c>
+      <c r="H129" s="20">
+        <f t="shared" si="4"/>
+        <v>0.35153371654354654</v>
+      </c>
+      <c r="I129" s="28">
+        <v>1735</v>
+      </c>
       <c r="N129" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="O129" s="19"/>
-      <c r="P129" s="20"/>
-      <c r="Q129" s="28"/>
+      <c r="O129" s="19">
+        <v>92.633499999999998</v>
+      </c>
+      <c r="P129" s="20">
+        <f t="shared" si="5"/>
+        <v>0.53368824453356833</v>
+      </c>
+      <c r="Q129" s="28">
+        <v>1351</v>
+      </c>
       <c r="V129" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="W129" s="19"/>
-      <c r="X129" s="20"/>
-      <c r="Y129" s="28"/>
-    </row>
-    <row r="130" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W129" s="19">
+        <v>130.21899999999999</v>
+      </c>
+      <c r="X129" s="20">
+        <f t="shared" si="6"/>
+        <v>0.66828120320383588</v>
+      </c>
+      <c r="Y129" s="28">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="130" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F130" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G130" s="19"/>
-      <c r="H130" s="20"/>
-      <c r="I130" s="28"/>
+      <c r="G130" s="19">
+        <v>76.663899999999998</v>
+      </c>
+      <c r="H130" s="20">
+        <f t="shared" si="4"/>
+        <v>0.39459837028902256</v>
+      </c>
+      <c r="I130" s="28">
+        <v>1565</v>
+      </c>
       <c r="N130" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="O130" s="19"/>
-      <c r="P130" s="20"/>
-      <c r="Q130" s="28"/>
+      <c r="O130" s="19">
+        <v>90.991699999999994</v>
+      </c>
+      <c r="P130" s="20">
+        <f t="shared" si="5"/>
+        <v>0.48992655374062244</v>
+      </c>
+      <c r="Q130" s="28">
+        <v>1307</v>
+      </c>
       <c r="V130" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="W130" s="19"/>
-      <c r="X130" s="20"/>
-      <c r="Y130" s="28"/>
-    </row>
-    <row r="131" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W130" s="19">
+        <v>144.05600000000001</v>
+      </c>
+      <c r="X130" s="20">
+        <f t="shared" si="6"/>
+        <v>0.67781661298384377</v>
+      </c>
+      <c r="Y130" s="28">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="131" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F131" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G131" s="19"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="28"/>
+      <c r="G131" s="19">
+        <v>69.912400000000005</v>
+      </c>
+      <c r="H131" s="20">
+        <f t="shared" si="4"/>
+        <v>0.31750147327227224</v>
+      </c>
+      <c r="I131" s="28">
+        <v>1652</v>
+      </c>
       <c r="N131" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="O131" s="19"/>
-      <c r="P131" s="20"/>
-      <c r="Q131" s="28"/>
+      <c r="O131" s="19">
+        <v>72.397599999999997</v>
+      </c>
+      <c r="P131" s="20">
+        <f t="shared" si="5"/>
+        <v>0.34092967170182992</v>
+      </c>
+      <c r="Q131" s="28">
+        <v>1284</v>
+      </c>
       <c r="V131" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="W131" s="19"/>
-      <c r="X131" s="20"/>
-      <c r="Y131" s="28"/>
-    </row>
-    <row r="132" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W131" s="19">
+        <v>95.678299999999993</v>
+      </c>
+      <c r="X131" s="20">
+        <f t="shared" si="6"/>
+        <v>0.50129642771663374</v>
+      </c>
+      <c r="Y131" s="28">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="132" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F132" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G132" s="19"/>
-      <c r="H132" s="20"/>
-      <c r="I132" s="28"/>
+      <c r="G132" s="19">
+        <v>35.595100000000002</v>
+      </c>
+      <c r="H132" s="20">
+        <f t="shared" si="4"/>
+        <v>0.61140662619293384</v>
+      </c>
+      <c r="I132" s="28">
+        <v>2571</v>
+      </c>
       <c r="N132" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="O132" s="19"/>
-      <c r="P132" s="20"/>
-      <c r="Q132" s="28"/>
+      <c r="O132" s="19">
+        <v>31.990500000000001</v>
+      </c>
+      <c r="P132" s="20">
+        <f t="shared" si="5"/>
+        <v>0.5676210124880855</v>
+      </c>
+      <c r="Q132" s="28">
+        <v>2050</v>
+      </c>
       <c r="V132" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="W132" s="19"/>
-      <c r="X132" s="20"/>
-      <c r="Y132" s="28"/>
-    </row>
-    <row r="133" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W132" s="19">
+        <v>56.604700000000001</v>
+      </c>
+      <c r="X132" s="20">
+        <f t="shared" si="6"/>
+        <v>0.7556383127196169</v>
+      </c>
+      <c r="Y132" s="28">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="133" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F133" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G133" s="19"/>
-      <c r="H133" s="20"/>
-      <c r="I133" s="28"/>
+      <c r="G133" s="19">
+        <v>34.469499999999996</v>
+      </c>
+      <c r="H133" s="20">
+        <f t="shared" si="4"/>
+        <v>0.60358171717024323</v>
+      </c>
+      <c r="I133" s="28">
+        <v>2570</v>
+      </c>
       <c r="N133" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="O133" s="19"/>
-      <c r="P133" s="20"/>
-      <c r="Q133" s="28"/>
+      <c r="O133" s="19">
+        <v>45.491799999999998</v>
+      </c>
+      <c r="P133" s="20">
+        <f t="shared" si="5"/>
+        <v>0.69963070267608007</v>
+      </c>
+      <c r="Q133" s="28">
+        <v>2098</v>
+      </c>
       <c r="V133" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="W133" s="19"/>
-      <c r="X133" s="20"/>
-      <c r="Y133" s="28"/>
-    </row>
-    <row r="134" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W133" s="19">
+        <v>52.668300000000002</v>
+      </c>
+      <c r="X133" s="20">
+        <f t="shared" si="6"/>
+        <v>0.74055855229805589</v>
+      </c>
+      <c r="Y133" s="28">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="134" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F134" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G134" s="19"/>
-      <c r="H134" s="20"/>
-      <c r="I134" s="28"/>
+      <c r="G134" s="19">
+        <v>30.342600000000001</v>
+      </c>
+      <c r="H134" s="20">
+        <f t="shared" si="4"/>
+        <v>0.49426285156842859</v>
+      </c>
+      <c r="I134" s="28">
+        <v>2919</v>
+      </c>
       <c r="N134" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O134" s="19"/>
-      <c r="P134" s="20"/>
-      <c r="Q134" s="28"/>
+      <c r="O134" s="19">
+        <v>32.703200000000002</v>
+      </c>
+      <c r="P134" s="20">
+        <f t="shared" si="5"/>
+        <v>0.53076824286308988</v>
+      </c>
+      <c r="Q134" s="28">
+        <v>2073</v>
+      </c>
       <c r="V134" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="W134" s="19"/>
-      <c r="X134" s="20"/>
-      <c r="Y134" s="28"/>
-    </row>
-    <row r="135" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W134" s="19">
+        <v>33.550800000000002</v>
+      </c>
+      <c r="X134" s="20">
+        <f t="shared" si="6"/>
+        <v>0.54262253061030441</v>
+      </c>
+      <c r="Y134" s="28">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="135" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F135" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G135" s="19"/>
-      <c r="H135" s="20"/>
-      <c r="I135" s="28"/>
+      <c r="G135" s="19">
+        <v>36.808999999999997</v>
+      </c>
+      <c r="H135" s="20">
+        <f t="shared" si="4"/>
+        <v>0.76525740987260205</v>
+      </c>
+      <c r="I135" s="28">
+        <v>2533</v>
+      </c>
       <c r="N135" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="O135" s="19"/>
-      <c r="P135" s="20"/>
-      <c r="Q135" s="28"/>
+      <c r="O135" s="19">
+        <v>32.851799999999997</v>
+      </c>
+      <c r="P135" s="20">
+        <f t="shared" si="5"/>
+        <v>0.73698123086103684</v>
+      </c>
+      <c r="Q135" s="28">
+        <v>2068</v>
+      </c>
       <c r="V135" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="W135" s="19"/>
-      <c r="X135" s="20"/>
-      <c r="Y135" s="28"/>
-    </row>
-    <row r="136" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W135" s="19">
+        <v>31.272600000000001</v>
+      </c>
+      <c r="X135" s="20">
+        <f t="shared" si="6"/>
+        <v>0.72369934063687091</v>
+      </c>
+      <c r="Y135" s="28">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="136" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F136" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G136" s="19"/>
-      <c r="H136" s="20"/>
-      <c r="I136" s="28"/>
+      <c r="G136" s="19">
+        <v>30.118500000000001</v>
+      </c>
+      <c r="H136" s="20">
+        <f t="shared" si="4"/>
+        <v>0.42890548998124417</v>
+      </c>
+      <c r="I136" s="28">
+        <v>2614</v>
+      </c>
       <c r="N136" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="O136" s="19"/>
-      <c r="P136" s="20"/>
-      <c r="Q136" s="28"/>
+      <c r="O136" s="19">
+        <v>34.721400000000003</v>
+      </c>
+      <c r="P136" s="20">
+        <f t="shared" si="5"/>
+        <v>0.50461358124960698</v>
+      </c>
+      <c r="Q136" s="28">
+        <v>2052</v>
+      </c>
       <c r="V136" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="W136" s="19"/>
-      <c r="X136" s="20"/>
-      <c r="Y136" s="28"/>
-    </row>
-    <row r="137" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W136" s="19">
+        <v>33.923099999999998</v>
+      </c>
+      <c r="X136" s="20">
+        <f t="shared" si="6"/>
+        <v>0.49295583245635277</v>
+      </c>
+      <c r="Y136" s="28">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="137" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F137" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G137" s="19"/>
-      <c r="H137" s="20"/>
-      <c r="I137" s="28"/>
+      <c r="G137" s="19">
+        <v>277.827</v>
+      </c>
+      <c r="H137" s="20">
+        <f t="shared" si="4"/>
+        <v>0.39268109291033271</v>
+      </c>
+      <c r="I137" s="28">
+        <v>3836</v>
+      </c>
       <c r="N137" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O137" s="19"/>
-      <c r="P137" s="20"/>
-      <c r="Q137" s="28"/>
+      <c r="O137" s="19">
+        <v>365.78100000000001</v>
+      </c>
+      <c r="P137" s="20">
+        <f t="shared" si="5"/>
+        <v>0.53871417596867799</v>
+      </c>
+      <c r="Q137" s="28">
+        <v>3025</v>
+      </c>
       <c r="V137" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="W137" s="19"/>
-      <c r="X137" s="20"/>
-      <c r="Y137" s="28"/>
-    </row>
-    <row r="138" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W137" s="19">
+        <v>259.60399999999998</v>
+      </c>
+      <c r="X137" s="20">
+        <f t="shared" si="6"/>
+        <v>0.35005011479021508</v>
+      </c>
+      <c r="Y137" s="28">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="138" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F138" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G138" s="19"/>
-      <c r="H138" s="20"/>
-      <c r="I138" s="28"/>
+      <c r="G138" s="19">
+        <v>201.864</v>
+      </c>
+      <c r="H138" s="20">
+        <f t="shared" si="4"/>
+        <v>0.37038174216304043</v>
+      </c>
+      <c r="I138" s="28">
+        <v>3901</v>
+      </c>
       <c r="N138" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="O138" s="19"/>
-      <c r="P138" s="20"/>
-      <c r="Q138" s="28"/>
+      <c r="O138" s="19">
+        <v>248.49700000000001</v>
+      </c>
+      <c r="P138" s="20">
+        <f t="shared" si="5"/>
+        <v>0.48853603866445067</v>
+      </c>
+      <c r="Q138" s="28">
+        <v>3072</v>
+      </c>
       <c r="V138" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="W138" s="19"/>
-      <c r="X138" s="20"/>
-      <c r="Y138" s="28"/>
-    </row>
-    <row r="139" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W138" s="19">
+        <v>283.339</v>
+      </c>
+      <c r="X138" s="20">
+        <f t="shared" si="6"/>
+        <v>0.55143040668598386</v>
+      </c>
+      <c r="Y138" s="28">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="139" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F139" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G139" s="19"/>
-      <c r="H139" s="20"/>
-      <c r="I139" s="28"/>
+      <c r="G139" s="19">
+        <v>193.20500000000001</v>
+      </c>
+      <c r="H139" s="20">
+        <f t="shared" si="4"/>
+        <v>0.44939732408582078</v>
+      </c>
+      <c r="I139" s="28">
+        <v>4223</v>
+      </c>
       <c r="N139" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O139" s="19"/>
-      <c r="P139" s="20"/>
-      <c r="Q139" s="28"/>
+      <c r="O139" s="19">
+        <v>358.08600000000001</v>
+      </c>
+      <c r="P139" s="20">
+        <f t="shared" si="5"/>
+        <v>0.70292278949749787</v>
+      </c>
+      <c r="Q139" s="28">
+        <v>2889</v>
+      </c>
       <c r="V139" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="W139" s="19"/>
-      <c r="X139" s="20"/>
-      <c r="Y139" s="28"/>
-    </row>
-    <row r="140" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W139" s="19">
+        <v>278.74099999999999</v>
+      </c>
+      <c r="X139" s="20">
+        <f t="shared" si="6"/>
+        <v>0.61835829677012355</v>
+      </c>
+      <c r="Y139" s="28">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="140" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F140" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G140" s="19"/>
-      <c r="H140" s="20"/>
-      <c r="I140" s="28"/>
+      <c r="G140" s="19">
+        <v>191.30199999999999</v>
+      </c>
+      <c r="H140" s="20">
+        <f t="shared" si="4"/>
+        <v>0.2814860273285224</v>
+      </c>
+      <c r="I140" s="28">
+        <v>3524</v>
+      </c>
       <c r="N140" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="O140" s="19"/>
-      <c r="P140" s="20"/>
-      <c r="Q140" s="28"/>
+      <c r="O140" s="19">
+        <v>199.642</v>
+      </c>
+      <c r="P140" s="20">
+        <f t="shared" si="5"/>
+        <v>0.31150178820088453</v>
+      </c>
+      <c r="Q140" s="28">
+        <v>2872</v>
+      </c>
       <c r="V140" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="W140" s="19"/>
-      <c r="X140" s="20"/>
-      <c r="Y140" s="28"/>
-    </row>
-    <row r="141" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W140" s="19">
+        <v>193.63900000000001</v>
+      </c>
+      <c r="X140" s="20">
+        <f t="shared" si="6"/>
+        <v>0.29015766452006569</v>
+      </c>
+      <c r="Y140" s="28">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="141" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F141" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G141" s="19"/>
-      <c r="H141" s="20"/>
-      <c r="I141" s="28"/>
+      <c r="G141" s="19">
+        <v>220.411</v>
+      </c>
+      <c r="H141" s="20">
+        <f t="shared" si="4"/>
+        <v>0.42162714202103796</v>
+      </c>
+      <c r="I141" s="28">
+        <v>4077</v>
+      </c>
       <c r="N141" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O141" s="19"/>
-      <c r="P141" s="20"/>
-      <c r="Q141" s="28"/>
+      <c r="O141" s="19">
+        <v>214.33500000000001</v>
+      </c>
+      <c r="P141" s="20">
+        <f t="shared" si="5"/>
+        <v>0.40523134345766676</v>
+      </c>
+      <c r="Q141" s="28">
+        <v>2764</v>
+      </c>
       <c r="V141" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="W141" s="19"/>
-      <c r="X141" s="20"/>
-      <c r="Y141" s="28"/>
-    </row>
-    <row r="142" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W141" s="19">
+        <v>243.19200000000001</v>
+      </c>
+      <c r="X141" s="20">
+        <f t="shared" si="6"/>
+        <v>0.47580619428270254</v>
+      </c>
+      <c r="Y141" s="28">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="142" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F142" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G142" s="19"/>
-      <c r="H142" s="20"/>
-      <c r="I142" s="28"/>
+      <c r="G142" s="19">
+        <v>32.2194</v>
+      </c>
+      <c r="H142" s="20">
+        <f t="shared" si="4"/>
+        <v>0.63546372682297314</v>
+      </c>
+      <c r="I142" s="28">
+        <v>2967</v>
+      </c>
       <c r="N142" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O142" s="19"/>
-      <c r="P142" s="20"/>
-      <c r="Q142" s="28"/>
+      <c r="O142" s="19">
+        <v>22.3705</v>
+      </c>
+      <c r="P142" s="20">
+        <f t="shared" si="5"/>
+        <v>0.47497194966585904</v>
+      </c>
+      <c r="Q142" s="28">
+        <v>2529</v>
+      </c>
       <c r="V142" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="W142" s="19"/>
-      <c r="X142" s="20"/>
-      <c r="Y142" s="28"/>
-    </row>
-    <row r="143" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W142" s="19">
+        <v>40.180399999999999</v>
+      </c>
+      <c r="X142" s="20">
+        <f t="shared" si="6"/>
+        <v>0.70768981891668825</v>
+      </c>
+      <c r="Y142" s="28">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="143" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F143" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G143" s="19"/>
-      <c r="H143" s="20"/>
-      <c r="I143" s="28"/>
+      <c r="G143" s="19">
+        <v>43.111499999999999</v>
+      </c>
+      <c r="H143" s="20">
+        <f t="shared" si="4"/>
+        <v>0.56417823550561452</v>
+      </c>
+      <c r="I143" s="28">
+        <v>3666</v>
+      </c>
       <c r="N143" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="O143" s="19"/>
-      <c r="P143" s="20"/>
-      <c r="Q143" s="28"/>
+      <c r="O143" s="19">
+        <v>39.888800000000003</v>
+      </c>
+      <c r="P143" s="20">
+        <f t="shared" si="5"/>
+        <v>0.52896727903572693</v>
+      </c>
+      <c r="Q143" s="28">
+        <v>2579</v>
+      </c>
       <c r="V143" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="W143" s="19"/>
-      <c r="X143" s="20"/>
-      <c r="Y143" s="28"/>
-    </row>
-    <row r="144" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W143" s="19">
+        <v>62.2194</v>
+      </c>
+      <c r="X143" s="20">
+        <f t="shared" si="6"/>
+        <v>0.69802135668296861</v>
+      </c>
+      <c r="Y143" s="28">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="144" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F144" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G144" s="19"/>
-      <c r="H144" s="20"/>
-      <c r="I144" s="28"/>
+      <c r="G144" s="19">
+        <v>28.4041</v>
+      </c>
+      <c r="H144" s="20">
+        <f t="shared" si="4"/>
+        <v>0.34757306163547519</v>
+      </c>
+      <c r="I144" s="28">
+        <v>3396</v>
+      </c>
       <c r="N144" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="O144" s="19"/>
-      <c r="P144" s="20"/>
-      <c r="Q144" s="28"/>
+      <c r="O144" s="19">
+        <v>46.474200000000003</v>
+      </c>
+      <c r="P144" s="20">
+        <f t="shared" si="5"/>
+        <v>0.60124972565423829</v>
+      </c>
+      <c r="Q144" s="28">
+        <v>2566</v>
+      </c>
       <c r="V144" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="W144" s="19"/>
-      <c r="X144" s="20"/>
-      <c r="Y144" s="28"/>
-    </row>
-    <row r="145" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W144" s="19">
+        <v>48.660800000000002</v>
+      </c>
+      <c r="X144" s="20">
+        <f t="shared" si="6"/>
+        <v>0.61916779008976841</v>
+      </c>
+      <c r="Y144" s="28">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="145" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F145" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G145" s="19"/>
-      <c r="H145" s="20"/>
-      <c r="I145" s="28"/>
+      <c r="G145" s="19">
+        <v>36.648200000000003</v>
+      </c>
+      <c r="H145" s="20">
+        <f t="shared" si="4"/>
+        <v>0.46823227334493644</v>
+      </c>
+      <c r="I145" s="28">
+        <v>3445</v>
+      </c>
       <c r="N145" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O145" s="19"/>
-      <c r="P145" s="20"/>
-      <c r="Q145" s="28"/>
+      <c r="O145" s="19">
+        <v>43.851900000000001</v>
+      </c>
+      <c r="P145" s="20">
+        <f t="shared" si="5"/>
+        <v>0.55558755720960551</v>
+      </c>
+      <c r="Q145" s="28">
+        <v>2621</v>
+      </c>
       <c r="V145" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="W145" s="19"/>
-      <c r="X145" s="20"/>
-      <c r="Y145" s="28"/>
-    </row>
-    <row r="146" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W145" s="19">
+        <v>31.6692</v>
+      </c>
+      <c r="X145" s="20">
+        <f t="shared" si="6"/>
+        <v>0.38462828236898627</v>
+      </c>
+      <c r="Y145" s="28">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="146" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F146" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G146" s="19"/>
-      <c r="H146" s="20"/>
-      <c r="I146" s="28"/>
+      <c r="G146" s="19">
+        <v>46.270600000000002</v>
+      </c>
+      <c r="H146" s="20">
+        <f t="shared" si="4"/>
+        <v>0.60855446006752023</v>
+      </c>
+      <c r="I146" s="28">
+        <v>3350</v>
+      </c>
       <c r="N146" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="O146" s="19"/>
-      <c r="P146" s="20"/>
-      <c r="Q146" s="28"/>
+      <c r="O146" s="19">
+        <v>42.639800000000001</v>
+      </c>
+      <c r="P146" s="20">
+        <f t="shared" si="5"/>
+        <v>0.57522267928086435</v>
+      </c>
+      <c r="Q146" s="28">
+        <v>2640</v>
+      </c>
       <c r="V146" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="W146" s="19"/>
-      <c r="X146" s="20"/>
-      <c r="Y146" s="28"/>
-    </row>
-    <row r="147" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W146" s="19">
+        <v>50.6629</v>
+      </c>
+      <c r="X146" s="20">
+        <f t="shared" si="6"/>
+        <v>0.64249144837741623</v>
+      </c>
+      <c r="Y146" s="28">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="147" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F147" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G147" s="19"/>
-      <c r="H147" s="20"/>
-      <c r="I147" s="28"/>
+      <c r="G147" s="19">
+        <v>295.04199999999997</v>
+      </c>
+      <c r="H147" s="20">
+        <f t="shared" si="4"/>
+        <v>0.47317747981642605</v>
+      </c>
+      <c r="I147" s="28">
+        <v>4736</v>
+      </c>
       <c r="N147" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O147" s="19"/>
-      <c r="P147" s="20"/>
-      <c r="Q147" s="28"/>
+      <c r="O147" s="19">
+        <v>324.42599999999999</v>
+      </c>
+      <c r="P147" s="20">
+        <f t="shared" si="5"/>
+        <v>0.52089299254683041</v>
+      </c>
+      <c r="Q147" s="28">
+        <v>3765</v>
+      </c>
       <c r="V147" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="W147" s="19"/>
-      <c r="X147" s="20"/>
-      <c r="Y147" s="28"/>
-    </row>
-    <row r="148" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W147" s="19">
+        <v>341.892</v>
+      </c>
+      <c r="X147" s="20">
+        <f t="shared" si="6"/>
+        <v>0.54536880067389115</v>
+      </c>
+      <c r="Y147" s="28">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="148" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F148" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G148" s="19"/>
-      <c r="H148" s="20"/>
-      <c r="I148" s="28"/>
+      <c r="G148" s="19">
+        <v>429.14600000000002</v>
+      </c>
+      <c r="H148" s="20">
+        <f t="shared" si="4"/>
+        <v>0.53653390687551794</v>
+      </c>
+      <c r="I148" s="28">
+        <v>4319</v>
+      </c>
       <c r="N148" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="O148" s="19"/>
-      <c r="P148" s="20"/>
-      <c r="Q148" s="28"/>
+      <c r="O148" s="19">
+        <v>321.983</v>
+      </c>
+      <c r="P148" s="20">
+        <f t="shared" si="5"/>
+        <v>0.38228223229177005</v>
+      </c>
+      <c r="Q148" s="28">
+        <v>3799</v>
+      </c>
       <c r="V148" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="W148" s="19"/>
-      <c r="X148" s="20"/>
-      <c r="Y148" s="28"/>
-    </row>
-    <row r="149" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W148" s="19">
+        <v>346.52800000000002</v>
+      </c>
+      <c r="X148" s="20">
+        <f t="shared" si="6"/>
+        <v>0.42603593360421382</v>
+      </c>
+      <c r="Y148" s="28">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="149" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F149" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G149" s="19"/>
-      <c r="H149" s="20"/>
-      <c r="I149" s="28"/>
+      <c r="G149" s="19">
+        <v>392.70600000000002</v>
+      </c>
+      <c r="H149" s="20">
+        <f t="shared" si="4"/>
+        <v>0.52135432104424173</v>
+      </c>
+      <c r="I149" s="28">
+        <v>4345</v>
+      </c>
       <c r="N149" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="O149" s="19"/>
-      <c r="P149" s="20"/>
-      <c r="Q149" s="28"/>
+      <c r="O149" s="19">
+        <v>316.26400000000001</v>
+      </c>
+      <c r="P149" s="20">
+        <f t="shared" si="5"/>
+        <v>0.40566416032175656</v>
+      </c>
+      <c r="Q149" s="28">
+        <v>3857</v>
+      </c>
       <c r="V149" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="W149" s="19"/>
-      <c r="X149" s="20"/>
-      <c r="Y149" s="28"/>
-    </row>
-    <row r="150" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W149" s="19">
+        <v>378.51400000000001</v>
+      </c>
+      <c r="X149" s="20">
+        <f t="shared" si="6"/>
+        <v>0.50340798490940897</v>
+      </c>
+      <c r="Y149" s="28">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="150" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F150" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G150" s="19"/>
-      <c r="H150" s="20"/>
-      <c r="I150" s="28"/>
+      <c r="G150" s="19">
+        <v>295.62400000000002</v>
+      </c>
+      <c r="H150" s="20">
+        <f t="shared" si="4"/>
+        <v>0.42971409628446611</v>
+      </c>
+      <c r="I150" s="28">
+        <v>4196</v>
+      </c>
       <c r="N150" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="O150" s="19"/>
-      <c r="P150" s="20"/>
-      <c r="Q150" s="28"/>
+      <c r="O150" s="19">
+        <v>416.46699999999998</v>
+      </c>
+      <c r="P150" s="20">
+        <f t="shared" si="5"/>
+        <v>0.59518953482508574</v>
+      </c>
+      <c r="Q150" s="28">
+        <v>3691</v>
+      </c>
       <c r="V150" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="W150" s="19"/>
-      <c r="X150" s="20"/>
-      <c r="Y150" s="28"/>
-    </row>
-    <row r="151" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W150" s="19">
+        <v>399.56900000000002</v>
+      </c>
+      <c r="X150" s="20">
+        <f t="shared" si="6"/>
+        <v>0.57806987028522983</v>
+      </c>
+      <c r="Y150" s="28">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="151" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F151" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G151" s="19"/>
-      <c r="H151" s="20"/>
-      <c r="I151" s="28"/>
+      <c r="G151" s="19">
+        <v>373.08</v>
+      </c>
+      <c r="H151" s="20">
+        <f t="shared" si="4"/>
+        <v>0.52237123405166985</v>
+      </c>
+      <c r="I151" s="28">
+        <v>4113</v>
+      </c>
       <c r="N151" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="O151" s="19"/>
-      <c r="P151" s="20"/>
-      <c r="Q151" s="28"/>
+      <c r="O151" s="19">
+        <v>322.53399999999999</v>
+      </c>
+      <c r="P151" s="20">
+        <f t="shared" si="5"/>
+        <v>0.44751951732219547</v>
+      </c>
+      <c r="Q151" s="28">
+        <v>3798</v>
+      </c>
       <c r="V151" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="W151" s="19"/>
-      <c r="X151" s="20"/>
-      <c r="Y151" s="28"/>
-    </row>
-    <row r="152" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W151" s="19">
+        <v>538.03800000000001</v>
+      </c>
+      <c r="X151" s="20">
+        <f t="shared" si="6"/>
+        <v>0.66880826261341575</v>
+      </c>
+      <c r="Y151" s="28">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="152" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F152" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G152" s="19"/>
-      <c r="H152" s="20"/>
-      <c r="I152" s="28"/>
+      <c r="G152" s="19">
+        <v>43.491500000000002</v>
+      </c>
+      <c r="H152" s="20">
+        <f t="shared" si="4"/>
+        <v>0.46320361449937808</v>
+      </c>
+      <c r="I152" s="28">
+        <v>4539</v>
+      </c>
       <c r="N152" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="O152" s="19"/>
-      <c r="P152" s="20"/>
-      <c r="Q152" s="28"/>
+      <c r="O152" s="19">
+        <v>54.5989</v>
+      </c>
+      <c r="P152" s="20">
+        <f t="shared" si="5"/>
+        <v>0.57240750271525065</v>
+      </c>
+      <c r="Q152" s="28">
+        <v>3358</v>
+      </c>
       <c r="V152" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="W152" s="19"/>
-      <c r="X152" s="20"/>
-      <c r="Y152" s="28"/>
-    </row>
-    <row r="153" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W152" s="19">
+        <v>47.0852</v>
+      </c>
+      <c r="X152" s="20">
+        <f t="shared" si="6"/>
+        <v>0.50417371063518268</v>
+      </c>
+      <c r="Y152" s="28">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="153" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F153" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G153" s="19"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="28"/>
+      <c r="G153" s="19">
+        <v>67.222200000000001</v>
+      </c>
+      <c r="H153" s="20">
+        <f t="shared" si="4"/>
+        <v>0.60147838065401615</v>
+      </c>
+      <c r="I153" s="28">
+        <v>4771</v>
+      </c>
       <c r="N153" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="O153" s="19"/>
-      <c r="P153" s="20"/>
-      <c r="Q153" s="28"/>
+      <c r="O153" s="19">
+        <v>50.643799999999999</v>
+      </c>
+      <c r="P153" s="20">
+        <f t="shared" si="5"/>
+        <v>0.47102113190559164</v>
+      </c>
+      <c r="Q153" s="28">
+        <v>3246</v>
+      </c>
       <c r="V153" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="W153" s="19"/>
-      <c r="X153" s="20"/>
-      <c r="Y153" s="28"/>
-    </row>
-    <row r="154" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W153" s="19">
+        <v>47.619100000000003</v>
+      </c>
+      <c r="X153" s="20">
+        <f t="shared" si="6"/>
+        <v>0.43742111883677776</v>
+      </c>
+      <c r="Y153" s="28">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="154" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F154" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G154" s="19"/>
-      <c r="H154" s="20"/>
-      <c r="I154" s="28"/>
+      <c r="G154" s="19">
+        <v>67.006</v>
+      </c>
+      <c r="H154" s="20">
+        <f t="shared" si="4"/>
+        <v>0.60071530907680504</v>
+      </c>
+      <c r="I154" s="28">
+        <v>3663</v>
+      </c>
       <c r="N154" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="O154" s="19"/>
-      <c r="P154" s="20"/>
-      <c r="Q154" s="28"/>
+      <c r="O154" s="19">
+        <v>72.2577</v>
+      </c>
+      <c r="P154" s="20">
+        <f t="shared" si="5"/>
+        <v>0.62973537768293764</v>
+      </c>
+      <c r="Q154" s="28">
+        <v>3377</v>
+      </c>
       <c r="V154" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="W154" s="19"/>
-      <c r="X154" s="20"/>
-      <c r="Y154" s="28"/>
-    </row>
-    <row r="155" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W154" s="19">
+        <v>42.924799999999998</v>
+      </c>
+      <c r="X154" s="20">
+        <f t="shared" si="6"/>
+        <v>0.37671299575071748</v>
+      </c>
+      <c r="Y154" s="28">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="155" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F155" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G155" s="19"/>
-      <c r="H155" s="20"/>
-      <c r="I155" s="28"/>
+      <c r="G155" s="19">
+        <v>52.251600000000003</v>
+      </c>
+      <c r="H155" s="20">
+        <f t="shared" si="4"/>
+        <v>0.5036402713026874</v>
+      </c>
+      <c r="I155" s="28">
+        <v>4132</v>
+      </c>
       <c r="N155" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="O155" s="19"/>
-      <c r="P155" s="20"/>
-      <c r="Q155" s="28"/>
+      <c r="O155" s="19">
+        <v>67.214100000000002</v>
+      </c>
+      <c r="P155" s="20">
+        <f t="shared" si="5"/>
+        <v>0.61413468305012642</v>
+      </c>
+      <c r="Q155" s="28">
+        <v>3248</v>
+      </c>
       <c r="V155" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="W155" s="19"/>
-      <c r="X155" s="20"/>
-      <c r="Y155" s="28"/>
-    </row>
-    <row r="156" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W155" s="19">
+        <v>57.160400000000003</v>
+      </c>
+      <c r="X155" s="20">
+        <f t="shared" si="6"/>
+        <v>0.54626647119333493</v>
+      </c>
+      <c r="Y155" s="28">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="156" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F156" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G156" s="19"/>
-      <c r="H156" s="20"/>
-      <c r="I156" s="28"/>
+      <c r="G156" s="19">
+        <v>42.818800000000003</v>
+      </c>
+      <c r="H156" s="20">
+        <f t="shared" si="4"/>
+        <v>0.35138280381516068</v>
+      </c>
+      <c r="I156" s="28">
+        <v>4064</v>
+      </c>
       <c r="N156" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="O156" s="19"/>
-      <c r="P156" s="20"/>
-      <c r="Q156" s="28"/>
+      <c r="O156" s="19">
+        <v>48.767200000000003</v>
+      </c>
+      <c r="P156" s="20">
+        <f t="shared" si="5"/>
+        <v>0.43049816269953173</v>
+      </c>
+      <c r="Q156" s="28">
+        <v>3365</v>
+      </c>
       <c r="V156" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="W156" s="19"/>
-      <c r="X156" s="20"/>
-      <c r="Y156" s="28"/>
-    </row>
-    <row r="157" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W156" s="19">
+        <v>47.066800000000001</v>
+      </c>
+      <c r="X156" s="20">
+        <f t="shared" si="6"/>
+        <v>0.40992355545736275</v>
+      </c>
+      <c r="Y156" s="28">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="157" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F157" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G157" s="19"/>
-      <c r="H157" s="20"/>
-      <c r="I157" s="28"/>
+      <c r="G157" s="19">
+        <v>456.84399999999999</v>
+      </c>
+      <c r="H157" s="20">
+        <f t="shared" si="4"/>
+        <v>0.5014724720035767</v>
+      </c>
+      <c r="I157" s="28">
+        <v>8705</v>
+      </c>
       <c r="N157" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="O157" s="19"/>
-      <c r="P157" s="20"/>
-      <c r="Q157" s="28"/>
+      <c r="O157" s="19">
+        <v>475.952</v>
+      </c>
+      <c r="P157" s="20">
+        <f t="shared" si="5"/>
+        <v>0.52148680959424898</v>
+      </c>
+      <c r="Q157" s="28">
+        <v>4589</v>
+      </c>
       <c r="V157" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="W157" s="19"/>
-      <c r="X157" s="20"/>
-      <c r="Y157" s="28"/>
-    </row>
-    <row r="158" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W157" s="19">
+        <v>436.96499999999997</v>
+      </c>
+      <c r="X157" s="20">
+        <f t="shared" si="6"/>
+        <v>0.47879278660762759</v>
+      </c>
+      <c r="Y157" s="28">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="158" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F158" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G158" s="19"/>
-      <c r="H158" s="20"/>
-      <c r="I158" s="28"/>
+      <c r="G158" s="19">
+        <v>306.57400000000001</v>
+      </c>
+      <c r="H158" s="20">
+        <f t="shared" si="4"/>
+        <v>0.25433043898047453</v>
+      </c>
+      <c r="I158" s="28">
+        <v>6206</v>
+      </c>
       <c r="N158" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="O158" s="19"/>
-      <c r="P158" s="20"/>
-      <c r="Q158" s="28"/>
+      <c r="O158" s="19">
+        <v>454.04899999999998</v>
+      </c>
+      <c r="P158" s="20">
+        <f t="shared" si="5"/>
+        <v>0.49652372321049049</v>
+      </c>
+      <c r="Q158" s="28">
+        <v>4374</v>
+      </c>
       <c r="V158" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="W158" s="19"/>
-      <c r="X158" s="20"/>
-      <c r="Y158" s="28"/>
-    </row>
-    <row r="159" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W158" s="19">
+        <v>449.85500000000002</v>
+      </c>
+      <c r="X158" s="20">
+        <f t="shared" si="6"/>
+        <v>0.4918298118282558</v>
+      </c>
+      <c r="Y158" s="28">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="159" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F159" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G159" s="19"/>
-      <c r="H159" s="20"/>
-      <c r="I159" s="28"/>
+      <c r="G159" s="19">
+        <v>391.73399999999998</v>
+      </c>
+      <c r="H159" s="20">
+        <f t="shared" si="4"/>
+        <v>0.42117523625725872</v>
+      </c>
+      <c r="I159" s="28">
+        <v>7052</v>
+      </c>
       <c r="N159" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="O159" s="19"/>
-      <c r="P159" s="20"/>
-      <c r="Q159" s="28"/>
+      <c r="O159" s="19">
+        <v>555.13900000000001</v>
+      </c>
+      <c r="P159" s="20">
+        <f t="shared" si="5"/>
+        <v>0.59155213378991744</v>
+      </c>
+      <c r="Q159" s="28">
+        <v>4741</v>
+      </c>
       <c r="V159" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="W159" s="19"/>
-      <c r="X159" s="20"/>
-      <c r="Y159" s="28"/>
-    </row>
-    <row r="160" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W159" s="19">
+        <v>445.18900000000002</v>
+      </c>
+      <c r="X159" s="20">
+        <f t="shared" si="6"/>
+        <v>0.49067622964628732</v>
+      </c>
+      <c r="Y159" s="28">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="160" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F160" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G160" s="19"/>
-      <c r="H160" s="20"/>
-      <c r="I160" s="28"/>
+      <c r="G160" s="19">
+        <v>434.11200000000002</v>
+      </c>
+      <c r="H160" s="20">
+        <f t="shared" si="4"/>
+        <v>0.47845346362228414</v>
+      </c>
+      <c r="I160" s="28">
+        <v>7404</v>
+      </c>
       <c r="N160" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="O160" s="19"/>
-      <c r="P160" s="20"/>
-      <c r="Q160" s="28"/>
+      <c r="O160" s="19">
+        <v>467.27100000000002</v>
+      </c>
+      <c r="P160" s="20">
+        <f t="shared" si="5"/>
+        <v>0.51546402408879854</v>
+      </c>
+      <c r="Q160" s="28">
+        <v>4569</v>
+      </c>
       <c r="V160" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="W160" s="19"/>
-      <c r="X160" s="20"/>
-      <c r="Y160" s="28"/>
-    </row>
-    <row r="161" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W160" s="19">
+        <v>470.72300000000001</v>
+      </c>
+      <c r="X160" s="20">
+        <f t="shared" si="6"/>
+        <v>0.51901732016493141</v>
+      </c>
+      <c r="Y160" s="28">
+        <v>4757</v>
+      </c>
+    </row>
+    <row r="161" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F161" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G161" s="19"/>
-      <c r="H161" s="20"/>
-      <c r="I161" s="28"/>
+      <c r="G161" s="19">
+        <v>444.392</v>
+      </c>
+      <c r="H161" s="20">
+        <f t="shared" si="4"/>
+        <v>0.44000652577004534</v>
+      </c>
+      <c r="I161" s="28">
+        <v>5746</v>
+      </c>
       <c r="N161" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="O161" s="19"/>
-      <c r="P161" s="20"/>
-      <c r="Q161" s="28"/>
+      <c r="O161" s="19">
+        <v>445.13600000000002</v>
+      </c>
+      <c r="P161" s="20">
+        <f t="shared" si="5"/>
+        <v>0.44094249847238148</v>
+      </c>
+      <c r="Q161" s="28">
+        <v>4370</v>
+      </c>
       <c r="V161" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="W161" s="19"/>
-      <c r="X161" s="20"/>
-      <c r="Y161" s="28"/>
+      <c r="W161" s="19">
+        <v>643.23400000000004</v>
+      </c>
+      <c r="X161" s="20">
+        <f t="shared" si="6"/>
+        <v>0.61311650192620737</v>
+      </c>
+      <c r="Y161" s="28">
+        <v>4668</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
